--- a/Mlife.xlsx
+++ b/Mlife.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swdyy\Dropbox\個人用\仕事\出雲にて\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\swdyy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17B325-3BCB-43A9-B539-05FBE07B4C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BB9026-3893-4E03-A568-6D07DB225DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01　別紙２様式第３－１号" sheetId="2" r:id="rId1"/>
@@ -3777,6 +3777,42 @@
     <phoneticPr fontId="21"/>
   </si>
   <si>
+    <t>以下　計算方法あわせ</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>WCSの運搬業務含む</t>
+    <rPh sb="4" eb="6">
+      <t>ウンパン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
+    <t>←一つの数式にする</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>スウシキ</t>
+    </rPh>
+    <phoneticPr fontId="21"/>
+  </si>
+  <si>
     <t>【令和６年度】
 １．協議会
 　①斐川町ＷＣＳ稲生産協議会
@@ -3814,7 +3850,7 @@
   剤を散布でき、畑地難雑草を抑制できた。
 ・斐川町WCS生産協議会の一員として稲WCSを生産し、また、デントコーンを市内の畜産農家１戸と島根県畜産
   技術センターに独自販売した。さらに来年には新たに市外畜産農家２戸に対して供給を予定している。
-・経営収支計画を作成した時から資材等の経費が高騰して実績の支出は想定支出額の2.2倍に達したため、
+・経営収支計画を作成した時から資材等の経費が高騰して実績の支出は想定支出額の２．４倍に達したため、
 　目標所得が得られていない。</t>
     <rPh sb="1069" eb="1075">
       <t>ケイエイシュウシケイカク</t>
@@ -3839,42 +3875,6 @@
     </rPh>
     <rPh sb="1111" eb="1112">
       <t>タッ</t>
-    </rPh>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>以下　計算方法あわせ</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>WCSの運搬業務含む</t>
-    <rPh sb="4" eb="6">
-      <t>ウンパン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="21"/>
-  </si>
-  <si>
-    <t>←一つの数式にする</t>
-    <rPh sb="1" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スウシキ</t>
     </rPh>
     <phoneticPr fontId="21"/>
   </si>
@@ -3893,7 +3893,7 @@
     <numFmt numFmtId="182" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
     <numFmt numFmtId="183" formatCode="[$-411]ge\.m\.d;@"/>
   </numFmts>
-  <fonts count="52">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4279,6 +4279,22 @@
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -5718,7 +5734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="584">
+  <cellXfs count="586">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6589,98 +6605,383 @@
     <xf numFmtId="2" fontId="51" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="33" borderId="19" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="23" fillId="33" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="23" fillId="33" borderId="17" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="28" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="17" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="22" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="22" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="12" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="0" borderId="13" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="26" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="23" fillId="33" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="44" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="23" fillId="0" borderId="14" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6700,15 +7001,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="44" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="44" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6727,245 +7019,287 @@
     <xf numFmtId="38" fontId="23" fillId="33" borderId="16" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="37" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="11" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="42" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="12" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="13" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="37" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="38" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="39" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="40" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="47" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="23" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="24" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="36" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="37" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="42" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="44" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="41" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="22" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="23" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="24" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="43" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="46" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="42" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="44" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="43" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="25" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="44" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="26" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="48" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="51" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="52" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="35" borderId="36" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="27" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="35" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="50" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="59" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="49" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="60" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="47" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="43" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="53" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="54" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="11" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="58" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="23" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="24" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="43" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="47" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="12" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="22" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="22" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="23" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="24" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="18" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="28" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="10" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="22" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="0" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="23" fillId="33" borderId="10" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -7006,12 +7340,6 @@
     <xf numFmtId="38" fontId="27" fillId="0" borderId="63" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="27" fillId="0" borderId="64" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7033,316 +7361,10 @@
     <xf numFmtId="38" fontId="27" fillId="0" borderId="62" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="23" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="43" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1">
+    <xf numFmtId="38" fontId="53" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="47" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="24" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="23" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="24" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="43" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="47" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="50" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="59" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="49" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="60" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="44" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="53" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="28" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="54" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="57" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="58" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="42" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="22" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="23" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="24" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="43" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="37" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="46" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="48" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="51" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="52" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="35" borderId="36" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="35" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="10" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="44" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="36" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="37" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="38" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="39" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="40" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="42" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="44" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="41" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="22" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="23" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="24" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="43" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="36" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="37" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="42" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="37" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="27" fillId="0" borderId="47" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="33" borderId="17" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="33" borderId="19" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="33" borderId="18" xfId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9731,8 +9753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="23.45" customHeight="1"/>
@@ -9747,39 +9769,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="354" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
     </row>
     <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A3" s="333" t="s">
+      <c r="A3" s="357" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
-      <c r="F3" s="333"/>
-      <c r="G3" s="333"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
     </row>
     <row r="4" spans="1:7" ht="20.45" customHeight="1">
-      <c r="A4" s="333" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="333"/>
-      <c r="G4" s="333"/>
+      <c r="A4" s="357" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="357"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
     </row>
     <row r="5" spans="1:7" ht="12" customHeight="1">
       <c r="A5" s="9"/>
@@ -9793,27 +9815,27 @@
       <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="345" t="s">
+      <c r="B7" s="355" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="345"/>
-      <c r="D7" s="345"/>
-      <c r="E7" s="345"/>
-      <c r="F7" s="345"/>
-      <c r="G7" s="345"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="355"/>
+      <c r="E7" s="355"/>
+      <c r="F7" s="355"/>
+      <c r="G7" s="355"/>
     </row>
     <row r="8" spans="1:7" ht="23.45" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="345" t="s">
+      <c r="B8" s="355" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="345"/>
-      <c r="D8" s="345"/>
-      <c r="E8" s="345"/>
-      <c r="F8" s="345"/>
-      <c r="G8" s="345"/>
+      <c r="C8" s="355"/>
+      <c r="D8" s="355"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="355"/>
+      <c r="G8" s="355"/>
     </row>
     <row r="9" spans="1:7" ht="8.25" customHeight="1">
       <c r="A9" s="8"/>
@@ -9822,116 +9844,116 @@
       <c r="A10" s="8"/>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A11" s="350" t="s">
+      <c r="A11" s="354" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="350"/>
-      <c r="C11" s="350"/>
-      <c r="D11" s="350"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="350"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="354"/>
+      <c r="D11" s="354"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
     </row>
     <row r="12" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A12" s="349" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" s="349"/>
-      <c r="C12" s="349"/>
-      <c r="D12" s="349"/>
-      <c r="E12" s="349"/>
-      <c r="F12" s="349"/>
-      <c r="G12" s="349"/>
+      <c r="A12" s="359" t="s">
+        <v>446</v>
+      </c>
+      <c r="B12" s="359"/>
+      <c r="C12" s="359"/>
+      <c r="D12" s="359"/>
+      <c r="E12" s="359"/>
+      <c r="F12" s="359"/>
+      <c r="G12" s="359"/>
     </row>
     <row r="13" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A13" s="349"/>
-      <c r="B13" s="349"/>
-      <c r="C13" s="349"/>
-      <c r="D13" s="349"/>
-      <c r="E13" s="349"/>
-      <c r="F13" s="349"/>
-      <c r="G13" s="349"/>
+      <c r="A13" s="359"/>
+      <c r="B13" s="359"/>
+      <c r="C13" s="359"/>
+      <c r="D13" s="359"/>
+      <c r="E13" s="359"/>
+      <c r="F13" s="359"/>
+      <c r="G13" s="359"/>
     </row>
     <row r="14" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A14" s="349"/>
-      <c r="B14" s="349"/>
-      <c r="C14" s="349"/>
-      <c r="D14" s="349"/>
-      <c r="E14" s="349"/>
-      <c r="F14" s="349"/>
-      <c r="G14" s="349"/>
+      <c r="A14" s="359"/>
+      <c r="B14" s="359"/>
+      <c r="C14" s="359"/>
+      <c r="D14" s="359"/>
+      <c r="E14" s="359"/>
+      <c r="F14" s="359"/>
+      <c r="G14" s="359"/>
     </row>
     <row r="15" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A15" s="349"/>
-      <c r="B15" s="349"/>
-      <c r="C15" s="349"/>
-      <c r="D15" s="349"/>
-      <c r="E15" s="349"/>
-      <c r="F15" s="349"/>
-      <c r="G15" s="349"/>
+      <c r="A15" s="359"/>
+      <c r="B15" s="359"/>
+      <c r="C15" s="359"/>
+      <c r="D15" s="359"/>
+      <c r="E15" s="359"/>
+      <c r="F15" s="359"/>
+      <c r="G15" s="359"/>
     </row>
     <row r="16" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A16" s="349"/>
-      <c r="B16" s="349"/>
-      <c r="C16" s="349"/>
-      <c r="D16" s="349"/>
-      <c r="E16" s="349"/>
-      <c r="F16" s="349"/>
-      <c r="G16" s="349"/>
+      <c r="A16" s="359"/>
+      <c r="B16" s="359"/>
+      <c r="C16" s="359"/>
+      <c r="D16" s="359"/>
+      <c r="E16" s="359"/>
+      <c r="F16" s="359"/>
+      <c r="G16" s="359"/>
     </row>
     <row r="17" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A17" s="349"/>
-      <c r="B17" s="349"/>
-      <c r="C17" s="349"/>
-      <c r="D17" s="349"/>
-      <c r="E17" s="349"/>
-      <c r="F17" s="349"/>
-      <c r="G17" s="349"/>
+      <c r="A17" s="359"/>
+      <c r="B17" s="359"/>
+      <c r="C17" s="359"/>
+      <c r="D17" s="359"/>
+      <c r="E17" s="359"/>
+      <c r="F17" s="359"/>
+      <c r="G17" s="359"/>
     </row>
     <row r="18" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A18" s="349"/>
-      <c r="B18" s="349"/>
-      <c r="C18" s="349"/>
-      <c r="D18" s="349"/>
-      <c r="E18" s="349"/>
-      <c r="F18" s="349"/>
-      <c r="G18" s="349"/>
+      <c r="A18" s="359"/>
+      <c r="B18" s="359"/>
+      <c r="C18" s="359"/>
+      <c r="D18" s="359"/>
+      <c r="E18" s="359"/>
+      <c r="F18" s="359"/>
+      <c r="G18" s="359"/>
     </row>
     <row r="19" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A19" s="349"/>
-      <c r="B19" s="349"/>
-      <c r="C19" s="349"/>
-      <c r="D19" s="349"/>
-      <c r="E19" s="349"/>
-      <c r="F19" s="349"/>
-      <c r="G19" s="349"/>
+      <c r="A19" s="359"/>
+      <c r="B19" s="359"/>
+      <c r="C19" s="359"/>
+      <c r="D19" s="359"/>
+      <c r="E19" s="359"/>
+      <c r="F19" s="359"/>
+      <c r="G19" s="359"/>
     </row>
     <row r="20" spans="1:7" ht="51.75" customHeight="1">
-      <c r="A20" s="349"/>
-      <c r="B20" s="349"/>
-      <c r="C20" s="349"/>
-      <c r="D20" s="349"/>
-      <c r="E20" s="349"/>
-      <c r="F20" s="349"/>
-      <c r="G20" s="349"/>
+      <c r="A20" s="359"/>
+      <c r="B20" s="359"/>
+      <c r="C20" s="359"/>
+      <c r="D20" s="359"/>
+      <c r="E20" s="359"/>
+      <c r="F20" s="359"/>
+      <c r="G20" s="359"/>
     </row>
     <row r="21" spans="1:7" ht="131.25" customHeight="1">
-      <c r="A21" s="349"/>
-      <c r="B21" s="349"/>
-      <c r="C21" s="349"/>
-      <c r="D21" s="349"/>
-      <c r="E21" s="349"/>
-      <c r="F21" s="349"/>
-      <c r="G21" s="349"/>
+      <c r="A21" s="359"/>
+      <c r="B21" s="359"/>
+      <c r="C21" s="359"/>
+      <c r="D21" s="359"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="359"/>
+      <c r="G21" s="359"/>
     </row>
     <row r="22" spans="1:7" ht="13.5">
-      <c r="A22" s="355" t="s">
+      <c r="A22" s="356" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="355"/>
-      <c r="C22" s="355"/>
-      <c r="D22" s="355"/>
-      <c r="E22" s="355"/>
-      <c r="F22" s="355"/>
+      <c r="B22" s="356"/>
+      <c r="C22" s="356"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="356"/>
+      <c r="F22" s="356"/>
     </row>
     <row r="23" spans="1:7" ht="6.75" customHeight="1">
       <c r="A23" s="8"/>
@@ -9940,15 +9962,15 @@
       <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A25" s="355" t="s">
+      <c r="A25" s="356" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="355"/>
-      <c r="C25" s="355"/>
-      <c r="D25" s="355"/>
-      <c r="E25" s="355"/>
-      <c r="F25" s="355"/>
-      <c r="G25" s="355"/>
+      <c r="B25" s="356"/>
+      <c r="C25" s="356"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="356"/>
+      <c r="F25" s="356"/>
+      <c r="G25" s="356"/>
     </row>
     <row r="26" spans="1:7" ht="23.45" customHeight="1">
       <c r="A26" s="358" t="s">
@@ -9969,7 +9991,7 @@
       <c r="F26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="340" t="s">
+      <c r="G26" s="341" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9993,10 +10015,10 @@
       <c r="G27" s="342"/>
     </row>
     <row r="28" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A28" s="345" t="s">
+      <c r="A28" s="355" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="359">
+      <c r="B28" s="360">
         <v>0</v>
       </c>
       <c r="C28" s="31">
@@ -10008,22 +10030,22 @@
       <c r="F28" s="26">
         <v>12015000</v>
       </c>
-      <c r="G28" s="352"/>
+      <c r="G28" s="351"/>
     </row>
     <row r="29" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A29" s="345"/>
-      <c r="B29" s="360"/>
+      <c r="A29" s="355"/>
+      <c r="B29" s="361"/>
       <c r="C29" s="17" t="s">
         <v>82</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
       <c r="F29" s="16"/>
-      <c r="G29" s="353"/>
+      <c r="G29" s="352"/>
     </row>
     <row r="30" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A30" s="345"/>
-      <c r="B30" s="360"/>
+      <c r="A30" s="355"/>
+      <c r="B30" s="361"/>
       <c r="C30" s="18">
         <f>C28/C32</f>
         <v>0.11232020029179973</v>
@@ -10033,22 +10055,22 @@
       <c r="F30" s="28">
         <v>0.16700000000000001</v>
       </c>
-      <c r="G30" s="353"/>
+      <c r="G30" s="352"/>
     </row>
     <row r="31" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A31" s="345"/>
-      <c r="B31" s="360"/>
+      <c r="A31" s="355"/>
+      <c r="B31" s="361"/>
       <c r="C31" s="29" t="s">
         <v>83</v>
       </c>
       <c r="D31" s="30"/>
       <c r="E31" s="30"/>
       <c r="F31" s="16"/>
-      <c r="G31" s="353"/>
+      <c r="G31" s="352"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A32" s="345"/>
-      <c r="B32" s="361"/>
+      <c r="A32" s="355"/>
+      <c r="B32" s="362"/>
       <c r="C32" s="330">
         <v>77272859</v>
       </c>
@@ -10057,48 +10079,48 @@
       <c r="F32" s="27">
         <v>71797853</v>
       </c>
-      <c r="G32" s="354"/>
+      <c r="G32" s="353"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A33" s="345" t="s">
+      <c r="A33" s="355" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="356"/>
-      <c r="C33" s="348">
+      <c r="B33" s="343"/>
+      <c r="C33" s="345">
         <f>'別紙２様式第３－１号の７'!L11</f>
         <v>14697998.702170614</v>
       </c>
-      <c r="D33" s="340"/>
-      <c r="E33" s="340"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="356"/>
+      <c r="D33" s="341"/>
+      <c r="E33" s="341"/>
+      <c r="F33" s="343"/>
+      <c r="G33" s="343"/>
     </row>
     <row r="34" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A34" s="345"/>
-      <c r="B34" s="357"/>
-      <c r="C34" s="347"/>
+      <c r="A34" s="355"/>
+      <c r="B34" s="344"/>
+      <c r="C34" s="346"/>
       <c r="D34" s="342"/>
       <c r="E34" s="342"/>
-      <c r="F34" s="357"/>
-      <c r="G34" s="357"/>
+      <c r="F34" s="344"/>
+      <c r="G34" s="344"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A35" s="345" t="s">
+      <c r="A35" s="355" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="338">
-        <v>0</v>
-      </c>
-      <c r="C35" s="575">
+      <c r="B35" s="373">
+        <v>0</v>
+      </c>
+      <c r="C35" s="374">
         <f>SUM(入力する経費!C4:C7)/100</f>
         <v>21.138999999999999</v>
       </c>
-      <c r="D35" s="340"/>
-      <c r="E35" s="340"/>
-      <c r="F35" s="338">
+      <c r="D35" s="341"/>
+      <c r="E35" s="341"/>
+      <c r="F35" s="373">
         <v>31.5</v>
       </c>
-      <c r="G35" s="343">
+      <c r="G35" s="366">
         <f>G62</f>
         <v>21.138999999999999</v>
       </c>
@@ -10107,40 +10129,40 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A36" s="335"/>
-      <c r="B36" s="339"/>
-      <c r="C36" s="576"/>
-      <c r="D36" s="341"/>
-      <c r="E36" s="341"/>
-      <c r="F36" s="339"/>
-      <c r="G36" s="344"/>
+      <c r="A36" s="347"/>
+      <c r="B36" s="368"/>
+      <c r="C36" s="370"/>
+      <c r="D36" s="350"/>
+      <c r="E36" s="350"/>
+      <c r="F36" s="368"/>
+      <c r="G36" s="367"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A37" s="337" t="s">
+      <c r="A37" s="349" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="339">
-        <v>0</v>
-      </c>
-      <c r="C37" s="576">
+      <c r="B37" s="368">
+        <v>0</v>
+      </c>
+      <c r="C37" s="370">
         <f>E44</f>
         <v>21.138999999999999</v>
       </c>
-      <c r="D37" s="341"/>
-      <c r="E37" s="341"/>
-      <c r="F37" s="339">
+      <c r="D37" s="350"/>
+      <c r="E37" s="350"/>
+      <c r="F37" s="368">
         <v>11.5</v>
       </c>
-      <c r="G37" s="344"/>
+      <c r="G37" s="367"/>
     </row>
     <row r="38" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A38" s="345"/>
-      <c r="B38" s="346"/>
-      <c r="C38" s="577"/>
+      <c r="A38" s="355"/>
+      <c r="B38" s="369"/>
+      <c r="C38" s="371"/>
       <c r="D38" s="342"/>
       <c r="E38" s="342"/>
-      <c r="F38" s="346"/>
-      <c r="G38" s="573"/>
+      <c r="F38" s="369"/>
+      <c r="G38" s="372"/>
     </row>
     <row r="39" spans="1:8" ht="7.5" customHeight="1">
       <c r="A39" s="14"/>
@@ -10154,27 +10176,27 @@
       <c r="A40" s="8"/>
     </row>
     <row r="41" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A41" s="350" t="s">
+      <c r="A41" s="354" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="350"/>
-      <c r="C41" s="350"/>
-      <c r="D41" s="350"/>
-      <c r="E41" s="350"/>
-      <c r="F41" s="350"/>
-      <c r="G41" s="350"/>
+      <c r="B41" s="354"/>
+      <c r="C41" s="354"/>
+      <c r="D41" s="354"/>
+      <c r="E41" s="354"/>
+      <c r="F41" s="354"/>
+      <c r="G41" s="354"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1">
-      <c r="A42" s="340" t="s">
+      <c r="A42" s="341" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="340" t="s">
+      <c r="B42" s="341" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="340" t="s">
+      <c r="C42" s="341" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="340" t="s">
+      <c r="D42" s="341" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="12" t="s">
@@ -10183,7 +10205,7 @@
       <c r="F42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="340" t="s">
+      <c r="G42" s="341" t="s">
         <v>15</v>
       </c>
     </row>
@@ -10201,16 +10223,16 @@
       <c r="G43" s="342"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A44" s="335" t="s">
+      <c r="A44" s="347" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="340" t="s">
+      <c r="B44" s="341" t="s">
         <v>52</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="340" t="s">
+      <c r="D44" s="341" t="s">
         <v>85</v>
       </c>
       <c r="E44" s="171">
@@ -10221,41 +10243,41 @@
       <c r="G44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A45" s="336"/>
-      <c r="B45" s="341"/>
+      <c r="A45" s="348"/>
+      <c r="B45" s="350"/>
       <c r="C45" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="341"/>
-      <c r="E45" s="578"/>
+      <c r="D45" s="350"/>
+      <c r="E45" s="334"/>
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A46" s="337"/>
+      <c r="A46" s="349"/>
       <c r="B46" s="342"/>
       <c r="C46" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="342"/>
-      <c r="E46" s="578"/>
+      <c r="E46" s="334"/>
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A47" s="335" t="s">
+      <c r="A47" s="347" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="340" t="s">
+      <c r="B47" s="341" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="340" t="s">
+      <c r="D47" s="341" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="579">
+      <c r="E47" s="335">
         <f>E44</f>
         <v>21.138999999999999</v>
       </c>
@@ -10263,41 +10285,41 @@
       <c r="G47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A48" s="336"/>
-      <c r="B48" s="341"/>
+      <c r="A48" s="348"/>
+      <c r="B48" s="350"/>
       <c r="C48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="341"/>
-      <c r="E48" s="580"/>
+      <c r="D48" s="350"/>
+      <c r="E48" s="336"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A49" s="337"/>
+      <c r="A49" s="349"/>
       <c r="B49" s="342"/>
       <c r="C49" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D49" s="342"/>
-      <c r="E49" s="580"/>
+      <c r="E49" s="336"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A50" s="335" t="s">
+      <c r="A50" s="347" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="332" t="s">
+      <c r="B50" s="364" t="s">
         <v>52</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="332" t="s">
+      <c r="D50" s="364" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="581">
+      <c r="E50" s="337">
         <f>E44</f>
         <v>21.138999999999999</v>
       </c>
@@ -10305,68 +10327,68 @@
       <c r="G50" s="11"/>
     </row>
     <row r="51" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A51" s="336"/>
-      <c r="B51" s="333"/>
+      <c r="A51" s="348"/>
+      <c r="B51" s="357"/>
       <c r="C51" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="333"/>
-      <c r="E51" s="582"/>
+      <c r="D51" s="357"/>
+      <c r="E51" s="338"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A52" s="337"/>
-      <c r="B52" s="334"/>
+      <c r="A52" s="349"/>
+      <c r="B52" s="365"/>
       <c r="C52" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="334"/>
-      <c r="E52" s="580"/>
+      <c r="D52" s="365"/>
+      <c r="E52" s="336"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A53" s="335" t="s">
+      <c r="A53" s="347" t="s">
         <v>81</v>
       </c>
-      <c r="B53" s="332" t="s">
+      <c r="B53" s="364" t="s">
         <v>52</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="340" t="s">
+      <c r="D53" s="341" t="s">
         <v>88</v>
       </c>
-      <c r="E53" s="579">
+      <c r="E53" s="335">
         <f>E44+(1190/1048)*1244/100</f>
         <v>35.26457251908397</v>
       </c>
       <c r="F53" s="20"/>
-      <c r="G53" s="574" t="s">
-        <v>445</v>
+      <c r="G53" s="333" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A54" s="336"/>
-      <c r="B54" s="333"/>
+      <c r="A54" s="348"/>
+      <c r="B54" s="357"/>
       <c r="C54" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="341"/>
-      <c r="E54" s="580"/>
+      <c r="D54" s="350"/>
+      <c r="E54" s="336"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A55" s="337"/>
-      <c r="B55" s="334"/>
+      <c r="A55" s="349"/>
+      <c r="B55" s="365"/>
       <c r="C55" s="15" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="342"/>
-      <c r="E55" s="580"/>
+      <c r="E55" s="336"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
@@ -10377,29 +10399,29 @@
       <c r="A57" s="8"/>
     </row>
     <row r="58" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A58" s="350" t="s">
+      <c r="A58" s="354" t="s">
         <v>16</v>
       </c>
-      <c r="B58" s="350"/>
-      <c r="C58" s="350"/>
-      <c r="D58" s="350"/>
-      <c r="E58" s="350"/>
-      <c r="F58" s="350"/>
-      <c r="G58" s="350"/>
+      <c r="B58" s="354"/>
+      <c r="C58" s="354"/>
+      <c r="D58" s="354"/>
+      <c r="E58" s="354"/>
+      <c r="F58" s="354"/>
+      <c r="G58" s="354"/>
     </row>
     <row r="59" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A59" s="350" t="s">
+      <c r="A59" s="354" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="350"/>
-      <c r="C59" s="350"/>
-      <c r="D59" s="350"/>
-      <c r="E59" s="350"/>
-      <c r="F59" s="350"/>
-      <c r="G59" s="350"/>
+      <c r="B59" s="354"/>
+      <c r="C59" s="354"/>
+      <c r="D59" s="354"/>
+      <c r="E59" s="354"/>
+      <c r="F59" s="354"/>
+      <c r="G59" s="354"/>
     </row>
     <row r="60" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A60" s="340" t="s">
+      <c r="A60" s="341" t="s">
         <v>17</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -10414,7 +10436,7 @@
       <c r="E60" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="340" t="s">
+      <c r="F60" s="341" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10470,7 +10492,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
-      <c r="G63" s="572">
+      <c r="G63" s="332">
         <f>E44</f>
         <v>21.138999999999999</v>
       </c>
@@ -10484,26 +10506,26 @@
       <c r="F64" s="11"/>
     </row>
     <row r="65" spans="1:7" ht="13.5">
-      <c r="A65" s="350" t="s">
+      <c r="A65" s="354" t="s">
         <v>21</v>
       </c>
-      <c r="B65" s="350"/>
-      <c r="C65" s="350"/>
-      <c r="D65" s="350"/>
-      <c r="E65" s="350"/>
-      <c r="F65" s="350"/>
-      <c r="G65" s="350"/>
+      <c r="B65" s="354"/>
+      <c r="C65" s="354"/>
+      <c r="D65" s="354"/>
+      <c r="E65" s="354"/>
+      <c r="F65" s="354"/>
+      <c r="G65" s="354"/>
     </row>
     <row r="66" spans="1:7" ht="13.5">
-      <c r="A66" s="350" t="s">
+      <c r="A66" s="354" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="350"/>
-      <c r="C66" s="350"/>
-      <c r="D66" s="350"/>
-      <c r="E66" s="350"/>
-      <c r="F66" s="350"/>
-      <c r="G66" s="350"/>
+      <c r="B66" s="354"/>
+      <c r="C66" s="354"/>
+      <c r="D66" s="354"/>
+      <c r="E66" s="354"/>
+      <c r="F66" s="354"/>
+      <c r="G66" s="354"/>
     </row>
     <row r="67" spans="1:7" ht="11.25" customHeight="1">
       <c r="A67" s="8"/>
@@ -10512,18 +10534,18 @@
       <c r="A68" s="8"/>
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A69" s="351" t="s">
+      <c r="A69" s="363" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="351"/>
-      <c r="C69" s="351"/>
-      <c r="D69" s="351"/>
-      <c r="E69" s="351"/>
-      <c r="F69" s="351"/>
-      <c r="G69" s="351"/>
+      <c r="B69" s="363"/>
+      <c r="C69" s="363"/>
+      <c r="D69" s="363"/>
+      <c r="E69" s="363"/>
+      <c r="F69" s="363"/>
+      <c r="G69" s="363"/>
     </row>
     <row r="70" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A70" s="340" t="s">
+      <c r="A70" s="341" t="s">
         <v>17</v>
       </c>
       <c r="B70" s="12" t="s">
@@ -10538,7 +10560,7 @@
       <c r="E70" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F70" s="340" t="s">
+      <c r="F70" s="341" t="s">
         <v>54</v>
       </c>
     </row>
@@ -10597,93 +10619,144 @@
       <c r="F74" s="11"/>
     </row>
     <row r="75" spans="1:7" ht="13.5">
-      <c r="A75" s="350" t="s">
+      <c r="A75" s="354" t="s">
         <v>24</v>
       </c>
-      <c r="B75" s="350"/>
-      <c r="C75" s="350"/>
-      <c r="D75" s="350"/>
-      <c r="E75" s="350"/>
-      <c r="F75" s="350"/>
-      <c r="G75" s="350"/>
+      <c r="B75" s="354"/>
+      <c r="C75" s="354"/>
+      <c r="D75" s="354"/>
+      <c r="E75" s="354"/>
+      <c r="F75" s="354"/>
+      <c r="G75" s="354"/>
     </row>
     <row r="76" spans="1:7" ht="13.5">
-      <c r="A76" s="350" t="s">
+      <c r="A76" s="354" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="350"/>
-      <c r="C76" s="350"/>
-      <c r="D76" s="350"/>
-      <c r="E76" s="350"/>
-      <c r="F76" s="350"/>
-      <c r="G76" s="350"/>
+      <c r="B76" s="354"/>
+      <c r="C76" s="354"/>
+      <c r="D76" s="354"/>
+      <c r="E76" s="354"/>
+      <c r="F76" s="354"/>
+      <c r="G76" s="354"/>
     </row>
     <row r="77" spans="1:7" ht="14.25">
       <c r="A77" s="9"/>
     </row>
     <row r="78" spans="1:7" ht="23.45" customHeight="1">
-      <c r="A78" s="350" t="s">
+      <c r="A78" s="354" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="350"/>
-      <c r="C78" s="350"/>
-      <c r="D78" s="350"/>
-      <c r="E78" s="350"/>
-      <c r="F78" s="350"/>
-      <c r="G78" s="350"/>
+      <c r="B78" s="354"/>
+      <c r="C78" s="354"/>
+      <c r="D78" s="354"/>
+      <c r="E78" s="354"/>
+      <c r="F78" s="354"/>
+      <c r="G78" s="354"/>
     </row>
     <row r="79" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A79" s="349" t="s">
+      <c r="A79" s="359" t="s">
         <v>239</v>
       </c>
-      <c r="B79" s="349"/>
-      <c r="C79" s="349"/>
-      <c r="D79" s="349"/>
-      <c r="E79" s="349"/>
-      <c r="F79" s="349"/>
-      <c r="G79" s="349"/>
+      <c r="B79" s="359"/>
+      <c r="C79" s="359"/>
+      <c r="D79" s="359"/>
+      <c r="E79" s="359"/>
+      <c r="F79" s="359"/>
+      <c r="G79" s="359"/>
     </row>
     <row r="80" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A80" s="349"/>
-      <c r="B80" s="349"/>
-      <c r="C80" s="349"/>
-      <c r="D80" s="349"/>
-      <c r="E80" s="349"/>
-      <c r="F80" s="349"/>
-      <c r="G80" s="349"/>
+      <c r="A80" s="359"/>
+      <c r="B80" s="359"/>
+      <c r="C80" s="359"/>
+      <c r="D80" s="359"/>
+      <c r="E80" s="359"/>
+      <c r="F80" s="359"/>
+      <c r="G80" s="359"/>
     </row>
     <row r="81" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A81" s="349"/>
-      <c r="B81" s="349"/>
-      <c r="C81" s="349"/>
-      <c r="D81" s="349"/>
-      <c r="E81" s="349"/>
-      <c r="F81" s="349"/>
-      <c r="G81" s="349"/>
+      <c r="A81" s="359"/>
+      <c r="B81" s="359"/>
+      <c r="C81" s="359"/>
+      <c r="D81" s="359"/>
+      <c r="E81" s="359"/>
+      <c r="F81" s="359"/>
+      <c r="G81" s="359"/>
     </row>
     <row r="82" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A82" s="349"/>
-      <c r="B82" s="349"/>
-      <c r="C82" s="349"/>
-      <c r="D82" s="349"/>
-      <c r="E82" s="349"/>
-      <c r="F82" s="349"/>
-      <c r="G82" s="349"/>
+      <c r="A82" s="359"/>
+      <c r="B82" s="359"/>
+      <c r="C82" s="359"/>
+      <c r="D82" s="359"/>
+      <c r="E82" s="359"/>
+      <c r="F82" s="359"/>
+      <c r="G82" s="359"/>
     </row>
     <row r="83" spans="1:7" ht="18" customHeight="1">
-      <c r="A83" s="362" t="s">
+      <c r="A83" s="340" t="s">
         <v>31</v>
       </c>
-      <c r="B83" s="362"/>
-      <c r="C83" s="362"/>
-      <c r="D83" s="362"/>
-      <c r="E83" s="362"/>
-      <c r="F83" s="362"/>
-      <c r="G83" s="362"/>
+      <c r="B83" s="340"/>
+      <c r="C83" s="340"/>
+      <c r="D83" s="340"/>
+      <c r="E83" s="340"/>
+      <c r="F83" s="340"/>
+      <c r="G83" s="340"/>
     </row>
     <row r="84" spans="1:7" ht="13.5"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A79:G82"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A78:G78"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="G28:G32"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A12:G21"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A83:G83"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="A60:A61"/>
@@ -10700,57 +10773,6 @@
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="A47:A49"/>
-    <mergeCell ref="G28:G32"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A12:G21"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="A79:G82"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="D53:D55"/>
   </mergeCells>
   <phoneticPr fontId="21"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.43307086614173229" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10771,7 +10793,7 @@
   </sheetPr>
   <dimension ref="A1:AP65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="G32" sqref="G32:J32"/>
     </sheetView>
   </sheetViews>
@@ -10783,90 +10805,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="21.6" customHeight="1">
-      <c r="A1" s="450" t="s">
+      <c r="A1" s="398" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="450"/>
-      <c r="F1" s="450"/>
-      <c r="G1" s="450"/>
-      <c r="H1" s="450"/>
-      <c r="I1" s="450"/>
-      <c r="J1" s="450"/>
-      <c r="K1" s="450"/>
-      <c r="L1" s="450"/>
-      <c r="M1" s="450"/>
-      <c r="N1" s="450"/>
-      <c r="O1" s="450"/>
-      <c r="P1" s="450"/>
-      <c r="Q1" s="450"/>
-      <c r="R1" s="450"/>
-      <c r="S1" s="450"/>
-      <c r="T1" s="450"/>
-      <c r="U1" s="450"/>
-      <c r="V1" s="450"/>
-      <c r="W1" s="450"/>
-      <c r="X1" s="450"/>
-      <c r="Y1" s="450"/>
-      <c r="Z1" s="450"/>
-      <c r="AA1" s="450"/>
-      <c r="AB1" s="450"/>
-      <c r="AC1" s="450"/>
-      <c r="AD1" s="450"/>
-      <c r="AE1" s="450"/>
-      <c r="AF1" s="450"/>
-      <c r="AG1" s="450"/>
-      <c r="AH1" s="450"/>
-      <c r="AI1" s="450"/>
-      <c r="AJ1" s="450"/>
-      <c r="AK1" s="450"/>
-      <c r="AL1" s="450"/>
-      <c r="AM1" s="450"/>
+      <c r="B1" s="398"/>
+      <c r="C1" s="398"/>
+      <c r="D1" s="398"/>
+      <c r="E1" s="398"/>
+      <c r="F1" s="398"/>
+      <c r="G1" s="398"/>
+      <c r="H1" s="398"/>
+      <c r="I1" s="398"/>
+      <c r="J1" s="398"/>
+      <c r="K1" s="398"/>
+      <c r="L1" s="398"/>
+      <c r="M1" s="398"/>
+      <c r="N1" s="398"/>
+      <c r="O1" s="398"/>
+      <c r="P1" s="398"/>
+      <c r="Q1" s="398"/>
+      <c r="R1" s="398"/>
+      <c r="S1" s="398"/>
+      <c r="T1" s="398"/>
+      <c r="U1" s="398"/>
+      <c r="V1" s="398"/>
+      <c r="W1" s="398"/>
+      <c r="X1" s="398"/>
+      <c r="Y1" s="398"/>
+      <c r="Z1" s="398"/>
+      <c r="AA1" s="398"/>
+      <c r="AB1" s="398"/>
+      <c r="AC1" s="398"/>
+      <c r="AD1" s="398"/>
+      <c r="AE1" s="398"/>
+      <c r="AF1" s="398"/>
+      <c r="AG1" s="398"/>
+      <c r="AH1" s="398"/>
+      <c r="AI1" s="398"/>
+      <c r="AJ1" s="398"/>
+      <c r="AK1" s="398"/>
+      <c r="AL1" s="398"/>
+      <c r="AM1" s="398"/>
     </row>
     <row r="2" spans="1:42" ht="13.5">
-      <c r="A2" s="450" t="s">
+      <c r="A2" s="398" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="450"/>
-      <c r="C2" s="450"/>
-      <c r="D2" s="450"/>
-      <c r="E2" s="450"/>
-      <c r="F2" s="450"/>
-      <c r="G2" s="450"/>
-      <c r="H2" s="450"/>
-      <c r="I2" s="450"/>
-      <c r="J2" s="450"/>
-      <c r="K2" s="450"/>
-      <c r="L2" s="450"/>
-      <c r="M2" s="450"/>
-      <c r="N2" s="450"/>
-      <c r="O2" s="450"/>
-      <c r="P2" s="450"/>
-      <c r="Q2" s="450"/>
-      <c r="R2" s="450"/>
-      <c r="S2" s="450"/>
-      <c r="T2" s="450"/>
-      <c r="U2" s="450"/>
-      <c r="V2" s="450"/>
-      <c r="W2" s="450"/>
-      <c r="X2" s="450"/>
-      <c r="Y2" s="450"/>
-      <c r="Z2" s="450"/>
-      <c r="AA2" s="450"/>
-      <c r="AB2" s="450"/>
-      <c r="AC2" s="450"/>
-      <c r="AD2" s="450"/>
-      <c r="AE2" s="450"/>
-      <c r="AF2" s="450"/>
-      <c r="AG2" s="450"/>
-      <c r="AH2" s="450"/>
-      <c r="AI2" s="450"/>
-      <c r="AJ2" s="450"/>
-      <c r="AK2" s="450"/>
-      <c r="AL2" s="450"/>
-      <c r="AM2" s="450"/>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
+      <c r="G2" s="398"/>
+      <c r="H2" s="398"/>
+      <c r="I2" s="398"/>
+      <c r="J2" s="398"/>
+      <c r="K2" s="398"/>
+      <c r="L2" s="398"/>
+      <c r="M2" s="398"/>
+      <c r="N2" s="398"/>
+      <c r="O2" s="398"/>
+      <c r="P2" s="398"/>
+      <c r="Q2" s="398"/>
+      <c r="R2" s="398"/>
+      <c r="S2" s="398"/>
+      <c r="T2" s="398"/>
+      <c r="U2" s="398"/>
+      <c r="V2" s="398"/>
+      <c r="W2" s="398"/>
+      <c r="X2" s="398"/>
+      <c r="Y2" s="398"/>
+      <c r="Z2" s="398"/>
+      <c r="AA2" s="398"/>
+      <c r="AB2" s="398"/>
+      <c r="AC2" s="398"/>
+      <c r="AD2" s="398"/>
+      <c r="AE2" s="398"/>
+      <c r="AF2" s="398"/>
+      <c r="AG2" s="398"/>
+      <c r="AH2" s="398"/>
+      <c r="AI2" s="398"/>
+      <c r="AJ2" s="398"/>
+      <c r="AK2" s="398"/>
+      <c r="AL2" s="398"/>
+      <c r="AM2" s="398"/>
     </row>
     <row r="3" spans="1:42" s="1" customFormat="1" ht="13.5">
       <c r="B3" s="3"/>
@@ -10910,491 +10932,491 @@
       </c>
     </row>
     <row r="4" spans="1:42" ht="18.75">
-      <c r="A4" s="405"/>
-      <c r="B4" s="366" t="s">
+      <c r="A4" s="399"/>
+      <c r="B4" s="461" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="366"/>
-      <c r="D4" s="366"/>
-      <c r="E4" s="366"/>
-      <c r="F4" s="366"/>
-      <c r="G4" s="366"/>
-      <c r="H4" s="366"/>
-      <c r="I4" s="366"/>
-      <c r="J4" s="366"/>
-      <c r="K4" s="366"/>
-      <c r="L4" s="446" t="s">
+      <c r="C4" s="461"/>
+      <c r="D4" s="461"/>
+      <c r="E4" s="461"/>
+      <c r="F4" s="461"/>
+      <c r="G4" s="461"/>
+      <c r="H4" s="461"/>
+      <c r="I4" s="461"/>
+      <c r="J4" s="461"/>
+      <c r="K4" s="461"/>
+      <c r="L4" s="390" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="446"/>
-      <c r="N4" s="446"/>
-      <c r="O4" s="446"/>
-      <c r="P4" s="451" t="s">
+      <c r="M4" s="390"/>
+      <c r="N4" s="390"/>
+      <c r="O4" s="390"/>
+      <c r="P4" s="400" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="452"/>
-      <c r="R4" s="452"/>
-      <c r="S4" s="453"/>
-      <c r="T4" s="446" t="s">
+      <c r="Q4" s="401"/>
+      <c r="R4" s="401"/>
+      <c r="S4" s="402"/>
+      <c r="T4" s="390" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="446"/>
-      <c r="V4" s="446"/>
-      <c r="W4" s="446"/>
-      <c r="Y4" s="454" t="s">
+      <c r="U4" s="390"/>
+      <c r="V4" s="390"/>
+      <c r="W4" s="390"/>
+      <c r="Y4" s="403" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="454"/>
-      <c r="AA4" s="454"/>
-      <c r="AB4" s="454"/>
-      <c r="AC4" s="454"/>
-      <c r="AD4" s="446" t="s">
+      <c r="Z4" s="403"/>
+      <c r="AA4" s="403"/>
+      <c r="AB4" s="403"/>
+      <c r="AC4" s="403"/>
+      <c r="AD4" s="390" t="s">
         <v>18</v>
       </c>
-      <c r="AE4" s="446"/>
-      <c r="AF4" s="446"/>
-      <c r="AG4" s="446"/>
-      <c r="AH4" s="446" t="s">
+      <c r="AE4" s="390"/>
+      <c r="AF4" s="390"/>
+      <c r="AG4" s="390"/>
+      <c r="AH4" s="390" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="446"/>
-      <c r="AJ4" s="446"/>
-      <c r="AK4" s="446"/>
-      <c r="AL4" s="446" t="s">
+      <c r="AI4" s="390"/>
+      <c r="AJ4" s="390"/>
+      <c r="AK4" s="390"/>
+      <c r="AL4" s="390" t="s">
         <v>37</v>
       </c>
-      <c r="AM4" s="446"/>
-      <c r="AN4" s="446"/>
-      <c r="AO4" s="446"/>
+      <c r="AM4" s="390"/>
+      <c r="AN4" s="390"/>
+      <c r="AO4" s="390"/>
     </row>
     <row r="5" spans="1:42" ht="12" customHeight="1">
-      <c r="A5" s="405"/>
-      <c r="B5" s="455" t="s">
+      <c r="A5" s="399"/>
+      <c r="B5" s="404" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="455"/>
-      <c r="D5" s="455"/>
-      <c r="E5" s="455"/>
-      <c r="F5" s="455"/>
-      <c r="G5" s="455"/>
-      <c r="H5" s="455"/>
-      <c r="I5" s="455"/>
-      <c r="J5" s="455"/>
-      <c r="K5" s="455"/>
-      <c r="L5" s="456" t="s">
+      <c r="C5" s="404"/>
+      <c r="D5" s="404"/>
+      <c r="E5" s="404"/>
+      <c r="F5" s="404"/>
+      <c r="G5" s="404"/>
+      <c r="H5" s="404"/>
+      <c r="I5" s="404"/>
+      <c r="J5" s="404"/>
+      <c r="K5" s="404"/>
+      <c r="L5" s="405" t="s">
         <v>52</v>
       </c>
-      <c r="M5" s="456"/>
-      <c r="N5" s="456"/>
-      <c r="O5" s="456"/>
-      <c r="P5" s="456" t="s">
+      <c r="M5" s="405"/>
+      <c r="N5" s="405"/>
+      <c r="O5" s="405"/>
+      <c r="P5" s="405" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="456"/>
-      <c r="R5" s="456"/>
-      <c r="S5" s="456"/>
-      <c r="T5" s="456" t="s">
+      <c r="Q5" s="405"/>
+      <c r="R5" s="405"/>
+      <c r="S5" s="405"/>
+      <c r="T5" s="405" t="s">
         <v>63</v>
       </c>
-      <c r="U5" s="456"/>
-      <c r="V5" s="456"/>
-      <c r="W5" s="456"/>
-      <c r="Y5" s="390" t="s">
+      <c r="U5" s="405"/>
+      <c r="V5" s="405"/>
+      <c r="W5" s="405"/>
+      <c r="Y5" s="406" t="s">
         <v>36</v>
       </c>
-      <c r="Z5" s="390"/>
-      <c r="AA5" s="390"/>
-      <c r="AB5" s="390"/>
-      <c r="AC5" s="390"/>
-      <c r="AD5" s="456" t="s">
+      <c r="Z5" s="406"/>
+      <c r="AA5" s="406"/>
+      <c r="AB5" s="406"/>
+      <c r="AC5" s="406"/>
+      <c r="AD5" s="405" t="s">
         <v>52</v>
       </c>
-      <c r="AE5" s="456"/>
-      <c r="AF5" s="456"/>
-      <c r="AG5" s="456"/>
-      <c r="AH5" s="456" t="s">
+      <c r="AE5" s="405"/>
+      <c r="AF5" s="405"/>
+      <c r="AG5" s="405"/>
+      <c r="AH5" s="405" t="s">
         <v>53</v>
       </c>
-      <c r="AI5" s="456"/>
-      <c r="AJ5" s="456"/>
-      <c r="AK5" s="456"/>
-      <c r="AL5" s="456" t="s">
+      <c r="AI5" s="405"/>
+      <c r="AJ5" s="405"/>
+      <c r="AK5" s="405"/>
+      <c r="AL5" s="405" t="s">
         <v>63</v>
       </c>
-      <c r="AM5" s="456"/>
-      <c r="AN5" s="456"/>
-      <c r="AO5" s="456"/>
+      <c r="AM5" s="405"/>
+      <c r="AN5" s="405"/>
+      <c r="AO5" s="405"/>
     </row>
     <row r="6" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A6" s="405"/>
-      <c r="B6" s="367" t="s">
+      <c r="A6" s="399"/>
+      <c r="B6" s="462" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="367"/>
-      <c r="D6" s="367"/>
-      <c r="E6" s="367"/>
-      <c r="F6" s="367"/>
-      <c r="G6" s="367"/>
-      <c r="H6" s="367"/>
-      <c r="I6" s="367"/>
-      <c r="J6" s="367"/>
-      <c r="K6" s="367"/>
-      <c r="L6" s="447">
+      <c r="C6" s="462"/>
+      <c r="D6" s="462"/>
+      <c r="E6" s="462"/>
+      <c r="F6" s="462"/>
+      <c r="G6" s="462"/>
+      <c r="H6" s="462"/>
+      <c r="I6" s="462"/>
+      <c r="J6" s="462"/>
+      <c r="K6" s="462"/>
+      <c r="L6" s="391">
         <f>+AD6</f>
         <v>13893323</v>
       </c>
-      <c r="M6" s="447"/>
-      <c r="N6" s="447"/>
-      <c r="O6" s="447"/>
-      <c r="P6" s="445">
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="392">
         <f>+AH6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="445"/>
-      <c r="R6" s="445"/>
-      <c r="S6" s="445"/>
-      <c r="T6" s="445">
+      <c r="Q6" s="392"/>
+      <c r="R6" s="392"/>
+      <c r="S6" s="392"/>
+      <c r="T6" s="392">
         <f>+AL6</f>
         <v>0</v>
       </c>
-      <c r="U6" s="445"/>
-      <c r="V6" s="445"/>
-      <c r="W6" s="445"/>
-      <c r="Y6" s="448" t="s">
+      <c r="U6" s="392"/>
+      <c r="V6" s="392"/>
+      <c r="W6" s="392"/>
+      <c r="Y6" s="393" t="s">
         <v>26</v>
       </c>
-      <c r="Z6" s="449"/>
-      <c r="AA6" s="449"/>
-      <c r="AB6" s="449"/>
-      <c r="AC6" s="449"/>
-      <c r="AD6" s="437">
+      <c r="Z6" s="394"/>
+      <c r="AA6" s="394"/>
+      <c r="AB6" s="394"/>
+      <c r="AC6" s="394"/>
+      <c r="AD6" s="395">
         <f>SUM(AD7:AG11)</f>
         <v>13893323</v>
       </c>
-      <c r="AE6" s="438"/>
-      <c r="AF6" s="438"/>
-      <c r="AG6" s="439"/>
-      <c r="AH6" s="445">
+      <c r="AE6" s="396"/>
+      <c r="AF6" s="396"/>
+      <c r="AG6" s="397"/>
+      <c r="AH6" s="392">
         <f>SUM(AH7:AK10)</f>
         <v>0</v>
       </c>
-      <c r="AI6" s="445"/>
-      <c r="AJ6" s="445"/>
-      <c r="AK6" s="445"/>
-      <c r="AL6" s="445">
+      <c r="AI6" s="392"/>
+      <c r="AJ6" s="392"/>
+      <c r="AK6" s="392"/>
+      <c r="AL6" s="392">
         <f>SUM(AL7:AO10)</f>
         <v>0</v>
       </c>
-      <c r="AM6" s="445"/>
-      <c r="AN6" s="445"/>
-      <c r="AO6" s="445"/>
+      <c r="AM6" s="392"/>
+      <c r="AN6" s="392"/>
+      <c r="AO6" s="392"/>
     </row>
     <row r="7" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A7" s="405"/>
-      <c r="B7" s="367" t="s">
+      <c r="A7" s="399"/>
+      <c r="B7" s="462" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="367"/>
-      <c r="D7" s="367"/>
-      <c r="E7" s="367"/>
-      <c r="F7" s="367"/>
-      <c r="G7" s="367"/>
-      <c r="H7" s="367"/>
-      <c r="I7" s="367"/>
-      <c r="J7" s="367"/>
-      <c r="K7" s="367"/>
-      <c r="L7" s="440">
+      <c r="C7" s="462"/>
+      <c r="D7" s="462"/>
+      <c r="E7" s="462"/>
+      <c r="F7" s="462"/>
+      <c r="G7" s="462"/>
+      <c r="H7" s="462"/>
+      <c r="I7" s="462"/>
+      <c r="J7" s="462"/>
+      <c r="K7" s="462"/>
+      <c r="L7" s="407">
         <f>+K35</f>
         <v>6874141.0073142285</v>
       </c>
-      <c r="M7" s="441"/>
-      <c r="N7" s="441"/>
-      <c r="O7" s="441"/>
-      <c r="P7" s="444">
+      <c r="M7" s="408"/>
+      <c r="N7" s="408"/>
+      <c r="O7" s="408"/>
+      <c r="P7" s="409">
         <f>+W35</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="426"/>
-      <c r="R7" s="426"/>
-      <c r="S7" s="427"/>
-      <c r="T7" s="442">
+      <c r="Q7" s="410"/>
+      <c r="R7" s="410"/>
+      <c r="S7" s="411"/>
+      <c r="T7" s="412">
         <f>+AI35</f>
         <v>0</v>
       </c>
-      <c r="U7" s="443"/>
-      <c r="V7" s="443"/>
-      <c r="W7" s="443"/>
+      <c r="U7" s="413"/>
+      <c r="V7" s="413"/>
+      <c r="W7" s="413"/>
       <c r="Y7" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" s="432" t="str">
+      <c r="Z7" s="414" t="str">
         <f>'01　別紙２様式第３－１号'!A63</f>
         <v>WCS用稲</v>
       </c>
-      <c r="AA7" s="432"/>
-      <c r="AB7" s="432"/>
-      <c r="AC7" s="432"/>
-      <c r="AD7" s="433">
+      <c r="AA7" s="414"/>
+      <c r="AB7" s="414"/>
+      <c r="AC7" s="414"/>
+      <c r="AD7" s="415">
         <v>3878050</v>
       </c>
-      <c r="AE7" s="433"/>
-      <c r="AF7" s="433"/>
-      <c r="AG7" s="433"/>
-      <c r="AH7" s="443"/>
-      <c r="AI7" s="443"/>
-      <c r="AJ7" s="443"/>
-      <c r="AK7" s="443"/>
-      <c r="AL7" s="443" t="s">
+      <c r="AE7" s="415"/>
+      <c r="AF7" s="415"/>
+      <c r="AG7" s="415"/>
+      <c r="AH7" s="413"/>
+      <c r="AI7" s="413"/>
+      <c r="AJ7" s="413"/>
+      <c r="AK7" s="413"/>
+      <c r="AL7" s="413" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" s="443"/>
-      <c r="AN7" s="443"/>
-      <c r="AO7" s="443"/>
+      <c r="AM7" s="413"/>
+      <c r="AN7" s="413"/>
+      <c r="AO7" s="413"/>
     </row>
     <row r="8" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A8" s="405"/>
-      <c r="B8" s="367" t="s">
+      <c r="A8" s="399"/>
+      <c r="B8" s="462" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="367"/>
-      <c r="D8" s="367"/>
-      <c r="E8" s="367"/>
-      <c r="F8" s="367"/>
-      <c r="G8" s="367"/>
-      <c r="H8" s="367"/>
-      <c r="I8" s="367"/>
-      <c r="J8" s="367"/>
-      <c r="K8" s="367"/>
-      <c r="L8" s="440">
+      <c r="C8" s="462"/>
+      <c r="D8" s="462"/>
+      <c r="E8" s="462"/>
+      <c r="F8" s="462"/>
+      <c r="G8" s="462"/>
+      <c r="H8" s="462"/>
+      <c r="I8" s="462"/>
+      <c r="J8" s="462"/>
+      <c r="K8" s="462"/>
+      <c r="L8" s="407">
         <f>+O35</f>
         <v>7425720.0972578563</v>
       </c>
-      <c r="M8" s="441"/>
-      <c r="N8" s="441"/>
-      <c r="O8" s="441"/>
-      <c r="P8" s="444">
+      <c r="M8" s="408"/>
+      <c r="N8" s="408"/>
+      <c r="O8" s="408"/>
+      <c r="P8" s="409">
         <f>+AA35</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="426"/>
-      <c r="R8" s="426"/>
-      <c r="S8" s="427"/>
-      <c r="T8" s="442">
+      <c r="Q8" s="410"/>
+      <c r="R8" s="410"/>
+      <c r="S8" s="411"/>
+      <c r="T8" s="412">
         <f>+AM35</f>
         <v>0</v>
       </c>
-      <c r="U8" s="443"/>
-      <c r="V8" s="443"/>
-      <c r="W8" s="443"/>
+      <c r="U8" s="413"/>
+      <c r="V8" s="413"/>
+      <c r="W8" s="413"/>
       <c r="Y8" s="131"/>
-      <c r="Z8" s="432" t="str">
+      <c r="Z8" s="414" t="str">
         <f>'01　別紙２様式第３－１号'!A62</f>
         <v>デントコーン</v>
       </c>
-      <c r="AA8" s="432"/>
-      <c r="AB8" s="432"/>
-      <c r="AC8" s="432"/>
-      <c r="AD8" s="433">
+      <c r="AA8" s="414"/>
+      <c r="AB8" s="414"/>
+      <c r="AC8" s="414"/>
+      <c r="AD8" s="415">
         <f>1255500</f>
         <v>1255500</v>
       </c>
-      <c r="AE8" s="433"/>
-      <c r="AF8" s="433"/>
-      <c r="AG8" s="433"/>
-      <c r="AH8" s="443"/>
-      <c r="AI8" s="443"/>
-      <c r="AJ8" s="443"/>
-      <c r="AK8" s="443"/>
-      <c r="AL8" s="443" t="s">
+      <c r="AE8" s="415"/>
+      <c r="AF8" s="415"/>
+      <c r="AG8" s="415"/>
+      <c r="AH8" s="413"/>
+      <c r="AI8" s="413"/>
+      <c r="AJ8" s="413"/>
+      <c r="AK8" s="413"/>
+      <c r="AL8" s="413" t="s">
         <v>36</v>
       </c>
-      <c r="AM8" s="443"/>
-      <c r="AN8" s="443"/>
-      <c r="AO8" s="443"/>
+      <c r="AM8" s="413"/>
+      <c r="AN8" s="413"/>
+      <c r="AO8" s="413"/>
     </row>
     <row r="9" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A9" s="405"/>
-      <c r="B9" s="367" t="s">
+      <c r="A9" s="399"/>
+      <c r="B9" s="462" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="367"/>
-      <c r="D9" s="367"/>
-      <c r="E9" s="367"/>
-      <c r="F9" s="367"/>
-      <c r="G9" s="367"/>
-      <c r="H9" s="367"/>
-      <c r="I9" s="367"/>
-      <c r="J9" s="367"/>
-      <c r="K9" s="367"/>
-      <c r="L9" s="440">
+      <c r="C9" s="462"/>
+      <c r="D9" s="462"/>
+      <c r="E9" s="462"/>
+      <c r="F9" s="462"/>
+      <c r="G9" s="462"/>
+      <c r="H9" s="462"/>
+      <c r="I9" s="462"/>
+      <c r="J9" s="462"/>
+      <c r="K9" s="462"/>
+      <c r="L9" s="407">
         <f>+L6-L7</f>
         <v>7019181.9926857715</v>
       </c>
-      <c r="M9" s="441"/>
-      <c r="N9" s="441"/>
-      <c r="O9" s="441"/>
-      <c r="P9" s="442">
+      <c r="M9" s="408"/>
+      <c r="N9" s="408"/>
+      <c r="O9" s="408"/>
+      <c r="P9" s="412">
         <f t="shared" ref="P9" si="0">+P6-P7</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="443"/>
-      <c r="R9" s="443"/>
-      <c r="S9" s="443"/>
-      <c r="T9" s="442">
+      <c r="Q9" s="413"/>
+      <c r="R9" s="413"/>
+      <c r="S9" s="413"/>
+      <c r="T9" s="412">
         <f t="shared" ref="T9" si="1">+T6-T7</f>
         <v>0</v>
       </c>
-      <c r="U9" s="443"/>
-      <c r="V9" s="443"/>
-      <c r="W9" s="443"/>
+      <c r="U9" s="413"/>
+      <c r="V9" s="413"/>
+      <c r="W9" s="413"/>
       <c r="Y9" s="131"/>
-      <c r="Z9" s="432" t="s">
+      <c r="Z9" s="414" t="s">
         <v>241</v>
       </c>
-      <c r="AA9" s="432"/>
-      <c r="AB9" s="432"/>
-      <c r="AC9" s="432"/>
-      <c r="AD9" s="433">
+      <c r="AA9" s="414"/>
+      <c r="AB9" s="414"/>
+      <c r="AC9" s="414"/>
+      <c r="AD9" s="415">
         <v>145739</v>
       </c>
-      <c r="AE9" s="433"/>
-      <c r="AF9" s="433"/>
-      <c r="AG9" s="433"/>
-      <c r="AH9" s="443" t="s">
+      <c r="AE9" s="415"/>
+      <c r="AF9" s="415"/>
+      <c r="AG9" s="415"/>
+      <c r="AH9" s="413" t="s">
         <v>36</v>
       </c>
-      <c r="AI9" s="443"/>
-      <c r="AJ9" s="443"/>
-      <c r="AK9" s="443"/>
-      <c r="AL9" s="443" t="s">
+      <c r="AI9" s="413"/>
+      <c r="AJ9" s="413"/>
+      <c r="AK9" s="413"/>
+      <c r="AL9" s="413" t="s">
         <v>36</v>
       </c>
-      <c r="AM9" s="443"/>
-      <c r="AN9" s="443"/>
-      <c r="AO9" s="443"/>
+      <c r="AM9" s="413"/>
+      <c r="AN9" s="413"/>
+      <c r="AO9" s="413"/>
     </row>
     <row r="10" spans="1:42" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A10" s="405"/>
-      <c r="B10" s="368" t="s">
+      <c r="A10" s="399"/>
+      <c r="B10" s="463" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="368"/>
-      <c r="D10" s="368"/>
-      <c r="E10" s="368"/>
-      <c r="F10" s="368"/>
-      <c r="G10" s="368"/>
-      <c r="H10" s="368"/>
-      <c r="I10" s="368"/>
-      <c r="J10" s="368"/>
-      <c r="K10" s="368"/>
-      <c r="L10" s="431">
+      <c r="C10" s="463"/>
+      <c r="D10" s="463"/>
+      <c r="E10" s="463"/>
+      <c r="F10" s="463"/>
+      <c r="G10" s="463"/>
+      <c r="H10" s="463"/>
+      <c r="I10" s="463"/>
+      <c r="J10" s="463"/>
+      <c r="K10" s="463"/>
+      <c r="L10" s="420">
         <f>+L9/L6</f>
         <v>0.50521980901802765</v>
       </c>
-      <c r="M10" s="431"/>
-      <c r="N10" s="431"/>
-      <c r="O10" s="431"/>
-      <c r="P10" s="431" t="e">
+      <c r="M10" s="420"/>
+      <c r="N10" s="420"/>
+      <c r="O10" s="420"/>
+      <c r="P10" s="420" t="e">
         <f t="shared" ref="P10" si="2">+P9/P6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="431"/>
-      <c r="R10" s="431"/>
-      <c r="S10" s="431"/>
-      <c r="T10" s="431" t="e">
+      <c r="Q10" s="420"/>
+      <c r="R10" s="420"/>
+      <c r="S10" s="420"/>
+      <c r="T10" s="420" t="e">
         <f t="shared" ref="T10" si="3">+T9/T6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="431"/>
-      <c r="V10" s="431"/>
-      <c r="W10" s="431"/>
+      <c r="U10" s="420"/>
+      <c r="V10" s="420"/>
+      <c r="W10" s="420"/>
       <c r="Y10" s="131"/>
-      <c r="Z10" s="432" t="s">
+      <c r="Z10" s="414" t="s">
         <v>240</v>
       </c>
-      <c r="AA10" s="432"/>
-      <c r="AB10" s="432"/>
-      <c r="AC10" s="432"/>
-      <c r="AD10" s="433">
+      <c r="AA10" s="414"/>
+      <c r="AB10" s="414"/>
+      <c r="AC10" s="414"/>
+      <c r="AD10" s="415">
         <v>3400014</v>
       </c>
-      <c r="AE10" s="433"/>
-      <c r="AF10" s="433"/>
-      <c r="AG10" s="433"/>
-      <c r="AH10" s="425" t="s">
+      <c r="AE10" s="415"/>
+      <c r="AF10" s="415"/>
+      <c r="AG10" s="415"/>
+      <c r="AH10" s="416" t="s">
         <v>36</v>
       </c>
-      <c r="AI10" s="426"/>
-      <c r="AJ10" s="426"/>
-      <c r="AK10" s="427"/>
-      <c r="AL10" s="425" t="s">
+      <c r="AI10" s="410"/>
+      <c r="AJ10" s="410"/>
+      <c r="AK10" s="411"/>
+      <c r="AL10" s="416" t="s">
         <v>36</v>
       </c>
-      <c r="AM10" s="426"/>
-      <c r="AN10" s="426"/>
-      <c r="AO10" s="427"/>
+      <c r="AM10" s="410"/>
+      <c r="AN10" s="410"/>
+      <c r="AO10" s="411"/>
     </row>
     <row r="11" spans="1:42" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A11" s="405"/>
-      <c r="B11" s="430" t="s">
+      <c r="A11" s="399"/>
+      <c r="B11" s="419" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="430"/>
-      <c r="D11" s="430"/>
-      <c r="E11" s="430"/>
-      <c r="F11" s="430"/>
-      <c r="G11" s="430"/>
-      <c r="H11" s="430"/>
-      <c r="I11" s="430"/>
-      <c r="J11" s="430"/>
-      <c r="K11" s="430"/>
-      <c r="L11" s="428">
+      <c r="C11" s="419"/>
+      <c r="D11" s="419"/>
+      <c r="E11" s="419"/>
+      <c r="F11" s="419"/>
+      <c r="G11" s="419"/>
+      <c r="H11" s="419"/>
+      <c r="I11" s="419"/>
+      <c r="J11" s="419"/>
+      <c r="K11" s="419"/>
+      <c r="L11" s="417">
         <f>+L8/L10</f>
         <v>14697998.702170614</v>
       </c>
-      <c r="M11" s="428"/>
-      <c r="N11" s="428"/>
-      <c r="O11" s="428"/>
-      <c r="P11" s="429" t="e">
+      <c r="M11" s="417"/>
+      <c r="N11" s="417"/>
+      <c r="O11" s="417"/>
+      <c r="P11" s="418" t="e">
         <f>+P8/P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="429"/>
-      <c r="R11" s="429"/>
-      <c r="S11" s="429"/>
-      <c r="T11" s="429" t="e">
+      <c r="Q11" s="418"/>
+      <c r="R11" s="418"/>
+      <c r="S11" s="418"/>
+      <c r="T11" s="418" t="e">
         <f>+T8/T10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U11" s="429"/>
-      <c r="V11" s="429"/>
-      <c r="W11" s="429"/>
+      <c r="U11" s="418"/>
+      <c r="V11" s="418"/>
+      <c r="W11" s="418"/>
       <c r="Y11" s="131"/>
-      <c r="Z11" s="434" t="s">
+      <c r="Z11" s="421" t="s">
         <v>162</v>
       </c>
-      <c r="AA11" s="435"/>
-      <c r="AB11" s="435"/>
-      <c r="AC11" s="436"/>
-      <c r="AD11" s="437">
+      <c r="AA11" s="422"/>
+      <c r="AB11" s="422"/>
+      <c r="AC11" s="423"/>
+      <c r="AD11" s="395">
         <f>1788500+2696000+729520</f>
         <v>5214020</v>
       </c>
-      <c r="AE11" s="438"/>
-      <c r="AF11" s="438"/>
-      <c r="AG11" s="439"/>
-      <c r="AH11" s="425" t="s">
+      <c r="AE11" s="396"/>
+      <c r="AF11" s="396"/>
+      <c r="AG11" s="397"/>
+      <c r="AH11" s="416" t="s">
         <v>36</v>
       </c>
-      <c r="AI11" s="426"/>
-      <c r="AJ11" s="426"/>
-      <c r="AK11" s="427"/>
-      <c r="AL11" s="425" t="s">
+      <c r="AI11" s="410"/>
+      <c r="AJ11" s="410"/>
+      <c r="AK11" s="411"/>
+      <c r="AL11" s="416" t="s">
         <v>36</v>
       </c>
-      <c r="AM11" s="426"/>
-      <c r="AN11" s="426"/>
-      <c r="AO11" s="427"/>
+      <c r="AM11" s="410"/>
+      <c r="AN11" s="410"/>
+      <c r="AO11" s="411"/>
     </row>
     <row r="12" spans="1:42" ht="25.5" customHeight="1">
       <c r="B12" s="132"/>
@@ -11433,1200 +11455,1200 @@
       </c>
     </row>
     <row r="14" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A14" s="405"/>
-      <c r="B14" s="406" t="s">
+      <c r="A14" s="399"/>
+      <c r="B14" s="424" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="407"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="407"/>
-      <c r="F14" s="408"/>
-      <c r="G14" s="412" t="s">
+      <c r="C14" s="425"/>
+      <c r="D14" s="425"/>
+      <c r="E14" s="425"/>
+      <c r="F14" s="426"/>
+      <c r="G14" s="387" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="413"/>
-      <c r="I14" s="413"/>
-      <c r="J14" s="413"/>
-      <c r="K14" s="414"/>
-      <c r="L14" s="414"/>
-      <c r="M14" s="414"/>
-      <c r="N14" s="414"/>
-      <c r="O14" s="414"/>
-      <c r="P14" s="414"/>
-      <c r="Q14" s="414"/>
-      <c r="R14" s="415"/>
-      <c r="S14" s="412" t="s">
+      <c r="H14" s="388"/>
+      <c r="I14" s="388"/>
+      <c r="J14" s="388"/>
+      <c r="K14" s="430"/>
+      <c r="L14" s="430"/>
+      <c r="M14" s="430"/>
+      <c r="N14" s="430"/>
+      <c r="O14" s="430"/>
+      <c r="P14" s="430"/>
+      <c r="Q14" s="430"/>
+      <c r="R14" s="431"/>
+      <c r="S14" s="387" t="s">
         <v>60</v>
       </c>
-      <c r="T14" s="413"/>
-      <c r="U14" s="413"/>
-      <c r="V14" s="413"/>
-      <c r="W14" s="414"/>
-      <c r="X14" s="414"/>
-      <c r="Y14" s="414"/>
-      <c r="Z14" s="414"/>
-      <c r="AA14" s="414"/>
-      <c r="AB14" s="414"/>
-      <c r="AC14" s="414"/>
-      <c r="AD14" s="415"/>
-      <c r="AE14" s="412" t="s">
+      <c r="T14" s="388"/>
+      <c r="U14" s="388"/>
+      <c r="V14" s="388"/>
+      <c r="W14" s="430"/>
+      <c r="X14" s="430"/>
+      <c r="Y14" s="430"/>
+      <c r="Z14" s="430"/>
+      <c r="AA14" s="430"/>
+      <c r="AB14" s="430"/>
+      <c r="AC14" s="430"/>
+      <c r="AD14" s="431"/>
+      <c r="AE14" s="387" t="s">
         <v>61</v>
       </c>
-      <c r="AF14" s="413"/>
-      <c r="AG14" s="413"/>
-      <c r="AH14" s="413"/>
-      <c r="AI14" s="414"/>
-      <c r="AJ14" s="414"/>
-      <c r="AK14" s="414"/>
-      <c r="AL14" s="414"/>
-      <c r="AM14" s="414"/>
-      <c r="AN14" s="414"/>
-      <c r="AO14" s="414"/>
-      <c r="AP14" s="415"/>
+      <c r="AF14" s="388"/>
+      <c r="AG14" s="388"/>
+      <c r="AH14" s="388"/>
+      <c r="AI14" s="430"/>
+      <c r="AJ14" s="430"/>
+      <c r="AK14" s="430"/>
+      <c r="AL14" s="430"/>
+      <c r="AM14" s="430"/>
+      <c r="AN14" s="430"/>
+      <c r="AO14" s="430"/>
+      <c r="AP14" s="431"/>
     </row>
     <row r="15" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A15" s="405"/>
-      <c r="B15" s="409"/>
-      <c r="C15" s="410"/>
-      <c r="D15" s="410"/>
-      <c r="E15" s="410"/>
-      <c r="F15" s="411"/>
-      <c r="G15" s="409" t="s">
+      <c r="A15" s="399"/>
+      <c r="B15" s="427"/>
+      <c r="C15" s="428"/>
+      <c r="D15" s="428"/>
+      <c r="E15" s="428"/>
+      <c r="F15" s="429"/>
+      <c r="G15" s="427" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="410"/>
-      <c r="I15" s="410"/>
-      <c r="J15" s="411"/>
-      <c r="K15" s="416" t="s">
+      <c r="H15" s="428"/>
+      <c r="I15" s="428"/>
+      <c r="J15" s="429"/>
+      <c r="K15" s="432" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="417"/>
-      <c r="M15" s="417"/>
-      <c r="N15" s="418"/>
-      <c r="O15" s="416" t="s">
+      <c r="L15" s="433"/>
+      <c r="M15" s="433"/>
+      <c r="N15" s="434"/>
+      <c r="O15" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="417"/>
-      <c r="Q15" s="417"/>
-      <c r="R15" s="418"/>
-      <c r="S15" s="409" t="s">
+      <c r="P15" s="433"/>
+      <c r="Q15" s="433"/>
+      <c r="R15" s="434"/>
+      <c r="S15" s="427" t="s">
         <v>36</v>
       </c>
-      <c r="T15" s="410"/>
-      <c r="U15" s="410"/>
-      <c r="V15" s="411"/>
-      <c r="W15" s="416" t="s">
+      <c r="T15" s="428"/>
+      <c r="U15" s="428"/>
+      <c r="V15" s="429"/>
+      <c r="W15" s="432" t="s">
         <v>39</v>
       </c>
-      <c r="X15" s="417"/>
-      <c r="Y15" s="417"/>
-      <c r="Z15" s="418"/>
-      <c r="AA15" s="416" t="s">
+      <c r="X15" s="433"/>
+      <c r="Y15" s="433"/>
+      <c r="Z15" s="434"/>
+      <c r="AA15" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="AB15" s="417"/>
-      <c r="AC15" s="417"/>
-      <c r="AD15" s="418"/>
-      <c r="AE15" s="409" t="s">
+      <c r="AB15" s="433"/>
+      <c r="AC15" s="433"/>
+      <c r="AD15" s="434"/>
+      <c r="AE15" s="427" t="s">
         <v>36</v>
       </c>
-      <c r="AF15" s="410"/>
-      <c r="AG15" s="410"/>
-      <c r="AH15" s="411"/>
-      <c r="AI15" s="416" t="s">
+      <c r="AF15" s="428"/>
+      <c r="AG15" s="428"/>
+      <c r="AH15" s="429"/>
+      <c r="AI15" s="432" t="s">
         <v>39</v>
       </c>
-      <c r="AJ15" s="417"/>
-      <c r="AK15" s="417"/>
-      <c r="AL15" s="418"/>
-      <c r="AM15" s="416" t="s">
+      <c r="AJ15" s="433"/>
+      <c r="AK15" s="433"/>
+      <c r="AL15" s="434"/>
+      <c r="AM15" s="432" t="s">
         <v>40</v>
       </c>
-      <c r="AN15" s="417"/>
-      <c r="AO15" s="417"/>
-      <c r="AP15" s="418"/>
+      <c r="AN15" s="433"/>
+      <c r="AO15" s="433"/>
+      <c r="AP15" s="434"/>
     </row>
     <row r="16" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A16" s="405"/>
-      <c r="B16" s="412" t="s">
+      <c r="A16" s="399"/>
+      <c r="B16" s="387" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="414"/>
-      <c r="D16" s="414"/>
-      <c r="E16" s="414"/>
-      <c r="F16" s="415"/>
-      <c r="G16" s="419">
+      <c r="C16" s="430"/>
+      <c r="D16" s="430"/>
+      <c r="E16" s="430"/>
+      <c r="F16" s="431"/>
+      <c r="G16" s="435">
         <f>SUM(G17:O27)</f>
         <v>24234350.663351614</v>
       </c>
-      <c r="H16" s="420"/>
-      <c r="I16" s="420"/>
-      <c r="J16" s="421"/>
-      <c r="K16" s="419">
+      <c r="H16" s="436"/>
+      <c r="I16" s="436"/>
+      <c r="J16" s="437"/>
+      <c r="K16" s="435">
         <f>SUM(K17:N27)</f>
         <v>6874141.0073142285</v>
       </c>
-      <c r="L16" s="420"/>
-      <c r="M16" s="420"/>
-      <c r="N16" s="421"/>
-      <c r="O16" s="419">
+      <c r="L16" s="436"/>
+      <c r="M16" s="436"/>
+      <c r="N16" s="437"/>
+      <c r="O16" s="435">
         <f>SUM(O17:R27)</f>
         <v>5243034.3243615767</v>
       </c>
-      <c r="P16" s="420"/>
-      <c r="Q16" s="420"/>
-      <c r="R16" s="421"/>
-      <c r="S16" s="422">
+      <c r="P16" s="436"/>
+      <c r="Q16" s="436"/>
+      <c r="R16" s="437"/>
+      <c r="S16" s="438">
         <f>SUM(S17:V27)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="423"/>
-      <c r="U16" s="423"/>
-      <c r="V16" s="424"/>
-      <c r="W16" s="422">
+      <c r="T16" s="439"/>
+      <c r="U16" s="439"/>
+      <c r="V16" s="440"/>
+      <c r="W16" s="438">
         <f>SUM(W17:Z27)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="423"/>
-      <c r="Y16" s="423"/>
-      <c r="Z16" s="424"/>
-      <c r="AA16" s="422">
+      <c r="X16" s="439"/>
+      <c r="Y16" s="439"/>
+      <c r="Z16" s="440"/>
+      <c r="AA16" s="438">
         <f>SUM(AA17:AD27)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="423"/>
-      <c r="AC16" s="423"/>
-      <c r="AD16" s="424"/>
-      <c r="AE16" s="422">
+      <c r="AB16" s="439"/>
+      <c r="AC16" s="439"/>
+      <c r="AD16" s="440"/>
+      <c r="AE16" s="438">
         <f>SUM(AE17:AH27)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="423"/>
-      <c r="AG16" s="423"/>
-      <c r="AH16" s="424"/>
-      <c r="AI16" s="422">
+      <c r="AF16" s="439"/>
+      <c r="AG16" s="439"/>
+      <c r="AH16" s="440"/>
+      <c r="AI16" s="438">
         <f>SUM(AI17:AL27)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="423"/>
-      <c r="AK16" s="423"/>
-      <c r="AL16" s="424"/>
-      <c r="AM16" s="422">
+      <c r="AJ16" s="439"/>
+      <c r="AK16" s="439"/>
+      <c r="AL16" s="440"/>
+      <c r="AM16" s="438">
         <f>SUM(AM17:AP27)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="423"/>
-      <c r="AO16" s="423"/>
-      <c r="AP16" s="424"/>
+      <c r="AN16" s="439"/>
+      <c r="AO16" s="439"/>
+      <c r="AP16" s="440"/>
     </row>
     <row r="17" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A17" s="405"/>
-      <c r="B17" s="390" t="s">
+      <c r="A17" s="399"/>
+      <c r="B17" s="406" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="399" t="s">
+      <c r="C17" s="384" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="400"/>
-      <c r="E17" s="400"/>
-      <c r="F17" s="401"/>
-      <c r="G17" s="387">
+      <c r="D17" s="385"/>
+      <c r="E17" s="385"/>
+      <c r="F17" s="386"/>
+      <c r="G17" s="381">
         <f>入力する経費!O3</f>
         <v>488810</v>
       </c>
-      <c r="H17" s="388"/>
-      <c r="I17" s="388"/>
-      <c r="J17" s="389"/>
-      <c r="K17" s="387">
+      <c r="H17" s="382"/>
+      <c r="I17" s="382"/>
+      <c r="J17" s="383"/>
+      <c r="K17" s="381">
         <f>G17</f>
         <v>488810</v>
       </c>
-      <c r="L17" s="388"/>
-      <c r="M17" s="388"/>
-      <c r="N17" s="389"/>
-      <c r="O17" s="387"/>
-      <c r="P17" s="388"/>
-      <c r="Q17" s="388"/>
-      <c r="R17" s="389"/>
-      <c r="S17" s="378">
+      <c r="L17" s="382"/>
+      <c r="M17" s="382"/>
+      <c r="N17" s="383"/>
+      <c r="O17" s="381"/>
+      <c r="P17" s="382"/>
+      <c r="Q17" s="382"/>
+      <c r="R17" s="383"/>
+      <c r="S17" s="375">
         <f>SUM(W17:AD17)</f>
         <v>0</v>
       </c>
-      <c r="T17" s="379"/>
-      <c r="U17" s="379"/>
-      <c r="V17" s="380"/>
-      <c r="W17" s="378" t="s">
+      <c r="T17" s="376"/>
+      <c r="U17" s="376"/>
+      <c r="V17" s="377"/>
+      <c r="W17" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X17" s="379"/>
-      <c r="Y17" s="379"/>
-      <c r="Z17" s="380"/>
-      <c r="AA17" s="378" t="s">
+      <c r="X17" s="376"/>
+      <c r="Y17" s="376"/>
+      <c r="Z17" s="377"/>
+      <c r="AA17" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB17" s="379"/>
-      <c r="AC17" s="379"/>
-      <c r="AD17" s="380"/>
-      <c r="AE17" s="378">
+      <c r="AB17" s="376"/>
+      <c r="AC17" s="376"/>
+      <c r="AD17" s="377"/>
+      <c r="AE17" s="375">
         <f>SUM(AI17:AP17)</f>
         <v>0</v>
       </c>
-      <c r="AF17" s="379"/>
-      <c r="AG17" s="379"/>
-      <c r="AH17" s="380"/>
-      <c r="AI17" s="378" t="s">
+      <c r="AF17" s="376"/>
+      <c r="AG17" s="376"/>
+      <c r="AH17" s="377"/>
+      <c r="AI17" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ17" s="379"/>
-      <c r="AK17" s="379"/>
-      <c r="AL17" s="380"/>
-      <c r="AM17" s="378" t="s">
+      <c r="AJ17" s="376"/>
+      <c r="AK17" s="376"/>
+      <c r="AL17" s="377"/>
+      <c r="AM17" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN17" s="379"/>
-      <c r="AO17" s="379"/>
-      <c r="AP17" s="380"/>
+      <c r="AN17" s="376"/>
+      <c r="AO17" s="376"/>
+      <c r="AP17" s="377"/>
     </row>
     <row r="18" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A18" s="405"/>
-      <c r="B18" s="390"/>
-      <c r="C18" s="399" t="s">
+      <c r="A18" s="399"/>
+      <c r="B18" s="406"/>
+      <c r="C18" s="384" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="400"/>
-      <c r="E18" s="400"/>
-      <c r="F18" s="401"/>
-      <c r="G18" s="387">
+      <c r="D18" s="385"/>
+      <c r="E18" s="385"/>
+      <c r="F18" s="386"/>
+      <c r="G18" s="381">
         <f>入力する経費!O4</f>
         <v>769707</v>
       </c>
-      <c r="H18" s="388"/>
-      <c r="I18" s="388"/>
-      <c r="J18" s="389"/>
-      <c r="K18" s="387">
+      <c r="H18" s="382"/>
+      <c r="I18" s="382"/>
+      <c r="J18" s="383"/>
+      <c r="K18" s="381">
         <f t="shared" ref="K18:K19" si="4">G18</f>
         <v>769707</v>
       </c>
-      <c r="L18" s="388"/>
-      <c r="M18" s="388"/>
-      <c r="N18" s="389"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="388"/>
-      <c r="Q18" s="388"/>
-      <c r="R18" s="389"/>
-      <c r="S18" s="378">
+      <c r="L18" s="382"/>
+      <c r="M18" s="382"/>
+      <c r="N18" s="383"/>
+      <c r="O18" s="381"/>
+      <c r="P18" s="382"/>
+      <c r="Q18" s="382"/>
+      <c r="R18" s="383"/>
+      <c r="S18" s="375">
         <f t="shared" ref="S18:S19" si="5">SUM(W18:AD18)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="379"/>
-      <c r="U18" s="379"/>
-      <c r="V18" s="380"/>
-      <c r="W18" s="378" t="s">
+      <c r="T18" s="376"/>
+      <c r="U18" s="376"/>
+      <c r="V18" s="377"/>
+      <c r="W18" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="379"/>
-      <c r="Y18" s="379"/>
-      <c r="Z18" s="380"/>
-      <c r="AA18" s="378" t="s">
+      <c r="X18" s="376"/>
+      <c r="Y18" s="376"/>
+      <c r="Z18" s="377"/>
+      <c r="AA18" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB18" s="379"/>
-      <c r="AC18" s="379"/>
-      <c r="AD18" s="380"/>
-      <c r="AE18" s="378">
+      <c r="AB18" s="376"/>
+      <c r="AC18" s="376"/>
+      <c r="AD18" s="377"/>
+      <c r="AE18" s="375">
         <f t="shared" ref="AE18:AE19" si="6">SUM(AI18:AP18)</f>
         <v>0</v>
       </c>
-      <c r="AF18" s="379"/>
-      <c r="AG18" s="379"/>
-      <c r="AH18" s="380"/>
-      <c r="AI18" s="378" t="s">
+      <c r="AF18" s="376"/>
+      <c r="AG18" s="376"/>
+      <c r="AH18" s="377"/>
+      <c r="AI18" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ18" s="379"/>
-      <c r="AK18" s="379"/>
-      <c r="AL18" s="380"/>
-      <c r="AM18" s="378" t="s">
+      <c r="AJ18" s="376"/>
+      <c r="AK18" s="376"/>
+      <c r="AL18" s="377"/>
+      <c r="AM18" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN18" s="379"/>
-      <c r="AO18" s="379"/>
-      <c r="AP18" s="380"/>
+      <c r="AN18" s="376"/>
+      <c r="AO18" s="376"/>
+      <c r="AP18" s="377"/>
     </row>
     <row r="19" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A19" s="405"/>
-      <c r="B19" s="390"/>
-      <c r="C19" s="399" t="s">
+      <c r="A19" s="399"/>
+      <c r="B19" s="406"/>
+      <c r="C19" s="384" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="400"/>
-      <c r="E19" s="400"/>
-      <c r="F19" s="401"/>
-      <c r="G19" s="387">
+      <c r="D19" s="385"/>
+      <c r="E19" s="385"/>
+      <c r="F19" s="386"/>
+      <c r="G19" s="381">
         <f>入力する経費!O5</f>
         <v>400349</v>
       </c>
-      <c r="H19" s="388"/>
-      <c r="I19" s="388"/>
-      <c r="J19" s="389"/>
-      <c r="K19" s="387">
+      <c r="H19" s="382"/>
+      <c r="I19" s="382"/>
+      <c r="J19" s="383"/>
+      <c r="K19" s="381">
         <f t="shared" si="4"/>
         <v>400349</v>
       </c>
-      <c r="L19" s="388"/>
-      <c r="M19" s="388"/>
-      <c r="N19" s="389"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="388"/>
-      <c r="Q19" s="388"/>
-      <c r="R19" s="389"/>
-      <c r="S19" s="378">
+      <c r="L19" s="382"/>
+      <c r="M19" s="382"/>
+      <c r="N19" s="383"/>
+      <c r="O19" s="381"/>
+      <c r="P19" s="382"/>
+      <c r="Q19" s="382"/>
+      <c r="R19" s="383"/>
+      <c r="S19" s="375">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="379"/>
-      <c r="U19" s="379"/>
-      <c r="V19" s="380"/>
-      <c r="W19" s="378" t="s">
+      <c r="T19" s="376"/>
+      <c r="U19" s="376"/>
+      <c r="V19" s="377"/>
+      <c r="W19" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X19" s="379"/>
-      <c r="Y19" s="379"/>
-      <c r="Z19" s="380"/>
-      <c r="AA19" s="378" t="s">
+      <c r="X19" s="376"/>
+      <c r="Y19" s="376"/>
+      <c r="Z19" s="377"/>
+      <c r="AA19" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB19" s="379"/>
-      <c r="AC19" s="379"/>
-      <c r="AD19" s="380"/>
-      <c r="AE19" s="378">
+      <c r="AB19" s="376"/>
+      <c r="AC19" s="376"/>
+      <c r="AD19" s="377"/>
+      <c r="AE19" s="375">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="379"/>
-      <c r="AG19" s="379"/>
-      <c r="AH19" s="380"/>
-      <c r="AI19" s="378" t="s">
+      <c r="AF19" s="376"/>
+      <c r="AG19" s="376"/>
+      <c r="AH19" s="377"/>
+      <c r="AI19" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ19" s="379"/>
-      <c r="AK19" s="379"/>
-      <c r="AL19" s="380"/>
-      <c r="AM19" s="378" t="s">
+      <c r="AJ19" s="376"/>
+      <c r="AK19" s="376"/>
+      <c r="AL19" s="377"/>
+      <c r="AM19" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN19" s="379"/>
-      <c r="AO19" s="379"/>
-      <c r="AP19" s="380"/>
+      <c r="AN19" s="376"/>
+      <c r="AO19" s="376"/>
+      <c r="AP19" s="377"/>
     </row>
     <row r="20" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A20" s="405"/>
-      <c r="B20" s="390"/>
-      <c r="C20" s="399" t="s">
+      <c r="A20" s="399"/>
+      <c r="B20" s="406"/>
+      <c r="C20" s="384" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="400"/>
-      <c r="E20" s="400"/>
-      <c r="F20" s="401"/>
-      <c r="G20" s="387">
+      <c r="D20" s="385"/>
+      <c r="E20" s="385"/>
+      <c r="F20" s="386"/>
+      <c r="G20" s="381">
         <f>入力する経費!O6</f>
         <v>1321430</v>
       </c>
-      <c r="H20" s="388"/>
-      <c r="I20" s="388"/>
-      <c r="J20" s="389"/>
-      <c r="K20" s="387">
+      <c r="H20" s="382"/>
+      <c r="I20" s="382"/>
+      <c r="J20" s="383"/>
+      <c r="K20" s="381">
         <f t="shared" ref="K20:K23" si="7">G20</f>
         <v>1321430</v>
       </c>
-      <c r="L20" s="388"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="389"/>
-      <c r="O20" s="387"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="389"/>
-      <c r="S20" s="378">
+      <c r="L20" s="382"/>
+      <c r="M20" s="382"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="381"/>
+      <c r="P20" s="382"/>
+      <c r="Q20" s="382"/>
+      <c r="R20" s="383"/>
+      <c r="S20" s="375">
         <f t="shared" ref="S20:S23" si="8">SUM(W20:AD20)</f>
         <v>0</v>
       </c>
-      <c r="T20" s="379"/>
-      <c r="U20" s="379"/>
-      <c r="V20" s="380"/>
-      <c r="W20" s="378" t="s">
+      <c r="T20" s="376"/>
+      <c r="U20" s="376"/>
+      <c r="V20" s="377"/>
+      <c r="W20" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="379"/>
-      <c r="Y20" s="379"/>
-      <c r="Z20" s="380"/>
-      <c r="AA20" s="378" t="s">
+      <c r="X20" s="376"/>
+      <c r="Y20" s="376"/>
+      <c r="Z20" s="377"/>
+      <c r="AA20" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB20" s="379"/>
-      <c r="AC20" s="379"/>
-      <c r="AD20" s="380"/>
-      <c r="AE20" s="378">
+      <c r="AB20" s="376"/>
+      <c r="AC20" s="376"/>
+      <c r="AD20" s="377"/>
+      <c r="AE20" s="375">
         <f t="shared" ref="AE20:AE23" si="9">SUM(AI20:AP20)</f>
         <v>0</v>
       </c>
-      <c r="AF20" s="379"/>
-      <c r="AG20" s="379"/>
-      <c r="AH20" s="380"/>
-      <c r="AI20" s="378" t="s">
+      <c r="AF20" s="376"/>
+      <c r="AG20" s="376"/>
+      <c r="AH20" s="377"/>
+      <c r="AI20" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ20" s="379"/>
-      <c r="AK20" s="379"/>
-      <c r="AL20" s="380"/>
-      <c r="AM20" s="378" t="s">
+      <c r="AJ20" s="376"/>
+      <c r="AK20" s="376"/>
+      <c r="AL20" s="377"/>
+      <c r="AM20" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN20" s="379"/>
-      <c r="AO20" s="379"/>
-      <c r="AP20" s="380"/>
+      <c r="AN20" s="376"/>
+      <c r="AO20" s="376"/>
+      <c r="AP20" s="377"/>
     </row>
     <row r="21" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A21" s="405"/>
-      <c r="B21" s="390"/>
-      <c r="C21" s="399" t="s">
+      <c r="A21" s="399"/>
+      <c r="B21" s="406"/>
+      <c r="C21" s="384" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="400"/>
-      <c r="E21" s="400"/>
-      <c r="F21" s="401"/>
-      <c r="G21" s="387">
+      <c r="D21" s="385"/>
+      <c r="E21" s="385"/>
+      <c r="F21" s="386"/>
+      <c r="G21" s="381">
         <f>入力する経費!O9</f>
         <v>964826.99875041656</v>
       </c>
-      <c r="H21" s="388"/>
-      <c r="I21" s="388"/>
-      <c r="J21" s="389"/>
-      <c r="K21" s="387">
+      <c r="H21" s="382"/>
+      <c r="I21" s="382"/>
+      <c r="J21" s="383"/>
+      <c r="K21" s="381">
         <f t="shared" si="7"/>
         <v>964826.99875041656</v>
       </c>
-      <c r="L21" s="388"/>
-      <c r="M21" s="388"/>
-      <c r="N21" s="389"/>
-      <c r="O21" s="387"/>
-      <c r="P21" s="388"/>
-      <c r="Q21" s="388"/>
-      <c r="R21" s="389"/>
-      <c r="S21" s="378">
+      <c r="L21" s="382"/>
+      <c r="M21" s="382"/>
+      <c r="N21" s="383"/>
+      <c r="O21" s="381"/>
+      <c r="P21" s="382"/>
+      <c r="Q21" s="382"/>
+      <c r="R21" s="383"/>
+      <c r="S21" s="375">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T21" s="379"/>
-      <c r="U21" s="379"/>
-      <c r="V21" s="380"/>
-      <c r="W21" s="378" t="s">
+      <c r="T21" s="376"/>
+      <c r="U21" s="376"/>
+      <c r="V21" s="377"/>
+      <c r="W21" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X21" s="379"/>
-      <c r="Y21" s="379"/>
-      <c r="Z21" s="380"/>
-      <c r="AA21" s="378" t="s">
+      <c r="X21" s="376"/>
+      <c r="Y21" s="376"/>
+      <c r="Z21" s="377"/>
+      <c r="AA21" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB21" s="379"/>
-      <c r="AC21" s="379"/>
-      <c r="AD21" s="380"/>
-      <c r="AE21" s="378">
+      <c r="AB21" s="376"/>
+      <c r="AC21" s="376"/>
+      <c r="AD21" s="377"/>
+      <c r="AE21" s="375">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF21" s="379"/>
-      <c r="AG21" s="379"/>
-      <c r="AH21" s="380"/>
-      <c r="AI21" s="378" t="s">
+      <c r="AF21" s="376"/>
+      <c r="AG21" s="376"/>
+      <c r="AH21" s="377"/>
+      <c r="AI21" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ21" s="379"/>
-      <c r="AK21" s="379"/>
-      <c r="AL21" s="380"/>
-      <c r="AM21" s="378" t="s">
+      <c r="AJ21" s="376"/>
+      <c r="AK21" s="376"/>
+      <c r="AL21" s="377"/>
+      <c r="AM21" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN21" s="379"/>
-      <c r="AO21" s="379"/>
-      <c r="AP21" s="380"/>
+      <c r="AN21" s="376"/>
+      <c r="AO21" s="376"/>
+      <c r="AP21" s="377"/>
     </row>
     <row r="22" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A22" s="405"/>
-      <c r="B22" s="390"/>
-      <c r="C22" s="399" t="s">
+      <c r="A22" s="399"/>
+      <c r="B22" s="406"/>
+      <c r="C22" s="384" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="400"/>
-      <c r="E22" s="400"/>
-      <c r="F22" s="401"/>
-      <c r="G22" s="387">
+      <c r="D22" s="385"/>
+      <c r="E22" s="385"/>
+      <c r="F22" s="386"/>
+      <c r="G22" s="381">
         <f>入力する経費!O14</f>
         <v>277476.31824391871</v>
       </c>
-      <c r="H22" s="388"/>
-      <c r="I22" s="388"/>
-      <c r="J22" s="389"/>
-      <c r="K22" s="387">
+      <c r="H22" s="382"/>
+      <c r="I22" s="382"/>
+      <c r="J22" s="383"/>
+      <c r="K22" s="381">
         <f t="shared" si="7"/>
         <v>277476.31824391871</v>
       </c>
-      <c r="L22" s="388"/>
-      <c r="M22" s="388"/>
-      <c r="N22" s="389"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="388"/>
-      <c r="Q22" s="388"/>
-      <c r="R22" s="389"/>
-      <c r="S22" s="378">
+      <c r="L22" s="382"/>
+      <c r="M22" s="382"/>
+      <c r="N22" s="383"/>
+      <c r="O22" s="381"/>
+      <c r="P22" s="382"/>
+      <c r="Q22" s="382"/>
+      <c r="R22" s="383"/>
+      <c r="S22" s="375">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T22" s="379"/>
-      <c r="U22" s="379"/>
-      <c r="V22" s="380"/>
-      <c r="W22" s="378" t="s">
+      <c r="T22" s="376"/>
+      <c r="U22" s="376"/>
+      <c r="V22" s="377"/>
+      <c r="W22" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="379"/>
-      <c r="Y22" s="379"/>
-      <c r="Z22" s="380"/>
-      <c r="AA22" s="378" t="s">
+      <c r="X22" s="376"/>
+      <c r="Y22" s="376"/>
+      <c r="Z22" s="377"/>
+      <c r="AA22" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB22" s="379"/>
-      <c r="AC22" s="379"/>
-      <c r="AD22" s="380"/>
-      <c r="AE22" s="378">
+      <c r="AB22" s="376"/>
+      <c r="AC22" s="376"/>
+      <c r="AD22" s="377"/>
+      <c r="AE22" s="375">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF22" s="379"/>
-      <c r="AG22" s="379"/>
-      <c r="AH22" s="380"/>
-      <c r="AI22" s="378" t="s">
+      <c r="AF22" s="376"/>
+      <c r="AG22" s="376"/>
+      <c r="AH22" s="377"/>
+      <c r="AI22" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ22" s="379"/>
-      <c r="AK22" s="379"/>
-      <c r="AL22" s="380"/>
-      <c r="AM22" s="378" t="s">
+      <c r="AJ22" s="376"/>
+      <c r="AK22" s="376"/>
+      <c r="AL22" s="377"/>
+      <c r="AM22" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN22" s="379"/>
-      <c r="AO22" s="379"/>
-      <c r="AP22" s="380"/>
+      <c r="AN22" s="376"/>
+      <c r="AO22" s="376"/>
+      <c r="AP22" s="377"/>
     </row>
     <row r="23" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A23" s="405"/>
-      <c r="B23" s="390"/>
-      <c r="C23" s="399" t="s">
+      <c r="A23" s="399"/>
+      <c r="B23" s="406"/>
+      <c r="C23" s="384" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="400"/>
-      <c r="E23" s="400"/>
-      <c r="F23" s="401"/>
-      <c r="G23" s="387">
+      <c r="D23" s="385"/>
+      <c r="E23" s="385"/>
+      <c r="F23" s="386"/>
+      <c r="G23" s="381">
         <f>入力する経費!O12</f>
         <v>1499363.3481339552</v>
       </c>
-      <c r="H23" s="388"/>
-      <c r="I23" s="388"/>
-      <c r="J23" s="389"/>
-      <c r="K23" s="387">
+      <c r="H23" s="382"/>
+      <c r="I23" s="382"/>
+      <c r="J23" s="383"/>
+      <c r="K23" s="381">
         <f t="shared" si="7"/>
         <v>1499363.3481339552</v>
       </c>
-      <c r="L23" s="388"/>
-      <c r="M23" s="388"/>
-      <c r="N23" s="389"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="388"/>
-      <c r="Q23" s="388"/>
-      <c r="R23" s="389"/>
-      <c r="S23" s="378">
+      <c r="L23" s="382"/>
+      <c r="M23" s="382"/>
+      <c r="N23" s="383"/>
+      <c r="O23" s="381"/>
+      <c r="P23" s="382"/>
+      <c r="Q23" s="382"/>
+      <c r="R23" s="383"/>
+      <c r="S23" s="375">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T23" s="379"/>
-      <c r="U23" s="379"/>
-      <c r="V23" s="380"/>
-      <c r="W23" s="378" t="s">
+      <c r="T23" s="376"/>
+      <c r="U23" s="376"/>
+      <c r="V23" s="377"/>
+      <c r="W23" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X23" s="379"/>
-      <c r="Y23" s="379"/>
-      <c r="Z23" s="380"/>
-      <c r="AA23" s="378" t="s">
+      <c r="X23" s="376"/>
+      <c r="Y23" s="376"/>
+      <c r="Z23" s="377"/>
+      <c r="AA23" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB23" s="379"/>
-      <c r="AC23" s="379"/>
-      <c r="AD23" s="380"/>
-      <c r="AE23" s="378">
+      <c r="AB23" s="376"/>
+      <c r="AC23" s="376"/>
+      <c r="AD23" s="377"/>
+      <c r="AE23" s="375">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="379"/>
-      <c r="AG23" s="379"/>
-      <c r="AH23" s="380"/>
-      <c r="AI23" s="378" t="s">
+      <c r="AF23" s="376"/>
+      <c r="AG23" s="376"/>
+      <c r="AH23" s="377"/>
+      <c r="AI23" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ23" s="379"/>
-      <c r="AK23" s="379"/>
-      <c r="AL23" s="380"/>
-      <c r="AM23" s="378" t="s">
+      <c r="AJ23" s="376"/>
+      <c r="AK23" s="376"/>
+      <c r="AL23" s="377"/>
+      <c r="AM23" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN23" s="379"/>
-      <c r="AO23" s="379"/>
-      <c r="AP23" s="380"/>
+      <c r="AN23" s="376"/>
+      <c r="AO23" s="376"/>
+      <c r="AP23" s="377"/>
     </row>
     <row r="24" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A24" s="405"/>
-      <c r="B24" s="390"/>
-      <c r="C24" s="399" t="s">
+      <c r="A24" s="399"/>
+      <c r="B24" s="406"/>
+      <c r="C24" s="384" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="400"/>
-      <c r="E24" s="400"/>
-      <c r="F24" s="401"/>
-      <c r="G24" s="387">
+      <c r="D24" s="385"/>
+      <c r="E24" s="385"/>
+      <c r="F24" s="386"/>
+      <c r="G24" s="381">
         <f>入力する経費!O16</f>
         <v>1152178.342185938</v>
       </c>
-      <c r="H24" s="388"/>
-      <c r="I24" s="388"/>
-      <c r="J24" s="389"/>
-      <c r="K24" s="387">
+      <c r="H24" s="382"/>
+      <c r="I24" s="382"/>
+      <c r="J24" s="383"/>
+      <c r="K24" s="381">
         <f t="shared" ref="K24" si="10">G24</f>
         <v>1152178.342185938</v>
       </c>
-      <c r="L24" s="388"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="389"/>
-      <c r="O24" s="387"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="389"/>
-      <c r="S24" s="378">
+      <c r="L24" s="382"/>
+      <c r="M24" s="382"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="381"/>
+      <c r="P24" s="382"/>
+      <c r="Q24" s="382"/>
+      <c r="R24" s="383"/>
+      <c r="S24" s="375">
         <f t="shared" ref="S24:S26" si="11">SUM(W24:AD24)</f>
         <v>0</v>
       </c>
-      <c r="T24" s="379"/>
-      <c r="U24" s="379"/>
-      <c r="V24" s="380"/>
-      <c r="W24" s="378" t="s">
+      <c r="T24" s="376"/>
+      <c r="U24" s="376"/>
+      <c r="V24" s="377"/>
+      <c r="W24" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X24" s="379"/>
-      <c r="Y24" s="379"/>
-      <c r="Z24" s="380"/>
-      <c r="AA24" s="378" t="s">
+      <c r="X24" s="376"/>
+      <c r="Y24" s="376"/>
+      <c r="Z24" s="377"/>
+      <c r="AA24" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB24" s="379"/>
-      <c r="AC24" s="379"/>
-      <c r="AD24" s="380"/>
-      <c r="AE24" s="378">
+      <c r="AB24" s="376"/>
+      <c r="AC24" s="376"/>
+      <c r="AD24" s="377"/>
+      <c r="AE24" s="375">
         <f t="shared" ref="AE24:AE26" si="12">SUM(AI24:AP24)</f>
         <v>0</v>
       </c>
-      <c r="AF24" s="379"/>
-      <c r="AG24" s="379"/>
-      <c r="AH24" s="380"/>
-      <c r="AI24" s="378" t="s">
+      <c r="AF24" s="376"/>
+      <c r="AG24" s="376"/>
+      <c r="AH24" s="377"/>
+      <c r="AI24" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ24" s="379"/>
-      <c r="AK24" s="379"/>
-      <c r="AL24" s="380"/>
-      <c r="AM24" s="378" t="s">
+      <c r="AJ24" s="376"/>
+      <c r="AK24" s="376"/>
+      <c r="AL24" s="377"/>
+      <c r="AM24" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN24" s="379"/>
-      <c r="AO24" s="379"/>
-      <c r="AP24" s="380"/>
+      <c r="AN24" s="376"/>
+      <c r="AO24" s="376"/>
+      <c r="AP24" s="377"/>
     </row>
     <row r="25" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A25" s="405"/>
-      <c r="B25" s="390"/>
-      <c r="C25" s="399" t="s">
+      <c r="A25" s="399"/>
+      <c r="B25" s="406"/>
+      <c r="C25" s="384" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="400"/>
-      <c r="E25" s="400"/>
-      <c r="F25" s="401"/>
-      <c r="G25" s="387">
+      <c r="D25" s="385"/>
+      <c r="E25" s="385"/>
+      <c r="F25" s="386"/>
+      <c r="G25" s="381">
         <f>入力する経費!O15</f>
         <v>5137000</v>
       </c>
-      <c r="H25" s="388"/>
-      <c r="I25" s="388"/>
-      <c r="J25" s="389"/>
-      <c r="K25" s="387" t="s">
+      <c r="H25" s="382"/>
+      <c r="I25" s="382"/>
+      <c r="J25" s="383"/>
+      <c r="K25" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="388"/>
-      <c r="M25" s="388"/>
-      <c r="N25" s="389"/>
-      <c r="O25" s="387">
+      <c r="L25" s="382"/>
+      <c r="M25" s="382"/>
+      <c r="N25" s="383"/>
+      <c r="O25" s="381">
         <f>G25</f>
         <v>5137000</v>
       </c>
-      <c r="P25" s="388"/>
-      <c r="Q25" s="388"/>
-      <c r="R25" s="389"/>
-      <c r="S25" s="378">
+      <c r="P25" s="382"/>
+      <c r="Q25" s="382"/>
+      <c r="R25" s="383"/>
+      <c r="S25" s="375">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T25" s="379"/>
-      <c r="U25" s="379"/>
-      <c r="V25" s="380"/>
-      <c r="W25" s="378" t="s">
+      <c r="T25" s="376"/>
+      <c r="U25" s="376"/>
+      <c r="V25" s="377"/>
+      <c r="W25" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X25" s="379"/>
-      <c r="Y25" s="379"/>
-      <c r="Z25" s="380"/>
-      <c r="AA25" s="378" t="s">
+      <c r="X25" s="376"/>
+      <c r="Y25" s="376"/>
+      <c r="Z25" s="377"/>
+      <c r="AA25" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB25" s="379"/>
-      <c r="AC25" s="379"/>
-      <c r="AD25" s="380"/>
-      <c r="AE25" s="378">
+      <c r="AB25" s="376"/>
+      <c r="AC25" s="376"/>
+      <c r="AD25" s="377"/>
+      <c r="AE25" s="375">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="379"/>
-      <c r="AG25" s="379"/>
-      <c r="AH25" s="380"/>
-      <c r="AI25" s="378" t="s">
+      <c r="AF25" s="376"/>
+      <c r="AG25" s="376"/>
+      <c r="AH25" s="377"/>
+      <c r="AI25" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ25" s="379"/>
-      <c r="AK25" s="379"/>
-      <c r="AL25" s="380"/>
-      <c r="AM25" s="378" t="s">
+      <c r="AJ25" s="376"/>
+      <c r="AK25" s="376"/>
+      <c r="AL25" s="377"/>
+      <c r="AM25" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN25" s="379"/>
-      <c r="AO25" s="379"/>
-      <c r="AP25" s="380"/>
+      <c r="AN25" s="376"/>
+      <c r="AO25" s="376"/>
+      <c r="AP25" s="377"/>
     </row>
     <row r="26" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A26" s="405"/>
-      <c r="B26" s="390"/>
-      <c r="C26" s="399" t="s">
+      <c r="A26" s="399"/>
+      <c r="B26" s="406"/>
+      <c r="C26" s="384" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="400"/>
-      <c r="E26" s="400"/>
-      <c r="F26" s="401"/>
-      <c r="G26" s="387">
+      <c r="D26" s="385"/>
+      <c r="E26" s="385"/>
+      <c r="F26" s="386"/>
+      <c r="G26" s="381">
         <f>入力する経費!O10+入力する経費!O17+入力する経費!O18</f>
         <v>106034.32436157644</v>
       </c>
-      <c r="H26" s="388"/>
-      <c r="I26" s="388"/>
-      <c r="J26" s="389"/>
-      <c r="K26" s="387"/>
-      <c r="L26" s="388"/>
-      <c r="M26" s="388"/>
-      <c r="N26" s="389"/>
-      <c r="O26" s="387">
+      <c r="H26" s="382"/>
+      <c r="I26" s="382"/>
+      <c r="J26" s="383"/>
+      <c r="K26" s="381"/>
+      <c r="L26" s="382"/>
+      <c r="M26" s="382"/>
+      <c r="N26" s="383"/>
+      <c r="O26" s="381">
         <f>G26</f>
         <v>106034.32436157644</v>
       </c>
-      <c r="P26" s="388"/>
-      <c r="Q26" s="388"/>
-      <c r="R26" s="389"/>
-      <c r="S26" s="378">
+      <c r="P26" s="382"/>
+      <c r="Q26" s="382"/>
+      <c r="R26" s="383"/>
+      <c r="S26" s="375">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="T26" s="379"/>
-      <c r="U26" s="379"/>
-      <c r="V26" s="380"/>
-      <c r="W26" s="378" t="s">
+      <c r="T26" s="376"/>
+      <c r="U26" s="376"/>
+      <c r="V26" s="377"/>
+      <c r="W26" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X26" s="379"/>
-      <c r="Y26" s="379"/>
-      <c r="Z26" s="380"/>
-      <c r="AA26" s="378" t="s">
+      <c r="X26" s="376"/>
+      <c r="Y26" s="376"/>
+      <c r="Z26" s="377"/>
+      <c r="AA26" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB26" s="379"/>
-      <c r="AC26" s="379"/>
-      <c r="AD26" s="380"/>
-      <c r="AE26" s="378">
+      <c r="AB26" s="376"/>
+      <c r="AC26" s="376"/>
+      <c r="AD26" s="377"/>
+      <c r="AE26" s="375">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="379"/>
-      <c r="AG26" s="379"/>
-      <c r="AH26" s="380"/>
-      <c r="AI26" s="378" t="s">
+      <c r="AF26" s="376"/>
+      <c r="AG26" s="376"/>
+      <c r="AH26" s="377"/>
+      <c r="AI26" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ26" s="379"/>
-      <c r="AK26" s="379"/>
-      <c r="AL26" s="380"/>
-      <c r="AM26" s="378" t="s">
+      <c r="AJ26" s="376"/>
+      <c r="AK26" s="376"/>
+      <c r="AL26" s="377"/>
+      <c r="AM26" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN26" s="379"/>
-      <c r="AO26" s="379"/>
-      <c r="AP26" s="380"/>
+      <c r="AN26" s="376"/>
+      <c r="AO26" s="376"/>
+      <c r="AP26" s="377"/>
     </row>
     <row r="27" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A27" s="405"/>
-      <c r="B27" s="391"/>
-      <c r="C27" s="399"/>
-      <c r="D27" s="400"/>
-      <c r="E27" s="400"/>
-      <c r="F27" s="401"/>
-      <c r="G27" s="387"/>
-      <c r="H27" s="388"/>
-      <c r="I27" s="388"/>
-      <c r="J27" s="389"/>
-      <c r="K27" s="387" t="s">
+      <c r="A27" s="399"/>
+      <c r="B27" s="447"/>
+      <c r="C27" s="384"/>
+      <c r="D27" s="385"/>
+      <c r="E27" s="385"/>
+      <c r="F27" s="386"/>
+      <c r="G27" s="381"/>
+      <c r="H27" s="382"/>
+      <c r="I27" s="382"/>
+      <c r="J27" s="383"/>
+      <c r="K27" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="388"/>
-      <c r="M27" s="388"/>
-      <c r="N27" s="389"/>
-      <c r="O27" s="387" t="s">
+      <c r="L27" s="382"/>
+      <c r="M27" s="382"/>
+      <c r="N27" s="383"/>
+      <c r="O27" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="388"/>
-      <c r="Q27" s="388"/>
-      <c r="R27" s="389"/>
-      <c r="S27" s="378">
+      <c r="P27" s="382"/>
+      <c r="Q27" s="382"/>
+      <c r="R27" s="383"/>
+      <c r="S27" s="375">
         <f t="shared" ref="S27" si="13">SUM(W27:AD27)</f>
         <v>0</v>
       </c>
-      <c r="T27" s="379"/>
-      <c r="U27" s="379"/>
-      <c r="V27" s="380"/>
-      <c r="W27" s="378" t="s">
+      <c r="T27" s="376"/>
+      <c r="U27" s="376"/>
+      <c r="V27" s="377"/>
+      <c r="W27" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X27" s="379"/>
-      <c r="Y27" s="379"/>
-      <c r="Z27" s="380"/>
-      <c r="AA27" s="378" t="s">
+      <c r="X27" s="376"/>
+      <c r="Y27" s="376"/>
+      <c r="Z27" s="377"/>
+      <c r="AA27" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB27" s="379"/>
-      <c r="AC27" s="379"/>
-      <c r="AD27" s="380"/>
-      <c r="AE27" s="378">
+      <c r="AB27" s="376"/>
+      <c r="AC27" s="376"/>
+      <c r="AD27" s="377"/>
+      <c r="AE27" s="375">
         <f t="shared" ref="AE27" si="14">SUM(AI27:AP27)</f>
         <v>0</v>
       </c>
-      <c r="AF27" s="379"/>
-      <c r="AG27" s="379"/>
-      <c r="AH27" s="380"/>
-      <c r="AI27" s="378" t="s">
+      <c r="AF27" s="376"/>
+      <c r="AG27" s="376"/>
+      <c r="AH27" s="377"/>
+      <c r="AI27" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ27" s="379"/>
-      <c r="AK27" s="379"/>
-      <c r="AL27" s="380"/>
-      <c r="AM27" s="378" t="s">
+      <c r="AJ27" s="376"/>
+      <c r="AK27" s="376"/>
+      <c r="AL27" s="377"/>
+      <c r="AM27" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN27" s="379"/>
-      <c r="AO27" s="379"/>
-      <c r="AP27" s="380"/>
+      <c r="AN27" s="376"/>
+      <c r="AO27" s="376"/>
+      <c r="AP27" s="377"/>
     </row>
     <row r="28" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A28" s="405"/>
-      <c r="B28" s="412" t="s">
+      <c r="A28" s="399"/>
+      <c r="B28" s="387" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="413"/>
-      <c r="D28" s="413"/>
-      <c r="E28" s="413"/>
-      <c r="F28" s="457"/>
-      <c r="G28" s="402">
+      <c r="C28" s="388"/>
+      <c r="D28" s="388"/>
+      <c r="E28" s="388"/>
+      <c r="F28" s="389"/>
+      <c r="G28" s="441">
         <f>SUM(G29:O34)</f>
         <v>4365371.5457925601</v>
       </c>
-      <c r="H28" s="403"/>
-      <c r="I28" s="403"/>
-      <c r="J28" s="404"/>
-      <c r="K28" s="402">
+      <c r="H28" s="442"/>
+      <c r="I28" s="442"/>
+      <c r="J28" s="443"/>
+      <c r="K28" s="441">
         <f>SUM(K29:N34)</f>
         <v>0</v>
       </c>
-      <c r="L28" s="403"/>
-      <c r="M28" s="403"/>
-      <c r="N28" s="404"/>
-      <c r="O28" s="402">
+      <c r="L28" s="442"/>
+      <c r="M28" s="442"/>
+      <c r="N28" s="443"/>
+      <c r="O28" s="441">
         <f t="shared" ref="O28" si="15">SUM(O29:R34)</f>
         <v>2182685.77289628</v>
       </c>
-      <c r="P28" s="403"/>
-      <c r="Q28" s="403"/>
-      <c r="R28" s="404"/>
-      <c r="S28" s="381" t="s">
+      <c r="P28" s="442"/>
+      <c r="Q28" s="442"/>
+      <c r="R28" s="443"/>
+      <c r="S28" s="444" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="382"/>
-      <c r="U28" s="382"/>
-      <c r="V28" s="383"/>
-      <c r="W28" s="381">
+      <c r="T28" s="445"/>
+      <c r="U28" s="445"/>
+      <c r="V28" s="446"/>
+      <c r="W28" s="444">
         <f t="shared" ref="W28" si="16">SUM(W29:Z34)</f>
         <v>0</v>
       </c>
-      <c r="X28" s="382"/>
-      <c r="Y28" s="382"/>
-      <c r="Z28" s="383"/>
-      <c r="AA28" s="381">
+      <c r="X28" s="445"/>
+      <c r="Y28" s="445"/>
+      <c r="Z28" s="446"/>
+      <c r="AA28" s="444">
         <f t="shared" ref="AA28" si="17">SUM(AA29:AD34)</f>
         <v>0</v>
       </c>
-      <c r="AB28" s="382"/>
-      <c r="AC28" s="382"/>
-      <c r="AD28" s="383"/>
-      <c r="AE28" s="381">
+      <c r="AB28" s="445"/>
+      <c r="AC28" s="445"/>
+      <c r="AD28" s="446"/>
+      <c r="AE28" s="444">
         <f>SUM(AE29:AH34)</f>
         <v>0</v>
       </c>
-      <c r="AF28" s="382"/>
-      <c r="AG28" s="382"/>
-      <c r="AH28" s="383"/>
-      <c r="AI28" s="381">
+      <c r="AF28" s="445"/>
+      <c r="AG28" s="445"/>
+      <c r="AH28" s="446"/>
+      <c r="AI28" s="444">
         <f t="shared" ref="AI28" si="18">SUM(AI29:AL34)</f>
         <v>0</v>
       </c>
-      <c r="AJ28" s="382"/>
-      <c r="AK28" s="382"/>
-      <c r="AL28" s="383"/>
-      <c r="AM28" s="381">
+      <c r="AJ28" s="445"/>
+      <c r="AK28" s="445"/>
+      <c r="AL28" s="446"/>
+      <c r="AM28" s="444">
         <f t="shared" ref="AM28" si="19">SUM(AM29:AP34)</f>
         <v>0</v>
       </c>
-      <c r="AN28" s="382"/>
-      <c r="AO28" s="382"/>
-      <c r="AP28" s="383"/>
+      <c r="AN28" s="445"/>
+      <c r="AO28" s="445"/>
+      <c r="AP28" s="446"/>
     </row>
     <row r="29" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A29" s="405"/>
-      <c r="B29" s="390" t="s">
+      <c r="A29" s="399"/>
+      <c r="B29" s="406" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="384" t="s">
+      <c r="C29" s="378" t="s">
         <v>270</v>
       </c>
-      <c r="D29" s="385"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="386"/>
-      <c r="G29" s="387">
+      <c r="D29" s="379"/>
+      <c r="E29" s="379"/>
+      <c r="F29" s="380"/>
+      <c r="G29" s="381">
         <f>(入力する経費!C4*32862+入力する経費!C5*9474+SUM(入力する経費!C4:C7)*4000)/100</f>
         <v>284523.87040000001</v>
       </c>
-      <c r="H29" s="388"/>
-      <c r="I29" s="388"/>
-      <c r="J29" s="389"/>
-      <c r="K29" s="387"/>
-      <c r="L29" s="388"/>
-      <c r="M29" s="388"/>
-      <c r="N29" s="389"/>
-      <c r="O29" s="387">
+      <c r="H29" s="382"/>
+      <c r="I29" s="382"/>
+      <c r="J29" s="383"/>
+      <c r="K29" s="381"/>
+      <c r="L29" s="382"/>
+      <c r="M29" s="382"/>
+      <c r="N29" s="383"/>
+      <c r="O29" s="381">
         <f>G29</f>
         <v>284523.87040000001</v>
       </c>
-      <c r="P29" s="388"/>
-      <c r="Q29" s="388"/>
-      <c r="R29" s="389"/>
-      <c r="S29" s="378">
+      <c r="P29" s="382"/>
+      <c r="Q29" s="382"/>
+      <c r="R29" s="383"/>
+      <c r="S29" s="375">
         <f>SUM(W29:AD29)</f>
         <v>0</v>
       </c>
-      <c r="T29" s="379"/>
-      <c r="U29" s="379"/>
-      <c r="V29" s="380"/>
-      <c r="W29" s="378" t="s">
+      <c r="T29" s="376"/>
+      <c r="U29" s="376"/>
+      <c r="V29" s="377"/>
+      <c r="W29" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X29" s="379"/>
-      <c r="Y29" s="379"/>
-      <c r="Z29" s="380"/>
-      <c r="AA29" s="378" t="s">
+      <c r="X29" s="376"/>
+      <c r="Y29" s="376"/>
+      <c r="Z29" s="377"/>
+      <c r="AA29" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB29" s="379"/>
-      <c r="AC29" s="379"/>
-      <c r="AD29" s="380"/>
-      <c r="AE29" s="378">
+      <c r="AB29" s="376"/>
+      <c r="AC29" s="376"/>
+      <c r="AD29" s="377"/>
+      <c r="AE29" s="375">
         <f>SUM(AI29:AP29)</f>
         <v>0</v>
       </c>
-      <c r="AF29" s="379"/>
-      <c r="AG29" s="379"/>
-      <c r="AH29" s="380"/>
-      <c r="AI29" s="378" t="s">
+      <c r="AF29" s="376"/>
+      <c r="AG29" s="376"/>
+      <c r="AH29" s="377"/>
+      <c r="AI29" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ29" s="379"/>
-      <c r="AK29" s="379"/>
-      <c r="AL29" s="380"/>
-      <c r="AM29" s="378" t="s">
+      <c r="AJ29" s="376"/>
+      <c r="AK29" s="376"/>
+      <c r="AL29" s="377"/>
+      <c r="AM29" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN29" s="379"/>
-      <c r="AO29" s="379"/>
-      <c r="AP29" s="380"/>
+      <c r="AN29" s="376"/>
+      <c r="AO29" s="376"/>
+      <c r="AP29" s="377"/>
     </row>
     <row r="30" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A30" s="405"/>
-      <c r="B30" s="390"/>
-      <c r="C30" s="384" t="s">
+      <c r="A30" s="399"/>
+      <c r="B30" s="406"/>
+      <c r="C30" s="378" t="s">
         <v>275</v>
       </c>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
-      <c r="F30" s="386"/>
-      <c r="G30" s="387">
+      <c r="D30" s="379"/>
+      <c r="E30" s="379"/>
+      <c r="F30" s="380"/>
+      <c r="G30" s="381">
         <f>入力する経費!O28</f>
         <v>515462.08737404796</v>
       </c>
-      <c r="H30" s="388"/>
-      <c r="I30" s="388"/>
-      <c r="J30" s="389"/>
-      <c r="K30" s="387"/>
-      <c r="L30" s="388"/>
-      <c r="M30" s="388"/>
-      <c r="N30" s="389"/>
-      <c r="O30" s="387">
+      <c r="H30" s="382"/>
+      <c r="I30" s="382"/>
+      <c r="J30" s="383"/>
+      <c r="K30" s="381"/>
+      <c r="L30" s="382"/>
+      <c r="M30" s="382"/>
+      <c r="N30" s="383"/>
+      <c r="O30" s="381">
         <f>入力する経費!O28</f>
         <v>515462.08737404796</v>
       </c>
-      <c r="P30" s="388"/>
-      <c r="Q30" s="388"/>
-      <c r="R30" s="389"/>
-      <c r="S30" s="378">
+      <c r="P30" s="382"/>
+      <c r="Q30" s="382"/>
+      <c r="R30" s="383"/>
+      <c r="S30" s="375">
         <f t="shared" ref="S30:S34" si="20">SUM(W30:AD30)</f>
         <v>0</v>
       </c>
-      <c r="T30" s="379"/>
-      <c r="U30" s="379"/>
-      <c r="V30" s="380"/>
-      <c r="W30" s="378" t="s">
+      <c r="T30" s="376"/>
+      <c r="U30" s="376"/>
+      <c r="V30" s="377"/>
+      <c r="W30" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X30" s="379"/>
-      <c r="Y30" s="379"/>
-      <c r="Z30" s="380"/>
-      <c r="AA30" s="378" t="s">
+      <c r="X30" s="376"/>
+      <c r="Y30" s="376"/>
+      <c r="Z30" s="377"/>
+      <c r="AA30" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB30" s="379"/>
-      <c r="AC30" s="379"/>
-      <c r="AD30" s="380"/>
-      <c r="AE30" s="378">
+      <c r="AB30" s="376"/>
+      <c r="AC30" s="376"/>
+      <c r="AD30" s="377"/>
+      <c r="AE30" s="375">
         <f t="shared" ref="AE30:AE34" si="21">SUM(AI30:AP30)</f>
         <v>0</v>
       </c>
-      <c r="AF30" s="379"/>
-      <c r="AG30" s="379"/>
-      <c r="AH30" s="380"/>
-      <c r="AI30" s="378" t="s">
+      <c r="AF30" s="376"/>
+      <c r="AG30" s="376"/>
+      <c r="AH30" s="377"/>
+      <c r="AI30" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ30" s="379"/>
-      <c r="AK30" s="379"/>
-      <c r="AL30" s="380"/>
-      <c r="AM30" s="378" t="s">
+      <c r="AJ30" s="376"/>
+      <c r="AK30" s="376"/>
+      <c r="AL30" s="377"/>
+      <c r="AM30" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN30" s="379"/>
-      <c r="AO30" s="379"/>
-      <c r="AP30" s="380"/>
+      <c r="AN30" s="376"/>
+      <c r="AO30" s="376"/>
+      <c r="AP30" s="377"/>
     </row>
     <row r="31" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A31" s="405"/>
-      <c r="B31" s="390"/>
-      <c r="C31" s="384" t="s">
+      <c r="A31" s="399"/>
+      <c r="B31" s="406"/>
+      <c r="C31" s="378" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="385"/>
-      <c r="E31" s="385"/>
-      <c r="F31" s="386"/>
-      <c r="G31" s="387">
+      <c r="D31" s="379"/>
+      <c r="E31" s="379"/>
+      <c r="F31" s="380"/>
+      <c r="G31" s="381">
         <f>入力する経費!O40</f>
         <v>14862.456864378541</v>
       </c>
-      <c r="H31" s="388"/>
-      <c r="I31" s="388"/>
-      <c r="J31" s="389"/>
-      <c r="K31" s="387"/>
-      <c r="L31" s="388"/>
-      <c r="M31" s="388"/>
-      <c r="N31" s="389"/>
-      <c r="O31" s="387">
+      <c r="H31" s="382"/>
+      <c r="I31" s="382"/>
+      <c r="J31" s="383"/>
+      <c r="K31" s="381"/>
+      <c r="L31" s="382"/>
+      <c r="M31" s="382"/>
+      <c r="N31" s="383"/>
+      <c r="O31" s="381">
         <f t="shared" ref="O31:O32" si="22">G31</f>
         <v>14862.456864378541</v>
       </c>
-      <c r="P31" s="388"/>
-      <c r="Q31" s="388"/>
-      <c r="R31" s="389"/>
-      <c r="S31" s="378">
+      <c r="P31" s="382"/>
+      <c r="Q31" s="382"/>
+      <c r="R31" s="383"/>
+      <c r="S31" s="375">
         <f t="shared" ref="S31:S32" si="23">SUM(W31:AD31)</f>
         <v>0</v>
       </c>
-      <c r="T31" s="379"/>
-      <c r="U31" s="379"/>
-      <c r="V31" s="380"/>
-      <c r="W31" s="378" t="s">
+      <c r="T31" s="376"/>
+      <c r="U31" s="376"/>
+      <c r="V31" s="377"/>
+      <c r="W31" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X31" s="379"/>
-      <c r="Y31" s="379"/>
-      <c r="Z31" s="380"/>
-      <c r="AA31" s="378" t="s">
+      <c r="X31" s="376"/>
+      <c r="Y31" s="376"/>
+      <c r="Z31" s="377"/>
+      <c r="AA31" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB31" s="379"/>
-      <c r="AC31" s="379"/>
-      <c r="AD31" s="380"/>
-      <c r="AE31" s="378">
+      <c r="AB31" s="376"/>
+      <c r="AC31" s="376"/>
+      <c r="AD31" s="377"/>
+      <c r="AE31" s="375">
         <f t="shared" ref="AE31:AE32" si="24">SUM(AI31:AP31)</f>
         <v>0</v>
       </c>
-      <c r="AF31" s="379"/>
-      <c r="AG31" s="379"/>
-      <c r="AH31" s="380"/>
-      <c r="AI31" s="378" t="s">
+      <c r="AF31" s="376"/>
+      <c r="AG31" s="376"/>
+      <c r="AH31" s="377"/>
+      <c r="AI31" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ31" s="379"/>
-      <c r="AK31" s="379"/>
-      <c r="AL31" s="380"/>
-      <c r="AM31" s="378" t="s">
+      <c r="AJ31" s="376"/>
+      <c r="AK31" s="376"/>
+      <c r="AL31" s="377"/>
+      <c r="AM31" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN31" s="379"/>
-      <c r="AO31" s="379"/>
-      <c r="AP31" s="380"/>
+      <c r="AN31" s="376"/>
+      <c r="AO31" s="376"/>
+      <c r="AP31" s="377"/>
     </row>
     <row r="32" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A32" s="405"/>
-      <c r="B32" s="390"/>
-      <c r="C32" s="384" t="s">
+      <c r="A32" s="399"/>
+      <c r="B32" s="406"/>
+      <c r="C32" s="378" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="385"/>
-      <c r="E32" s="385"/>
-      <c r="F32" s="386"/>
-      <c r="G32" s="387">
+      <c r="D32" s="379"/>
+      <c r="E32" s="379"/>
+      <c r="F32" s="380"/>
+      <c r="G32" s="381">
         <f>(入力する経費!J22   +
 入力する経費!J23/1.1+
 入力する経費!J25/1.1+
@@ -12642,261 +12664,261 @@
 入力する経費!J39/1.1)*入力する経費!C$9</f>
         <v>1367837.3582578537</v>
       </c>
-      <c r="H32" s="388"/>
-      <c r="I32" s="388"/>
-      <c r="J32" s="389"/>
-      <c r="K32" s="387"/>
-      <c r="L32" s="388"/>
-      <c r="M32" s="388"/>
-      <c r="N32" s="389"/>
-      <c r="O32" s="387">
+      <c r="H32" s="382"/>
+      <c r="I32" s="382"/>
+      <c r="J32" s="383"/>
+      <c r="K32" s="381"/>
+      <c r="L32" s="382"/>
+      <c r="M32" s="382"/>
+      <c r="N32" s="383"/>
+      <c r="O32" s="381">
         <f t="shared" si="22"/>
         <v>1367837.3582578537</v>
       </c>
-      <c r="P32" s="388"/>
-      <c r="Q32" s="388"/>
-      <c r="R32" s="389"/>
-      <c r="S32" s="378">
+      <c r="P32" s="382"/>
+      <c r="Q32" s="382"/>
+      <c r="R32" s="383"/>
+      <c r="S32" s="375">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="T32" s="379"/>
-      <c r="U32" s="379"/>
-      <c r="V32" s="380"/>
-      <c r="W32" s="378" t="s">
+      <c r="T32" s="376"/>
+      <c r="U32" s="376"/>
+      <c r="V32" s="377"/>
+      <c r="W32" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X32" s="379"/>
-      <c r="Y32" s="379"/>
-      <c r="Z32" s="380"/>
-      <c r="AA32" s="378" t="s">
+      <c r="X32" s="376"/>
+      <c r="Y32" s="376"/>
+      <c r="Z32" s="377"/>
+      <c r="AA32" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB32" s="379"/>
-      <c r="AC32" s="379"/>
-      <c r="AD32" s="380"/>
-      <c r="AE32" s="378">
+      <c r="AB32" s="376"/>
+      <c r="AC32" s="376"/>
+      <c r="AD32" s="377"/>
+      <c r="AE32" s="375">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AF32" s="379"/>
-      <c r="AG32" s="379"/>
-      <c r="AH32" s="380"/>
-      <c r="AI32" s="378" t="s">
+      <c r="AF32" s="376"/>
+      <c r="AG32" s="376"/>
+      <c r="AH32" s="377"/>
+      <c r="AI32" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ32" s="379"/>
-      <c r="AK32" s="379"/>
-      <c r="AL32" s="380"/>
-      <c r="AM32" s="378" t="s">
+      <c r="AJ32" s="376"/>
+      <c r="AK32" s="376"/>
+      <c r="AL32" s="377"/>
+      <c r="AM32" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN32" s="379"/>
-      <c r="AO32" s="379"/>
-      <c r="AP32" s="380"/>
+      <c r="AN32" s="376"/>
+      <c r="AO32" s="376"/>
+      <c r="AP32" s="377"/>
     </row>
     <row r="33" spans="1:42" ht="25.5" customHeight="1">
-      <c r="A33" s="405"/>
-      <c r="B33" s="391"/>
-      <c r="C33" s="384"/>
-      <c r="D33" s="385"/>
-      <c r="E33" s="385"/>
-      <c r="F33" s="386"/>
-      <c r="G33" s="387">
+      <c r="A33" s="399"/>
+      <c r="B33" s="447"/>
+      <c r="C33" s="378"/>
+      <c r="D33" s="379"/>
+      <c r="E33" s="379"/>
+      <c r="F33" s="380"/>
+      <c r="G33" s="381">
         <f>SUM(K33:R33)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="388"/>
-      <c r="I33" s="388"/>
-      <c r="J33" s="389"/>
-      <c r="K33" s="387" t="s">
+      <c r="H33" s="382"/>
+      <c r="I33" s="382"/>
+      <c r="J33" s="383"/>
+      <c r="K33" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="388"/>
-      <c r="M33" s="388"/>
-      <c r="N33" s="389"/>
-      <c r="O33" s="387" t="s">
+      <c r="L33" s="382"/>
+      <c r="M33" s="382"/>
+      <c r="N33" s="383"/>
+      <c r="O33" s="381" t="s">
         <v>36</v>
       </c>
-      <c r="P33" s="388"/>
-      <c r="Q33" s="388"/>
-      <c r="R33" s="389"/>
-      <c r="S33" s="378">
+      <c r="P33" s="382"/>
+      <c r="Q33" s="382"/>
+      <c r="R33" s="383"/>
+      <c r="S33" s="375">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T33" s="379"/>
-      <c r="U33" s="379"/>
-      <c r="V33" s="380"/>
-      <c r="W33" s="378" t="s">
+      <c r="T33" s="376"/>
+      <c r="U33" s="376"/>
+      <c r="V33" s="377"/>
+      <c r="W33" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="X33" s="379"/>
-      <c r="Y33" s="379"/>
-      <c r="Z33" s="380"/>
-      <c r="AA33" s="378" t="s">
+      <c r="X33" s="376"/>
+      <c r="Y33" s="376"/>
+      <c r="Z33" s="377"/>
+      <c r="AA33" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AB33" s="379"/>
-      <c r="AC33" s="379"/>
-      <c r="AD33" s="380"/>
-      <c r="AE33" s="378">
+      <c r="AB33" s="376"/>
+      <c r="AC33" s="376"/>
+      <c r="AD33" s="377"/>
+      <c r="AE33" s="375">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF33" s="379"/>
-      <c r="AG33" s="379"/>
-      <c r="AH33" s="380"/>
-      <c r="AI33" s="378" t="s">
+      <c r="AF33" s="376"/>
+      <c r="AG33" s="376"/>
+      <c r="AH33" s="377"/>
+      <c r="AI33" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AJ33" s="379"/>
-      <c r="AK33" s="379"/>
-      <c r="AL33" s="380"/>
-      <c r="AM33" s="378" t="s">
+      <c r="AJ33" s="376"/>
+      <c r="AK33" s="376"/>
+      <c r="AL33" s="377"/>
+      <c r="AM33" s="375" t="s">
         <v>36</v>
       </c>
-      <c r="AN33" s="379"/>
-      <c r="AO33" s="379"/>
-      <c r="AP33" s="380"/>
+      <c r="AN33" s="376"/>
+      <c r="AO33" s="376"/>
+      <c r="AP33" s="377"/>
     </row>
     <row r="34" spans="1:42" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A34" s="405"/>
-      <c r="B34" s="392"/>
-      <c r="C34" s="393"/>
-      <c r="D34" s="394"/>
-      <c r="E34" s="394"/>
-      <c r="F34" s="395"/>
-      <c r="G34" s="396">
+      <c r="A34" s="399"/>
+      <c r="B34" s="448"/>
+      <c r="C34" s="449"/>
+      <c r="D34" s="450"/>
+      <c r="E34" s="450"/>
+      <c r="F34" s="451"/>
+      <c r="G34" s="452">
         <f t="shared" ref="G34" si="25">SUM(K34:R34)</f>
         <v>0</v>
       </c>
-      <c r="H34" s="397"/>
-      <c r="I34" s="397"/>
-      <c r="J34" s="398"/>
-      <c r="K34" s="396" t="s">
+      <c r="H34" s="453"/>
+      <c r="I34" s="453"/>
+      <c r="J34" s="454"/>
+      <c r="K34" s="452" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="397"/>
-      <c r="M34" s="397"/>
-      <c r="N34" s="398"/>
-      <c r="O34" s="396" t="s">
+      <c r="L34" s="453"/>
+      <c r="M34" s="453"/>
+      <c r="N34" s="454"/>
+      <c r="O34" s="452" t="s">
         <v>36</v>
       </c>
-      <c r="P34" s="397"/>
-      <c r="Q34" s="397"/>
-      <c r="R34" s="398"/>
-      <c r="S34" s="369">
+      <c r="P34" s="453"/>
+      <c r="Q34" s="453"/>
+      <c r="R34" s="454"/>
+      <c r="S34" s="455">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="T34" s="370"/>
-      <c r="U34" s="370"/>
-      <c r="V34" s="371"/>
-      <c r="W34" s="369" t="s">
+      <c r="T34" s="456"/>
+      <c r="U34" s="456"/>
+      <c r="V34" s="457"/>
+      <c r="W34" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="X34" s="370"/>
-      <c r="Y34" s="370"/>
-      <c r="Z34" s="371"/>
-      <c r="AA34" s="369" t="s">
+      <c r="X34" s="456"/>
+      <c r="Y34" s="456"/>
+      <c r="Z34" s="457"/>
+      <c r="AA34" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="AB34" s="370"/>
-      <c r="AC34" s="370"/>
-      <c r="AD34" s="371"/>
-      <c r="AE34" s="369">
+      <c r="AB34" s="456"/>
+      <c r="AC34" s="456"/>
+      <c r="AD34" s="457"/>
+      <c r="AE34" s="455">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AF34" s="370"/>
-      <c r="AG34" s="370"/>
-      <c r="AH34" s="371"/>
-      <c r="AI34" s="369" t="s">
+      <c r="AF34" s="456"/>
+      <c r="AG34" s="456"/>
+      <c r="AH34" s="457"/>
+      <c r="AI34" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="AJ34" s="370"/>
-      <c r="AK34" s="370"/>
-      <c r="AL34" s="371"/>
-      <c r="AM34" s="369" t="s">
+      <c r="AJ34" s="456"/>
+      <c r="AK34" s="456"/>
+      <c r="AL34" s="457"/>
+      <c r="AM34" s="455" t="s">
         <v>36</v>
       </c>
-      <c r="AN34" s="370"/>
-      <c r="AO34" s="370"/>
-      <c r="AP34" s="371"/>
+      <c r="AN34" s="456"/>
+      <c r="AO34" s="456"/>
+      <c r="AP34" s="457"/>
     </row>
     <row r="35" spans="1:42" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A35" s="405"/>
-      <c r="B35" s="372" t="s">
+      <c r="A35" s="399"/>
+      <c r="B35" s="464" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="373"/>
-      <c r="D35" s="373"/>
-      <c r="E35" s="373"/>
-      <c r="F35" s="374"/>
-      <c r="G35" s="375">
+      <c r="C35" s="465"/>
+      <c r="D35" s="465"/>
+      <c r="E35" s="465"/>
+      <c r="F35" s="466"/>
+      <c r="G35" s="467">
         <f>SUM(G16,G28)</f>
         <v>28599722.209144175</v>
       </c>
-      <c r="H35" s="376"/>
-      <c r="I35" s="376"/>
-      <c r="J35" s="377"/>
-      <c r="K35" s="375">
+      <c r="H35" s="468"/>
+      <c r="I35" s="468"/>
+      <c r="J35" s="469"/>
+      <c r="K35" s="467">
         <f>SUM(K16,K28)</f>
         <v>6874141.0073142285</v>
       </c>
-      <c r="L35" s="376"/>
-      <c r="M35" s="376"/>
-      <c r="N35" s="377"/>
-      <c r="O35" s="375">
+      <c r="L35" s="468"/>
+      <c r="M35" s="468"/>
+      <c r="N35" s="469"/>
+      <c r="O35" s="467">
         <f>SUM(O16,O28)</f>
         <v>7425720.0972578563</v>
       </c>
-      <c r="P35" s="376"/>
-      <c r="Q35" s="376"/>
-      <c r="R35" s="377"/>
-      <c r="S35" s="363">
+      <c r="P35" s="468"/>
+      <c r="Q35" s="468"/>
+      <c r="R35" s="469"/>
+      <c r="S35" s="458">
         <f>SUM(S16,S28)</f>
         <v>0</v>
       </c>
-      <c r="T35" s="364"/>
-      <c r="U35" s="364"/>
-      <c r="V35" s="365"/>
-      <c r="W35" s="363">
+      <c r="T35" s="459"/>
+      <c r="U35" s="459"/>
+      <c r="V35" s="460"/>
+      <c r="W35" s="458">
         <f>SUM(W16,W28)</f>
         <v>0</v>
       </c>
-      <c r="X35" s="364"/>
-      <c r="Y35" s="364"/>
-      <c r="Z35" s="365"/>
-      <c r="AA35" s="363">
+      <c r="X35" s="459"/>
+      <c r="Y35" s="459"/>
+      <c r="Z35" s="460"/>
+      <c r="AA35" s="458">
         <f>SUM(AA16,AA28)</f>
         <v>0</v>
       </c>
-      <c r="AB35" s="364"/>
-      <c r="AC35" s="364"/>
-      <c r="AD35" s="365"/>
-      <c r="AE35" s="363">
+      <c r="AB35" s="459"/>
+      <c r="AC35" s="459"/>
+      <c r="AD35" s="460"/>
+      <c r="AE35" s="458">
         <f>SUM(AE16,AE28)</f>
         <v>0</v>
       </c>
-      <c r="AF35" s="364"/>
-      <c r="AG35" s="364"/>
-      <c r="AH35" s="365"/>
-      <c r="AI35" s="363">
+      <c r="AF35" s="459"/>
+      <c r="AG35" s="459"/>
+      <c r="AH35" s="460"/>
+      <c r="AI35" s="458">
         <f>SUM(AI16,AI28)</f>
         <v>0</v>
       </c>
-      <c r="AJ35" s="364"/>
-      <c r="AK35" s="364"/>
-      <c r="AL35" s="365"/>
-      <c r="AM35" s="363">
+      <c r="AJ35" s="459"/>
+      <c r="AK35" s="459"/>
+      <c r="AL35" s="460"/>
+      <c r="AM35" s="458">
         <f>SUM(AM16,AM28)</f>
         <v>0</v>
       </c>
-      <c r="AN35" s="364"/>
-      <c r="AO35" s="364"/>
-      <c r="AP35" s="365"/>
+      <c r="AN35" s="459"/>
+      <c r="AO35" s="459"/>
+      <c r="AP35" s="460"/>
     </row>
     <row r="36" spans="1:42" ht="21.6" customHeight="1">
       <c r="B36" s="2" t="s">
@@ -12935,6 +12957,265 @@
     <row r="65" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="283">
+    <mergeCell ref="AA35:AD35"/>
+    <mergeCell ref="AE35:AH35"/>
+    <mergeCell ref="AI35:AL35"/>
+    <mergeCell ref="AM35:AP35"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B6:K6"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="AA34:AD34"/>
+    <mergeCell ref="AE34:AH34"/>
+    <mergeCell ref="AI34:AL34"/>
+    <mergeCell ref="AM34:AP34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="S35:V35"/>
+    <mergeCell ref="W35:Z35"/>
+    <mergeCell ref="AA33:AD33"/>
+    <mergeCell ref="AE33:AH33"/>
+    <mergeCell ref="AI33:AL33"/>
+    <mergeCell ref="AM33:AP33"/>
+    <mergeCell ref="AM29:AP29"/>
+    <mergeCell ref="W28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="AI28:AL28"/>
+    <mergeCell ref="AM28:AP28"/>
+    <mergeCell ref="AM30:AP30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="AE30:AH30"/>
+    <mergeCell ref="AI30:AL30"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AE32:AH32"/>
+    <mergeCell ref="AI32:AL32"/>
+    <mergeCell ref="AM32:AP32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="W33:Z33"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:R30"/>
+    <mergeCell ref="S30:V30"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="W32:Z32"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:R29"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="W34:Z34"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AI27:AL27"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AE29:AH29"/>
+    <mergeCell ref="AI29:AL29"/>
+    <mergeCell ref="B17:B27"/>
+    <mergeCell ref="AI17:AL17"/>
+    <mergeCell ref="AM17:AP17"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AI18:AL18"/>
+    <mergeCell ref="AM18:AP18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AI19:AL19"/>
+    <mergeCell ref="AM19:AP19"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="W17:Z17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="W26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="A14:A35"/>
+    <mergeCell ref="B14:F15"/>
+    <mergeCell ref="G14:R14"/>
+    <mergeCell ref="S14:AD14"/>
+    <mergeCell ref="AE14:AP14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="W15:Z15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="AE15:AH15"/>
+    <mergeCell ref="AI15:AL15"/>
+    <mergeCell ref="AM15:AP15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="AE16:AH16"/>
+    <mergeCell ref="AI16:AL16"/>
+    <mergeCell ref="AM16:AP16"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="AD10:AG10"/>
+    <mergeCell ref="AH10:AK10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="AD11:AG11"/>
+    <mergeCell ref="AH11:AK11"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="AD8:AG8"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="AD7:AG7"/>
+    <mergeCell ref="AH7:AK7"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AH8:AK8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="Y6:AC6"/>
+    <mergeCell ref="AD6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="A1:AM1"/>
+    <mergeCell ref="A2:AM2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="Y5:AC5"/>
+    <mergeCell ref="AD5:AG5"/>
+    <mergeCell ref="AH5:AK5"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AM20:AP20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AI20:AL20"/>
+    <mergeCell ref="AM21:AP21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AI22:AL22"/>
+    <mergeCell ref="AM22:AP22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AI21:AL21"/>
+    <mergeCell ref="AM23:AP23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="AE24:AH24"/>
+    <mergeCell ref="AI24:AL24"/>
+    <mergeCell ref="AM24:AP24"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="S23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="AE23:AH23"/>
+    <mergeCell ref="AI23:AL23"/>
     <mergeCell ref="AM25:AP25"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="G31:J31"/>
@@ -12959,265 +13240,6 @@
     <mergeCell ref="AI26:AL26"/>
     <mergeCell ref="AM27:AP27"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="AM23:AP23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="O24:R24"/>
-    <mergeCell ref="S24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="AE24:AH24"/>
-    <mergeCell ref="AI24:AL24"/>
-    <mergeCell ref="AM24:AP24"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="O23:R23"/>
-    <mergeCell ref="S23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="AA23:AD23"/>
-    <mergeCell ref="AE23:AH23"/>
-    <mergeCell ref="AI23:AL23"/>
-    <mergeCell ref="AM21:AP21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="O22:R22"/>
-    <mergeCell ref="S22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="AA22:AD22"/>
-    <mergeCell ref="AE22:AH22"/>
-    <mergeCell ref="AI22:AL22"/>
-    <mergeCell ref="AM22:AP22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="AI21:AL21"/>
-    <mergeCell ref="AM20:AP20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AI20:AL20"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="Y6:AC6"/>
-    <mergeCell ref="AD6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="A1:AM1"/>
-    <mergeCell ref="A2:AM2"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="Y5:AC5"/>
-    <mergeCell ref="AD5:AG5"/>
-    <mergeCell ref="AH5:AK5"/>
-    <mergeCell ref="AL5:AO5"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="AD7:AG7"/>
-    <mergeCell ref="AH7:AK7"/>
-    <mergeCell ref="AL7:AO7"/>
-    <mergeCell ref="AH8:AK8"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="AD8:AG8"/>
-    <mergeCell ref="AL10:AO10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="AD10:AG10"/>
-    <mergeCell ref="AH10:AK10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="AD11:AG11"/>
-    <mergeCell ref="AH11:AK11"/>
-    <mergeCell ref="AL11:AO11"/>
-    <mergeCell ref="A14:A35"/>
-    <mergeCell ref="B14:F15"/>
-    <mergeCell ref="G14:R14"/>
-    <mergeCell ref="S14:AD14"/>
-    <mergeCell ref="AE14:AP14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="W15:Z15"/>
-    <mergeCell ref="AA15:AD15"/>
-    <mergeCell ref="AE15:AH15"/>
-    <mergeCell ref="AI15:AL15"/>
-    <mergeCell ref="AM15:AP15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="AE16:AH16"/>
-    <mergeCell ref="AI16:AL16"/>
-    <mergeCell ref="AM16:AP16"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="S26:V26"/>
-    <mergeCell ref="W26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="AE26:AH26"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="S28:V28"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="B17:B27"/>
-    <mergeCell ref="AI17:AL17"/>
-    <mergeCell ref="AM17:AP17"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="AE18:AH18"/>
-    <mergeCell ref="AI18:AL18"/>
-    <mergeCell ref="AM18:AP18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="AI19:AL19"/>
-    <mergeCell ref="AM19:AP19"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W17:Z17"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="AE27:AH27"/>
-    <mergeCell ref="AI27:AL27"/>
-    <mergeCell ref="S29:V29"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="AE29:AH29"/>
-    <mergeCell ref="AI29:AL29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:R30"/>
-    <mergeCell ref="S30:V30"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:R29"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="W34:Z34"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:R32"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AE32:AH32"/>
-    <mergeCell ref="AI32:AL32"/>
-    <mergeCell ref="AM32:AP32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="O33:R33"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="W33:Z33"/>
-    <mergeCell ref="AM29:AP29"/>
-    <mergeCell ref="W28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="AE28:AH28"/>
-    <mergeCell ref="AI28:AL28"/>
-    <mergeCell ref="AM28:AP28"/>
-    <mergeCell ref="AM30:AP30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="AE30:AH30"/>
-    <mergeCell ref="AI30:AL30"/>
-    <mergeCell ref="AA35:AD35"/>
-    <mergeCell ref="AE35:AH35"/>
-    <mergeCell ref="AI35:AL35"/>
-    <mergeCell ref="AM35:AP35"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="AA34:AD34"/>
-    <mergeCell ref="AE34:AH34"/>
-    <mergeCell ref="AI34:AL34"/>
-    <mergeCell ref="AM34:AP34"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="S35:V35"/>
-    <mergeCell ref="W35:Z35"/>
-    <mergeCell ref="AA33:AD33"/>
-    <mergeCell ref="AE33:AH33"/>
-    <mergeCell ref="AI33:AL33"/>
-    <mergeCell ref="AM33:AP33"/>
   </mergeCells>
   <phoneticPr fontId="21"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.43307086614173229" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -13233,7 +13255,7 @@
   </sheetPr>
   <dimension ref="B1:AG40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
@@ -16643,8 +16665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6200DB-3285-4411-A32F-978BB10E498B}">
   <dimension ref="B1:AE60"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="R37" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Z57" sqref="Z57"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -16690,7 +16712,7 @@
       <c r="V2" s="60"/>
       <c r="W2" s="60"/>
       <c r="X2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="2:27" ht="19.5" thickBot="1">
@@ -16721,38 +16743,38 @@
     </row>
     <row r="4" spans="2:27" ht="19.5" thickBot="1">
       <c r="B4" s="60"/>
-      <c r="C4" s="535" t="s">
+      <c r="C4" s="493" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="536"/>
-      <c r="E4" s="536"/>
-      <c r="F4" s="536"/>
-      <c r="G4" s="537"/>
-      <c r="H4" s="538" t="s">
+      <c r="D4" s="494"/>
+      <c r="E4" s="494"/>
+      <c r="F4" s="494"/>
+      <c r="G4" s="495"/>
+      <c r="H4" s="496" t="s">
         <v>184</v>
       </c>
-      <c r="I4" s="539"/>
-      <c r="J4" s="539"/>
-      <c r="K4" s="539" t="s">
+      <c r="I4" s="497"/>
+      <c r="J4" s="497"/>
+      <c r="K4" s="497" t="s">
         <v>185</v>
       </c>
-      <c r="L4" s="539"/>
-      <c r="M4" s="539"/>
-      <c r="N4" s="539" t="s">
+      <c r="L4" s="497"/>
+      <c r="M4" s="497"/>
+      <c r="N4" s="497" t="s">
         <v>186</v>
       </c>
-      <c r="O4" s="539"/>
-      <c r="P4" s="539"/>
-      <c r="Q4" s="539" t="s">
+      <c r="O4" s="497"/>
+      <c r="P4" s="497"/>
+      <c r="Q4" s="497" t="s">
         <v>187</v>
       </c>
-      <c r="R4" s="539"/>
-      <c r="S4" s="539"/>
-      <c r="T4" s="539" t="s">
+      <c r="R4" s="497"/>
+      <c r="S4" s="497"/>
+      <c r="T4" s="497" t="s">
         <v>188</v>
       </c>
-      <c r="U4" s="539"/>
-      <c r="V4" s="540"/>
+      <c r="U4" s="497"/>
+      <c r="V4" s="498"/>
       <c r="W4" s="60"/>
       <c r="X4" s="192"/>
       <c r="Y4" s="203" t="s">
@@ -16762,40 +16784,40 @@
     </row>
     <row r="5" spans="2:27" ht="18.75" customHeight="1">
       <c r="B5" s="60"/>
-      <c r="C5" s="541" t="s">
+      <c r="C5" s="471" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="542" t="s">
+      <c r="D5" s="499" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="542"/>
-      <c r="F5" s="542"/>
-      <c r="G5" s="543"/>
-      <c r="H5" s="544">
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="479"/>
+      <c r="H5" s="500">
         <v>0.4</v>
       </c>
-      <c r="I5" s="545"/>
-      <c r="J5" s="545"/>
-      <c r="K5" s="568">
+      <c r="I5" s="501"/>
+      <c r="J5" s="501"/>
+      <c r="K5" s="483">
         <v>5</v>
       </c>
-      <c r="L5" s="568"/>
-      <c r="M5" s="568"/>
-      <c r="N5" s="546">
+      <c r="L5" s="483"/>
+      <c r="M5" s="483"/>
+      <c r="N5" s="484">
         <v>5</v>
       </c>
-      <c r="O5" s="547"/>
-      <c r="P5" s="548"/>
-      <c r="Q5" s="546">
+      <c r="O5" s="485"/>
+      <c r="P5" s="486"/>
+      <c r="Q5" s="484">
         <v>5</v>
       </c>
-      <c r="R5" s="547"/>
-      <c r="S5" s="548"/>
-      <c r="T5" s="546">
+      <c r="R5" s="485"/>
+      <c r="S5" s="486"/>
+      <c r="T5" s="484">
         <v>5</v>
       </c>
-      <c r="U5" s="547"/>
-      <c r="V5" s="554"/>
+      <c r="U5" s="485"/>
+      <c r="V5" s="508"/>
       <c r="W5" s="60"/>
       <c r="X5" s="205"/>
       <c r="Y5" s="35" t="s">
@@ -16807,38 +16829,38 @@
     </row>
     <row r="6" spans="2:27">
       <c r="B6" s="60"/>
-      <c r="C6" s="541"/>
-      <c r="D6" s="549" t="s">
+      <c r="C6" s="471"/>
+      <c r="D6" s="502" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="549"/>
-      <c r="F6" s="549"/>
-      <c r="G6" s="530"/>
-      <c r="H6" s="550">
+      <c r="E6" s="502"/>
+      <c r="F6" s="502"/>
+      <c r="G6" s="503"/>
+      <c r="H6" s="504">
         <v>6.5</v>
       </c>
-      <c r="I6" s="551"/>
-      <c r="J6" s="551"/>
-      <c r="K6" s="552">
+      <c r="I6" s="505"/>
+      <c r="J6" s="505"/>
+      <c r="K6" s="506">
         <v>3.4</v>
       </c>
-      <c r="L6" s="552"/>
-      <c r="M6" s="552"/>
-      <c r="N6" s="555">
+      <c r="L6" s="506"/>
+      <c r="M6" s="506"/>
+      <c r="N6" s="509">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O6" s="556"/>
-      <c r="P6" s="557"/>
-      <c r="Q6" s="555">
+      <c r="O6" s="510"/>
+      <c r="P6" s="511"/>
+      <c r="Q6" s="509">
         <v>5.5</v>
       </c>
-      <c r="R6" s="556"/>
-      <c r="S6" s="557"/>
-      <c r="T6" s="555">
+      <c r="R6" s="510"/>
+      <c r="S6" s="511"/>
+      <c r="T6" s="509">
         <v>6.5</v>
       </c>
-      <c r="U6" s="556"/>
-      <c r="V6" s="558"/>
+      <c r="U6" s="510"/>
+      <c r="V6" s="512"/>
       <c r="W6" s="60"/>
       <c r="X6" s="205" t="s">
         <v>258</v>
@@ -16854,38 +16876,38 @@
     </row>
     <row r="7" spans="2:27" ht="19.5" thickBot="1">
       <c r="B7" s="60"/>
-      <c r="C7" s="541"/>
-      <c r="D7" s="549" t="s">
+      <c r="C7" s="471"/>
+      <c r="D7" s="502" t="s">
         <v>192</v>
       </c>
-      <c r="E7" s="549"/>
-      <c r="F7" s="549"/>
-      <c r="G7" s="530"/>
-      <c r="H7" s="550">
-        <v>0</v>
-      </c>
-      <c r="I7" s="551"/>
-      <c r="J7" s="551"/>
-      <c r="K7" s="552">
+      <c r="E7" s="502"/>
+      <c r="F7" s="502"/>
+      <c r="G7" s="503"/>
+      <c r="H7" s="504">
+        <v>0</v>
+      </c>
+      <c r="I7" s="505"/>
+      <c r="J7" s="505"/>
+      <c r="K7" s="506">
         <v>10</v>
       </c>
-      <c r="L7" s="552"/>
-      <c r="M7" s="552"/>
-      <c r="N7" s="552">
+      <c r="L7" s="506"/>
+      <c r="M7" s="506"/>
+      <c r="N7" s="506">
         <v>13</v>
       </c>
-      <c r="O7" s="552"/>
-      <c r="P7" s="552"/>
-      <c r="Q7" s="552">
+      <c r="O7" s="506"/>
+      <c r="P7" s="506"/>
+      <c r="Q7" s="506">
         <v>15</v>
       </c>
-      <c r="R7" s="552"/>
-      <c r="S7" s="552"/>
-      <c r="T7" s="552">
+      <c r="R7" s="506"/>
+      <c r="S7" s="506"/>
+      <c r="T7" s="506">
         <v>20</v>
       </c>
-      <c r="U7" s="552"/>
-      <c r="V7" s="553"/>
+      <c r="U7" s="506"/>
+      <c r="V7" s="507"/>
       <c r="W7" s="60"/>
       <c r="X7" s="205" t="s">
         <v>259</v>
@@ -16901,40 +16923,40 @@
     </row>
     <row r="8" spans="2:27">
       <c r="B8" s="60"/>
-      <c r="C8" s="559" t="s">
+      <c r="C8" s="470" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="561" t="s">
+      <c r="D8" s="473" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="562"/>
-      <c r="F8" s="562"/>
-      <c r="G8" s="563"/>
-      <c r="H8" s="564">
+      <c r="E8" s="474"/>
+      <c r="F8" s="474"/>
+      <c r="G8" s="475"/>
+      <c r="H8" s="476">
         <v>30</v>
       </c>
-      <c r="I8" s="565"/>
-      <c r="J8" s="565"/>
-      <c r="K8" s="521">
+      <c r="I8" s="477"/>
+      <c r="J8" s="477"/>
+      <c r="K8" s="478">
         <v>500</v>
       </c>
-      <c r="L8" s="521"/>
-      <c r="M8" s="521"/>
-      <c r="N8" s="521">
+      <c r="L8" s="478"/>
+      <c r="M8" s="478"/>
+      <c r="N8" s="478">
         <v>500</v>
       </c>
-      <c r="O8" s="521"/>
-      <c r="P8" s="521"/>
-      <c r="Q8" s="521">
+      <c r="O8" s="478"/>
+      <c r="P8" s="478"/>
+      <c r="Q8" s="478">
         <v>500</v>
       </c>
-      <c r="R8" s="521"/>
-      <c r="S8" s="521"/>
-      <c r="T8" s="521">
+      <c r="R8" s="478"/>
+      <c r="S8" s="478"/>
+      <c r="T8" s="478">
         <v>500</v>
       </c>
-      <c r="U8" s="521"/>
-      <c r="V8" s="522"/>
+      <c r="U8" s="478"/>
+      <c r="V8" s="513"/>
       <c r="W8" s="60"/>
       <c r="X8" s="205" t="s">
         <v>260</v>
@@ -16950,38 +16972,38 @@
     </row>
     <row r="9" spans="2:27">
       <c r="B9" s="60"/>
-      <c r="C9" s="541"/>
-      <c r="D9" s="530" t="s">
+      <c r="C9" s="471"/>
+      <c r="D9" s="503" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="531"/>
-      <c r="F9" s="531"/>
-      <c r="G9" s="532"/>
+      <c r="E9" s="514"/>
+      <c r="F9" s="514"/>
+      <c r="G9" s="515"/>
       <c r="H9" s="516">
         <v>578</v>
       </c>
-      <c r="I9" s="507"/>
-      <c r="J9" s="507"/>
-      <c r="K9" s="533">
+      <c r="I9" s="517"/>
+      <c r="J9" s="517"/>
+      <c r="K9" s="482">
         <v>340</v>
       </c>
-      <c r="L9" s="533"/>
-      <c r="M9" s="533"/>
-      <c r="N9" s="533">
+      <c r="L9" s="482"/>
+      <c r="M9" s="482"/>
+      <c r="N9" s="482">
         <v>440</v>
       </c>
-      <c r="O9" s="533"/>
-      <c r="P9" s="533"/>
-      <c r="Q9" s="533">
+      <c r="O9" s="482"/>
+      <c r="P9" s="482"/>
+      <c r="Q9" s="482">
         <v>550</v>
       </c>
-      <c r="R9" s="533"/>
-      <c r="S9" s="533"/>
-      <c r="T9" s="533">
+      <c r="R9" s="482"/>
+      <c r="S9" s="482"/>
+      <c r="T9" s="482">
         <v>650</v>
       </c>
-      <c r="U9" s="533"/>
-      <c r="V9" s="534"/>
+      <c r="U9" s="482"/>
+      <c r="V9" s="518"/>
       <c r="W9" s="66"/>
       <c r="X9" s="205" t="s">
         <v>262</v>
@@ -17000,38 +17022,38 @@
     </row>
     <row r="10" spans="2:27" ht="19.5" thickBot="1">
       <c r="B10" s="60"/>
-      <c r="C10" s="541"/>
-      <c r="D10" s="543" t="s">
+      <c r="C10" s="471"/>
+      <c r="D10" s="479" t="s">
         <v>196</v>
       </c>
-      <c r="E10" s="566"/>
-      <c r="F10" s="566"/>
-      <c r="G10" s="566"/>
-      <c r="H10" s="567" t="s">
+      <c r="E10" s="480"/>
+      <c r="F10" s="480"/>
+      <c r="G10" s="480"/>
+      <c r="H10" s="481" t="s">
         <v>164</v>
       </c>
-      <c r="I10" s="533"/>
-      <c r="J10" s="533"/>
-      <c r="K10" s="533" t="s">
+      <c r="I10" s="482"/>
+      <c r="J10" s="482"/>
+      <c r="K10" s="482" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="533"/>
-      <c r="M10" s="533"/>
-      <c r="N10" s="533" t="s">
+      <c r="L10" s="482"/>
+      <c r="M10" s="482"/>
+      <c r="N10" s="482" t="s">
         <v>164</v>
       </c>
-      <c r="O10" s="533"/>
-      <c r="P10" s="533"/>
-      <c r="Q10" s="533" t="s">
+      <c r="O10" s="482"/>
+      <c r="P10" s="482"/>
+      <c r="Q10" s="482" t="s">
         <v>164</v>
       </c>
-      <c r="R10" s="533"/>
-      <c r="S10" s="533"/>
-      <c r="T10" s="533" t="s">
+      <c r="R10" s="482"/>
+      <c r="S10" s="482"/>
+      <c r="T10" s="482" t="s">
         <v>164</v>
       </c>
-      <c r="U10" s="533"/>
-      <c r="V10" s="534"/>
+      <c r="U10" s="482"/>
+      <c r="V10" s="518"/>
       <c r="W10" s="60"/>
       <c r="X10" s="205" t="s">
         <v>263</v>
@@ -17046,38 +17068,38 @@
     </row>
     <row r="11" spans="2:27" ht="19.5" thickBot="1">
       <c r="B11" s="60"/>
-      <c r="C11" s="541"/>
-      <c r="D11" s="569" t="s">
+      <c r="C11" s="471"/>
+      <c r="D11" s="487" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="570"/>
-      <c r="F11" s="570"/>
-      <c r="G11" s="570"/>
-      <c r="H11" s="571">
+      <c r="E11" s="488"/>
+      <c r="F11" s="488"/>
+      <c r="G11" s="488"/>
+      <c r="H11" s="489">
         <v>1</v>
       </c>
-      <c r="I11" s="518"/>
-      <c r="J11" s="519"/>
-      <c r="K11" s="517">
+      <c r="I11" s="490"/>
+      <c r="J11" s="491"/>
+      <c r="K11" s="492">
         <v>1</v>
       </c>
-      <c r="L11" s="518"/>
-      <c r="M11" s="519"/>
-      <c r="N11" s="517">
+      <c r="L11" s="490"/>
+      <c r="M11" s="491"/>
+      <c r="N11" s="492">
         <v>1</v>
       </c>
-      <c r="O11" s="518"/>
-      <c r="P11" s="519"/>
-      <c r="Q11" s="517">
+      <c r="O11" s="490"/>
+      <c r="P11" s="491"/>
+      <c r="Q11" s="492">
         <v>1</v>
       </c>
-      <c r="R11" s="518"/>
-      <c r="S11" s="519"/>
-      <c r="T11" s="517">
+      <c r="R11" s="490"/>
+      <c r="S11" s="491"/>
+      <c r="T11" s="492">
         <v>1</v>
       </c>
-      <c r="U11" s="518"/>
-      <c r="V11" s="520"/>
+      <c r="U11" s="490"/>
+      <c r="V11" s="519"/>
       <c r="W11" s="60"/>
       <c r="X11" s="211" t="s">
         <v>265</v>
@@ -17093,62 +17115,62 @@
     </row>
     <row r="12" spans="2:27" ht="19.5" thickBot="1">
       <c r="B12" s="60"/>
-      <c r="C12" s="560"/>
-      <c r="D12" s="523"/>
-      <c r="E12" s="524"/>
-      <c r="F12" s="524"/>
-      <c r="G12" s="524"/>
-      <c r="H12" s="525"/>
-      <c r="I12" s="526"/>
-      <c r="J12" s="526"/>
-      <c r="K12" s="526"/>
-      <c r="L12" s="526"/>
-      <c r="M12" s="526"/>
-      <c r="N12" s="526"/>
-      <c r="O12" s="526"/>
-      <c r="P12" s="526"/>
-      <c r="Q12" s="526"/>
-      <c r="R12" s="526"/>
-      <c r="S12" s="526"/>
-      <c r="T12" s="526"/>
-      <c r="U12" s="526"/>
-      <c r="V12" s="527"/>
+      <c r="C12" s="472"/>
+      <c r="D12" s="524"/>
+      <c r="E12" s="525"/>
+      <c r="F12" s="525"/>
+      <c r="G12" s="525"/>
+      <c r="H12" s="526"/>
+      <c r="I12" s="527"/>
+      <c r="J12" s="527"/>
+      <c r="K12" s="527"/>
+      <c r="L12" s="527"/>
+      <c r="M12" s="527"/>
+      <c r="N12" s="527"/>
+      <c r="O12" s="527"/>
+      <c r="P12" s="527"/>
+      <c r="Q12" s="527"/>
+      <c r="R12" s="527"/>
+      <c r="S12" s="527"/>
+      <c r="T12" s="527"/>
+      <c r="U12" s="527"/>
+      <c r="V12" s="528"/>
       <c r="W12" s="60"/>
     </row>
     <row r="13" spans="2:27">
       <c r="B13" s="60"/>
       <c r="C13" s="61"/>
-      <c r="D13" s="504" t="s">
+      <c r="D13" s="529" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="505"/>
-      <c r="F13" s="505"/>
-      <c r="G13" s="506"/>
-      <c r="H13" s="528">
+      <c r="E13" s="530"/>
+      <c r="F13" s="530"/>
+      <c r="G13" s="531"/>
+      <c r="H13" s="532">
         <v>1396</v>
       </c>
-      <c r="I13" s="529"/>
-      <c r="J13" s="529"/>
-      <c r="K13" s="521">
+      <c r="I13" s="533"/>
+      <c r="J13" s="533"/>
+      <c r="K13" s="478">
         <v>5054</v>
       </c>
-      <c r="L13" s="521"/>
-      <c r="M13" s="521"/>
-      <c r="N13" s="521">
+      <c r="L13" s="478"/>
+      <c r="M13" s="478"/>
+      <c r="N13" s="478">
         <v>5364</v>
       </c>
-      <c r="O13" s="521"/>
-      <c r="P13" s="521"/>
-      <c r="Q13" s="521">
+      <c r="O13" s="478"/>
+      <c r="P13" s="478"/>
+      <c r="Q13" s="478">
         <v>5705</v>
       </c>
-      <c r="R13" s="521"/>
-      <c r="S13" s="521"/>
-      <c r="T13" s="521">
+      <c r="R13" s="478"/>
+      <c r="S13" s="478"/>
+      <c r="T13" s="478">
         <v>6015</v>
       </c>
-      <c r="U13" s="521"/>
-      <c r="V13" s="522"/>
+      <c r="U13" s="478"/>
+      <c r="V13" s="513"/>
       <c r="W13" s="67"/>
       <c r="X13" s="192" t="str">
         <f>'別紙２様式第３－１号の７'!C17</f>
@@ -17168,37 +17190,37 @@
       <c r="C14" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="D14" s="492" t="s">
+      <c r="D14" s="520" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="493"/>
-      <c r="F14" s="493"/>
-      <c r="G14" s="494"/>
+      <c r="E14" s="521"/>
+      <c r="F14" s="521"/>
+      <c r="G14" s="522"/>
       <c r="H14" s="516">
         <v>0</v>
       </c>
-      <c r="I14" s="507"/>
-      <c r="J14" s="507"/>
-      <c r="K14" s="507">
+      <c r="I14" s="517"/>
+      <c r="J14" s="517"/>
+      <c r="K14" s="517">
         <v>3000</v>
       </c>
-      <c r="L14" s="507"/>
-      <c r="M14" s="507"/>
-      <c r="N14" s="507">
+      <c r="L14" s="517"/>
+      <c r="M14" s="517"/>
+      <c r="N14" s="517">
         <v>3900</v>
       </c>
-      <c r="O14" s="507"/>
-      <c r="P14" s="507"/>
-      <c r="Q14" s="507">
+      <c r="O14" s="517"/>
+      <c r="P14" s="517"/>
+      <c r="Q14" s="517">
         <v>4500</v>
       </c>
-      <c r="R14" s="507"/>
-      <c r="S14" s="507"/>
-      <c r="T14" s="507">
+      <c r="R14" s="517"/>
+      <c r="S14" s="517"/>
+      <c r="T14" s="517">
         <v>6000</v>
       </c>
-      <c r="U14" s="507"/>
-      <c r="V14" s="508"/>
+      <c r="U14" s="517"/>
+      <c r="V14" s="523"/>
       <c r="W14" s="67"/>
       <c r="X14" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C18</f>
@@ -17216,37 +17238,37 @@
     <row r="15" spans="2:27">
       <c r="B15" s="68"/>
       <c r="C15" s="62"/>
-      <c r="D15" s="492" t="s">
+      <c r="D15" s="520" t="s">
         <v>167</v>
       </c>
-      <c r="E15" s="493"/>
-      <c r="F15" s="493"/>
-      <c r="G15" s="494"/>
+      <c r="E15" s="521"/>
+      <c r="F15" s="521"/>
+      <c r="G15" s="522"/>
       <c r="H15" s="516">
         <v>5607.5</v>
       </c>
-      <c r="I15" s="507"/>
-      <c r="J15" s="507"/>
-      <c r="K15" s="507">
+      <c r="I15" s="517"/>
+      <c r="J15" s="517"/>
+      <c r="K15" s="517">
         <v>5089</v>
       </c>
-      <c r="L15" s="507"/>
-      <c r="M15" s="507"/>
-      <c r="N15" s="507">
+      <c r="L15" s="517"/>
+      <c r="M15" s="517"/>
+      <c r="N15" s="517">
         <v>5924</v>
       </c>
-      <c r="O15" s="507"/>
-      <c r="P15" s="507"/>
-      <c r="Q15" s="507">
+      <c r="O15" s="517"/>
+      <c r="P15" s="517"/>
+      <c r="Q15" s="517">
         <v>6842.5</v>
       </c>
-      <c r="R15" s="507"/>
-      <c r="S15" s="507"/>
-      <c r="T15" s="507">
+      <c r="R15" s="517"/>
+      <c r="S15" s="517"/>
+      <c r="T15" s="517">
         <v>7677.5</v>
       </c>
-      <c r="U15" s="507"/>
-      <c r="V15" s="508"/>
+      <c r="U15" s="517"/>
+      <c r="V15" s="523"/>
       <c r="W15" s="67"/>
       <c r="X15" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C19</f>
@@ -17266,25 +17288,25 @@
       <c r="C16" s="62" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="509"/>
-      <c r="E16" s="510"/>
-      <c r="F16" s="510"/>
-      <c r="G16" s="510"/>
-      <c r="H16" s="511"/>
-      <c r="I16" s="512"/>
-      <c r="J16" s="512"/>
-      <c r="K16" s="512"/>
-      <c r="L16" s="512"/>
-      <c r="M16" s="512"/>
-      <c r="N16" s="512"/>
-      <c r="O16" s="512"/>
-      <c r="P16" s="512"/>
-      <c r="Q16" s="512"/>
-      <c r="R16" s="512"/>
-      <c r="S16" s="512"/>
-      <c r="T16" s="512"/>
-      <c r="U16" s="512"/>
-      <c r="V16" s="513"/>
+      <c r="D16" s="543"/>
+      <c r="E16" s="544"/>
+      <c r="F16" s="544"/>
+      <c r="G16" s="544"/>
+      <c r="H16" s="545"/>
+      <c r="I16" s="546"/>
+      <c r="J16" s="546"/>
+      <c r="K16" s="546"/>
+      <c r="L16" s="546"/>
+      <c r="M16" s="546"/>
+      <c r="N16" s="546"/>
+      <c r="O16" s="546"/>
+      <c r="P16" s="546"/>
+      <c r="Q16" s="546"/>
+      <c r="R16" s="546"/>
+      <c r="S16" s="546"/>
+      <c r="T16" s="546"/>
+      <c r="U16" s="546"/>
+      <c r="V16" s="547"/>
       <c r="W16" s="60"/>
       <c r="X16" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C20</f>
@@ -17302,37 +17324,37 @@
     <row r="17" spans="2:29" ht="20.25" thickTop="1" thickBot="1">
       <c r="B17" s="68"/>
       <c r="C17" s="63"/>
-      <c r="D17" s="471" t="s">
+      <c r="D17" s="548" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="472"/>
-      <c r="F17" s="472"/>
-      <c r="G17" s="514"/>
-      <c r="H17" s="515">
+      <c r="E17" s="549"/>
+      <c r="F17" s="549"/>
+      <c r="G17" s="550"/>
+      <c r="H17" s="551">
         <v>7003.5</v>
       </c>
-      <c r="I17" s="500"/>
-      <c r="J17" s="501"/>
-      <c r="K17" s="500">
+      <c r="I17" s="534"/>
+      <c r="J17" s="535"/>
+      <c r="K17" s="534">
         <v>13143</v>
       </c>
-      <c r="L17" s="500"/>
-      <c r="M17" s="501"/>
-      <c r="N17" s="500">
+      <c r="L17" s="534"/>
+      <c r="M17" s="535"/>
+      <c r="N17" s="534">
         <v>15188</v>
       </c>
-      <c r="O17" s="500"/>
-      <c r="P17" s="501"/>
-      <c r="Q17" s="500">
+      <c r="O17" s="534"/>
+      <c r="P17" s="535"/>
+      <c r="Q17" s="534">
         <v>17047.5</v>
       </c>
-      <c r="R17" s="500"/>
-      <c r="S17" s="501"/>
-      <c r="T17" s="502">
+      <c r="R17" s="534"/>
+      <c r="S17" s="535"/>
+      <c r="T17" s="536">
         <v>19692.5</v>
       </c>
-      <c r="U17" s="500"/>
-      <c r="V17" s="503"/>
+      <c r="U17" s="534"/>
+      <c r="V17" s="537"/>
       <c r="W17" s="68"/>
       <c r="X17" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C21</f>
@@ -17350,37 +17372,37 @@
     <row r="18" spans="2:29">
       <c r="B18" s="68"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="504" t="s">
+      <c r="D18" s="529" t="s">
         <v>169</v>
       </c>
-      <c r="E18" s="505"/>
-      <c r="F18" s="505"/>
-      <c r="G18" s="506"/>
-      <c r="H18" s="498">
+      <c r="E18" s="530"/>
+      <c r="F18" s="530"/>
+      <c r="G18" s="531"/>
+      <c r="H18" s="538">
         <v>117.44799999999999</v>
       </c>
-      <c r="I18" s="489"/>
-      <c r="J18" s="490"/>
-      <c r="K18" s="488">
+      <c r="I18" s="539"/>
+      <c r="J18" s="540"/>
+      <c r="K18" s="541">
         <v>269.20999999999998</v>
       </c>
-      <c r="L18" s="489"/>
-      <c r="M18" s="490"/>
-      <c r="N18" s="488">
+      <c r="L18" s="539"/>
+      <c r="M18" s="540"/>
+      <c r="N18" s="541">
         <v>284.61</v>
       </c>
-      <c r="O18" s="489"/>
-      <c r="P18" s="490"/>
-      <c r="Q18" s="488">
+      <c r="O18" s="539"/>
+      <c r="P18" s="540"/>
+      <c r="Q18" s="541">
         <v>301.55</v>
       </c>
-      <c r="R18" s="489"/>
-      <c r="S18" s="490"/>
-      <c r="T18" s="488">
+      <c r="R18" s="539"/>
+      <c r="S18" s="540"/>
+      <c r="T18" s="541">
         <v>316.95</v>
       </c>
-      <c r="U18" s="489"/>
-      <c r="V18" s="491"/>
+      <c r="U18" s="539"/>
+      <c r="V18" s="542"/>
       <c r="W18" s="68"/>
       <c r="X18" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C22</f>
@@ -17398,37 +17420,37 @@
     <row r="19" spans="2:29">
       <c r="B19" s="68"/>
       <c r="C19" s="64"/>
-      <c r="D19" s="492" t="s">
+      <c r="D19" s="520" t="s">
         <v>170</v>
       </c>
-      <c r="E19" s="493"/>
-      <c r="F19" s="493"/>
-      <c r="G19" s="494"/>
-      <c r="H19" s="498">
+      <c r="E19" s="521"/>
+      <c r="F19" s="521"/>
+      <c r="G19" s="522"/>
+      <c r="H19" s="538">
         <v>836.97699999999998</v>
       </c>
-      <c r="I19" s="489"/>
-      <c r="J19" s="490"/>
-      <c r="K19" s="488">
+      <c r="I19" s="539"/>
+      <c r="J19" s="540"/>
+      <c r="K19" s="541">
         <v>1427.72</v>
       </c>
-      <c r="L19" s="489"/>
-      <c r="M19" s="490"/>
-      <c r="N19" s="488">
+      <c r="L19" s="539"/>
+      <c r="M19" s="540"/>
+      <c r="N19" s="541">
         <v>1543.77</v>
       </c>
-      <c r="O19" s="489"/>
-      <c r="P19" s="490"/>
-      <c r="Q19" s="488">
+      <c r="O19" s="539"/>
+      <c r="P19" s="540"/>
+      <c r="Q19" s="541">
         <v>1671.425</v>
       </c>
-      <c r="R19" s="489"/>
-      <c r="S19" s="490"/>
-      <c r="T19" s="488">
+      <c r="R19" s="539"/>
+      <c r="S19" s="540"/>
+      <c r="T19" s="541">
         <v>1787.4749999999999</v>
       </c>
-      <c r="U19" s="489"/>
-      <c r="V19" s="491"/>
+      <c r="U19" s="539"/>
+      <c r="V19" s="542"/>
       <c r="W19" s="68"/>
       <c r="X19" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C23</f>
@@ -17446,37 +17468,37 @@
     <row r="20" spans="2:29">
       <c r="B20" s="68"/>
       <c r="C20" s="64"/>
-      <c r="D20" s="492" t="s">
+      <c r="D20" s="520" t="s">
         <v>171</v>
       </c>
-      <c r="E20" s="493"/>
-      <c r="F20" s="493"/>
-      <c r="G20" s="494"/>
-      <c r="H20" s="498">
+      <c r="E20" s="521"/>
+      <c r="F20" s="521"/>
+      <c r="G20" s="522"/>
+      <c r="H20" s="538">
         <v>465.51499999999999</v>
       </c>
-      <c r="I20" s="489"/>
-      <c r="J20" s="490"/>
-      <c r="K20" s="488">
+      <c r="I20" s="539"/>
+      <c r="J20" s="540"/>
+      <c r="K20" s="541">
         <v>578.85400000000004</v>
       </c>
-      <c r="L20" s="489"/>
-      <c r="M20" s="490"/>
-      <c r="N20" s="488">
+      <c r="L20" s="539"/>
+      <c r="M20" s="540"/>
+      <c r="N20" s="541">
         <v>646.16399999999999</v>
       </c>
-      <c r="O20" s="489"/>
-      <c r="P20" s="490"/>
-      <c r="Q20" s="488">
+      <c r="O20" s="539"/>
+      <c r="P20" s="540"/>
+      <c r="Q20" s="541">
         <v>720.20500000000004</v>
       </c>
-      <c r="R20" s="489"/>
-      <c r="S20" s="490"/>
-      <c r="T20" s="488">
+      <c r="R20" s="539"/>
+      <c r="S20" s="540"/>
+      <c r="T20" s="541">
         <v>787.51499999999999</v>
       </c>
-      <c r="U20" s="489"/>
-      <c r="V20" s="491"/>
+      <c r="U20" s="539"/>
+      <c r="V20" s="542"/>
       <c r="W20" s="68"/>
       <c r="X20" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C24</f>
@@ -17494,37 +17516,37 @@
     <row r="21" spans="2:29">
       <c r="B21" s="68"/>
       <c r="C21" s="64"/>
-      <c r="D21" s="492" t="s">
+      <c r="D21" s="520" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="493"/>
-      <c r="F21" s="493"/>
-      <c r="G21" s="494"/>
-      <c r="H21" s="498">
+      <c r="E21" s="521"/>
+      <c r="F21" s="521"/>
+      <c r="G21" s="522"/>
+      <c r="H21" s="538">
         <v>568</v>
       </c>
-      <c r="I21" s="489"/>
-      <c r="J21" s="489"/>
-      <c r="K21" s="499">
+      <c r="I21" s="539"/>
+      <c r="J21" s="539"/>
+      <c r="K21" s="556">
         <v>1285</v>
       </c>
-      <c r="L21" s="499"/>
-      <c r="M21" s="499"/>
-      <c r="N21" s="499">
+      <c r="L21" s="556"/>
+      <c r="M21" s="556"/>
+      <c r="N21" s="556">
         <v>1488.9</v>
       </c>
-      <c r="O21" s="499"/>
-      <c r="P21" s="499"/>
-      <c r="Q21" s="489">
+      <c r="O21" s="556"/>
+      <c r="P21" s="556"/>
+      <c r="Q21" s="539">
         <v>1659.5</v>
       </c>
-      <c r="R21" s="489"/>
-      <c r="S21" s="490"/>
-      <c r="T21" s="488">
+      <c r="R21" s="539"/>
+      <c r="S21" s="540"/>
+      <c r="T21" s="541">
         <v>1946</v>
       </c>
-      <c r="U21" s="489"/>
-      <c r="V21" s="491"/>
+      <c r="U21" s="539"/>
+      <c r="V21" s="542"/>
       <c r="W21" s="68"/>
       <c r="X21" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C25</f>
@@ -17544,37 +17566,37 @@
       <c r="C22" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="492" t="s">
+      <c r="D22" s="520" t="s">
         <v>173</v>
       </c>
-      <c r="E22" s="493"/>
-      <c r="F22" s="493"/>
-      <c r="G22" s="494"/>
-      <c r="H22" s="498">
+      <c r="E22" s="521"/>
+      <c r="F22" s="521"/>
+      <c r="G22" s="522"/>
+      <c r="H22" s="538">
         <v>680</v>
       </c>
-      <c r="I22" s="489"/>
-      <c r="J22" s="490"/>
-      <c r="K22" s="487">
+      <c r="I22" s="539"/>
+      <c r="J22" s="540"/>
+      <c r="K22" s="552">
         <v>715</v>
       </c>
-      <c r="L22" s="481"/>
-      <c r="M22" s="486"/>
-      <c r="N22" s="487">
+      <c r="L22" s="553"/>
+      <c r="M22" s="554"/>
+      <c r="N22" s="552">
         <v>815</v>
       </c>
-      <c r="O22" s="481"/>
-      <c r="P22" s="486"/>
-      <c r="Q22" s="487">
+      <c r="O22" s="553"/>
+      <c r="P22" s="554"/>
+      <c r="Q22" s="552">
         <v>925</v>
       </c>
-      <c r="R22" s="481"/>
-      <c r="S22" s="486"/>
-      <c r="T22" s="487">
+      <c r="R22" s="553"/>
+      <c r="S22" s="554"/>
+      <c r="T22" s="552">
         <v>1025</v>
       </c>
-      <c r="U22" s="481"/>
-      <c r="V22" s="482"/>
+      <c r="U22" s="553"/>
+      <c r="V22" s="555"/>
       <c r="W22" s="68"/>
       <c r="X22" s="217" t="str">
         <f>'別紙２様式第３－１号の７'!C29</f>
@@ -17592,39 +17614,39 @@
     <row r="23" spans="2:29">
       <c r="B23" s="68"/>
       <c r="C23" s="64"/>
-      <c r="D23" s="492" t="s">
+      <c r="D23" s="520" t="s">
         <v>174</v>
       </c>
-      <c r="E23" s="493"/>
-      <c r="F23" s="493"/>
-      <c r="G23" s="494"/>
-      <c r="H23" s="485">
-        <v>0</v>
-      </c>
-      <c r="I23" s="481"/>
-      <c r="J23" s="486"/>
-      <c r="K23" s="487">
-        <v>0</v>
-      </c>
-      <c r="L23" s="481"/>
-      <c r="M23" s="486"/>
-      <c r="N23" s="487">
-        <v>0</v>
-      </c>
-      <c r="O23" s="481"/>
-      <c r="P23" s="486"/>
-      <c r="Q23" s="487">
-        <v>0</v>
-      </c>
-      <c r="R23" s="481"/>
-      <c r="S23" s="486"/>
-      <c r="T23" s="487">
-        <v>0</v>
-      </c>
-      <c r="U23" s="481"/>
-      <c r="V23" s="482"/>
+      <c r="E23" s="521"/>
+      <c r="F23" s="521"/>
+      <c r="G23" s="522"/>
+      <c r="H23" s="557">
+        <v>0</v>
+      </c>
+      <c r="I23" s="553"/>
+      <c r="J23" s="554"/>
+      <c r="K23" s="552">
+        <v>0</v>
+      </c>
+      <c r="L23" s="553"/>
+      <c r="M23" s="554"/>
+      <c r="N23" s="552">
+        <v>0</v>
+      </c>
+      <c r="O23" s="553"/>
+      <c r="P23" s="554"/>
+      <c r="Q23" s="552">
+        <v>0</v>
+      </c>
+      <c r="R23" s="553"/>
+      <c r="S23" s="554"/>
+      <c r="T23" s="552">
+        <v>0</v>
+      </c>
+      <c r="U23" s="553"/>
+      <c r="V23" s="555"/>
       <c r="W23" s="68"/>
-      <c r="X23" s="195" t="str">
+      <c r="X23" s="585" t="str">
         <f>'別紙２様式第３－１号の７'!C30</f>
         <v>租税公課（×飼料自作率）</v>
       </c>
@@ -17641,37 +17663,37 @@
     <row r="24" spans="2:29">
       <c r="B24" s="68"/>
       <c r="C24" s="64"/>
-      <c r="D24" s="495" t="s">
+      <c r="D24" s="558" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="496"/>
-      <c r="F24" s="496"/>
-      <c r="G24" s="497"/>
-      <c r="H24" s="485">
-        <v>0</v>
-      </c>
-      <c r="I24" s="481"/>
-      <c r="J24" s="486"/>
-      <c r="K24" s="487">
-        <v>0</v>
-      </c>
-      <c r="L24" s="481"/>
-      <c r="M24" s="486"/>
-      <c r="N24" s="487">
-        <v>0</v>
-      </c>
-      <c r="O24" s="481"/>
-      <c r="P24" s="486"/>
-      <c r="Q24" s="487">
-        <v>0</v>
-      </c>
-      <c r="R24" s="481"/>
-      <c r="S24" s="486"/>
-      <c r="T24" s="487">
-        <v>0</v>
-      </c>
-      <c r="U24" s="481"/>
-      <c r="V24" s="482"/>
+      <c r="E24" s="559"/>
+      <c r="F24" s="559"/>
+      <c r="G24" s="560"/>
+      <c r="H24" s="557">
+        <v>0</v>
+      </c>
+      <c r="I24" s="553"/>
+      <c r="J24" s="554"/>
+      <c r="K24" s="552">
+        <v>0</v>
+      </c>
+      <c r="L24" s="553"/>
+      <c r="M24" s="554"/>
+      <c r="N24" s="552">
+        <v>0</v>
+      </c>
+      <c r="O24" s="553"/>
+      <c r="P24" s="554"/>
+      <c r="Q24" s="552">
+        <v>0</v>
+      </c>
+      <c r="R24" s="553"/>
+      <c r="S24" s="554"/>
+      <c r="T24" s="552">
+        <v>0</v>
+      </c>
+      <c r="U24" s="553"/>
+      <c r="V24" s="555"/>
       <c r="W24" s="68"/>
       <c r="X24" s="195" t="str">
         <f>'別紙２様式第３－１号の７'!C31</f>
@@ -17690,37 +17712,37 @@
     <row r="25" spans="2:29" ht="19.5" thickBot="1">
       <c r="B25" s="68"/>
       <c r="C25" s="64"/>
-      <c r="D25" s="492" t="s">
+      <c r="D25" s="520" t="s">
         <v>176</v>
       </c>
-      <c r="E25" s="493"/>
-      <c r="F25" s="493"/>
-      <c r="G25" s="494"/>
-      <c r="H25" s="485">
-        <v>0</v>
-      </c>
-      <c r="I25" s="481"/>
-      <c r="J25" s="486"/>
-      <c r="K25" s="487">
-        <v>0</v>
-      </c>
-      <c r="L25" s="481"/>
-      <c r="M25" s="486"/>
-      <c r="N25" s="487">
-        <v>0</v>
-      </c>
-      <c r="O25" s="481"/>
-      <c r="P25" s="486"/>
-      <c r="Q25" s="487">
-        <v>0</v>
-      </c>
-      <c r="R25" s="481"/>
-      <c r="S25" s="486"/>
-      <c r="T25" s="487">
-        <v>0</v>
-      </c>
-      <c r="U25" s="481"/>
-      <c r="V25" s="482"/>
+      <c r="E25" s="521"/>
+      <c r="F25" s="521"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="557">
+        <v>0</v>
+      </c>
+      <c r="I25" s="553"/>
+      <c r="J25" s="554"/>
+      <c r="K25" s="552">
+        <v>0</v>
+      </c>
+      <c r="L25" s="553"/>
+      <c r="M25" s="554"/>
+      <c r="N25" s="552">
+        <v>0</v>
+      </c>
+      <c r="O25" s="553"/>
+      <c r="P25" s="554"/>
+      <c r="Q25" s="552">
+        <v>0</v>
+      </c>
+      <c r="R25" s="553"/>
+      <c r="S25" s="554"/>
+      <c r="T25" s="552">
+        <v>0</v>
+      </c>
+      <c r="U25" s="553"/>
+      <c r="V25" s="555"/>
       <c r="W25" s="68"/>
       <c r="X25" s="197" t="s">
         <v>267</v>
@@ -17737,37 +17759,37 @@
     <row r="26" spans="2:29" ht="19.5" thickBot="1">
       <c r="B26" s="68"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="492" t="s">
+      <c r="D26" s="520" t="s">
         <v>177</v>
       </c>
-      <c r="E26" s="493"/>
-      <c r="F26" s="493"/>
-      <c r="G26" s="494"/>
-      <c r="H26" s="485">
+      <c r="E26" s="521"/>
+      <c r="F26" s="521"/>
+      <c r="G26" s="522"/>
+      <c r="H26" s="557">
         <v>102.59528</v>
       </c>
-      <c r="I26" s="481"/>
-      <c r="J26" s="486"/>
-      <c r="K26" s="487">
+      <c r="I26" s="553"/>
+      <c r="J26" s="554"/>
+      <c r="K26" s="552">
         <v>270.1216</v>
       </c>
-      <c r="L26" s="481"/>
-      <c r="M26" s="486"/>
-      <c r="N26" s="487">
+      <c r="L26" s="553"/>
+      <c r="M26" s="554"/>
+      <c r="N26" s="552">
         <v>295.59559999999999</v>
       </c>
-      <c r="O26" s="481"/>
-      <c r="P26" s="486"/>
-      <c r="Q26" s="487">
+      <c r="O26" s="553"/>
+      <c r="P26" s="554"/>
+      <c r="Q26" s="552">
         <v>318.41699999999997</v>
       </c>
-      <c r="R26" s="481"/>
-      <c r="S26" s="486"/>
-      <c r="T26" s="487">
+      <c r="R26" s="553"/>
+      <c r="S26" s="554"/>
+      <c r="T26" s="552">
         <v>352.16048000000001</v>
       </c>
-      <c r="U26" s="481"/>
-      <c r="V26" s="482"/>
+      <c r="U26" s="553"/>
+      <c r="V26" s="555"/>
       <c r="W26" s="68"/>
       <c r="X26" s="214" t="s">
         <v>268</v>
@@ -17786,37 +17808,37 @@
       <c r="C27" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="492" t="s">
+      <c r="D27" s="520" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="493"/>
-      <c r="F27" s="493"/>
-      <c r="G27" s="494"/>
-      <c r="H27" s="485">
+      <c r="E27" s="521"/>
+      <c r="F27" s="521"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="557">
         <v>39.842424242424244</v>
       </c>
-      <c r="I27" s="481"/>
-      <c r="J27" s="486"/>
-      <c r="K27" s="487">
+      <c r="I27" s="553"/>
+      <c r="J27" s="554"/>
+      <c r="K27" s="552">
         <v>46.782412626832013</v>
       </c>
-      <c r="L27" s="481"/>
-      <c r="M27" s="486"/>
-      <c r="N27" s="487">
+      <c r="L27" s="553"/>
+      <c r="M27" s="554"/>
+      <c r="N27" s="552">
         <v>51.768115942028984</v>
       </c>
-      <c r="O27" s="481"/>
-      <c r="P27" s="486"/>
-      <c r="Q27" s="487">
+      <c r="O27" s="553"/>
+      <c r="P27" s="554"/>
+      <c r="Q27" s="552">
         <v>57.125550660792953</v>
       </c>
-      <c r="R27" s="481"/>
-      <c r="S27" s="486"/>
-      <c r="T27" s="487">
+      <c r="R27" s="553"/>
+      <c r="S27" s="554"/>
+      <c r="T27" s="552">
         <v>61.978653888041819</v>
       </c>
-      <c r="U27" s="481"/>
-      <c r="V27" s="482"/>
+      <c r="U27" s="553"/>
+      <c r="V27" s="555"/>
       <c r="W27" s="68"/>
       <c r="X27" s="200" t="s">
         <v>269</v>
@@ -17833,109 +17855,109 @@
     <row r="28" spans="2:29">
       <c r="B28" s="68"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="492" t="s">
+      <c r="D28" s="520" t="s">
         <v>179</v>
       </c>
-      <c r="E28" s="493"/>
-      <c r="F28" s="493"/>
-      <c r="G28" s="494"/>
-      <c r="H28" s="485">
+      <c r="E28" s="521"/>
+      <c r="F28" s="521"/>
+      <c r="G28" s="522"/>
+      <c r="H28" s="557">
         <v>1154.4210607433001</v>
       </c>
-      <c r="I28" s="481"/>
-      <c r="J28" s="486"/>
-      <c r="K28" s="487">
+      <c r="I28" s="553"/>
+      <c r="J28" s="554"/>
+      <c r="K28" s="552">
         <v>5136.7484941552211</v>
       </c>
-      <c r="L28" s="481"/>
-      <c r="M28" s="486"/>
-      <c r="N28" s="487">
+      <c r="L28" s="553"/>
+      <c r="M28" s="554"/>
+      <c r="N28" s="552">
         <v>4335.7652828973687</v>
       </c>
-      <c r="O28" s="481"/>
-      <c r="P28" s="486"/>
-      <c r="Q28" s="487">
+      <c r="O28" s="553"/>
+      <c r="P28" s="554"/>
+      <c r="Q28" s="552">
         <v>4174.5776276648703</v>
       </c>
-      <c r="R28" s="481"/>
-      <c r="S28" s="486"/>
-      <c r="T28" s="487">
+      <c r="R28" s="553"/>
+      <c r="S28" s="554"/>
+      <c r="T28" s="552">
         <v>4196.3721178921678</v>
       </c>
-      <c r="U28" s="481"/>
-      <c r="V28" s="482"/>
+      <c r="U28" s="553"/>
+      <c r="V28" s="555"/>
       <c r="W28" s="68"/>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="68"/>
       <c r="C29" s="64"/>
-      <c r="D29" s="492" t="s">
+      <c r="D29" s="520" t="s">
         <v>180</v>
       </c>
-      <c r="E29" s="493"/>
-      <c r="F29" s="493"/>
-      <c r="G29" s="494"/>
-      <c r="H29" s="485">
+      <c r="E29" s="521"/>
+      <c r="F29" s="521"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="557">
         <v>312.12587412587408</v>
       </c>
-      <c r="I29" s="481"/>
-      <c r="J29" s="486"/>
-      <c r="K29" s="487">
+      <c r="I29" s="553"/>
+      <c r="J29" s="554"/>
+      <c r="K29" s="552">
         <v>721.45896656534933</v>
       </c>
-      <c r="L29" s="481"/>
-      <c r="M29" s="486"/>
-      <c r="N29" s="487">
+      <c r="L29" s="553"/>
+      <c r="M29" s="554"/>
+      <c r="N29" s="552">
         <v>844.08958130477095</v>
       </c>
-      <c r="O29" s="481"/>
-      <c r="P29" s="486"/>
-      <c r="Q29" s="487">
+      <c r="O29" s="553"/>
+      <c r="P29" s="554"/>
+      <c r="Q29" s="552">
         <v>932.75047258979191</v>
       </c>
-      <c r="R29" s="481"/>
-      <c r="S29" s="486"/>
-      <c r="T29" s="487">
+      <c r="R29" s="553"/>
+      <c r="S29" s="554"/>
+      <c r="T29" s="552">
         <v>1090.8817742800929</v>
       </c>
-      <c r="U29" s="481"/>
-      <c r="V29" s="482"/>
+      <c r="U29" s="553"/>
+      <c r="V29" s="555"/>
       <c r="W29" s="68"/>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="68"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="492" t="s">
+      <c r="D30" s="520" t="s">
         <v>181</v>
       </c>
-      <c r="E30" s="493"/>
-      <c r="F30" s="493"/>
-      <c r="G30" s="494"/>
-      <c r="H30" s="485">
-        <v>0</v>
-      </c>
-      <c r="I30" s="481"/>
-      <c r="J30" s="486"/>
-      <c r="K30" s="487">
-        <v>0</v>
-      </c>
-      <c r="L30" s="481"/>
-      <c r="M30" s="486"/>
-      <c r="N30" s="488">
-        <v>0</v>
-      </c>
-      <c r="O30" s="489"/>
-      <c r="P30" s="490"/>
-      <c r="Q30" s="488">
-        <v>0</v>
-      </c>
-      <c r="R30" s="489"/>
-      <c r="S30" s="490"/>
-      <c r="T30" s="488">
-        <v>0</v>
-      </c>
-      <c r="U30" s="489"/>
-      <c r="V30" s="491"/>
+      <c r="E30" s="521"/>
+      <c r="F30" s="521"/>
+      <c r="G30" s="522"/>
+      <c r="H30" s="557">
+        <v>0</v>
+      </c>
+      <c r="I30" s="553"/>
+      <c r="J30" s="554"/>
+      <c r="K30" s="552">
+        <v>0</v>
+      </c>
+      <c r="L30" s="553"/>
+      <c r="M30" s="554"/>
+      <c r="N30" s="541">
+        <v>0</v>
+      </c>
+      <c r="O30" s="539"/>
+      <c r="P30" s="540"/>
+      <c r="Q30" s="541">
+        <v>0</v>
+      </c>
+      <c r="R30" s="539"/>
+      <c r="S30" s="540"/>
+      <c r="T30" s="541">
+        <v>0</v>
+      </c>
+      <c r="U30" s="539"/>
+      <c r="V30" s="542"/>
       <c r="W30" s="68"/>
       <c r="X30" t="s">
         <v>425</v>
@@ -17944,73 +17966,73 @@
     <row r="31" spans="2:29">
       <c r="B31" s="60"/>
       <c r="C31" s="64"/>
-      <c r="D31" s="492" t="s">
+      <c r="D31" s="520" t="s">
         <v>182</v>
       </c>
-      <c r="E31" s="493"/>
-      <c r="F31" s="493"/>
-      <c r="G31" s="494"/>
-      <c r="H31" s="485">
+      <c r="E31" s="521"/>
+      <c r="F31" s="521"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="557">
         <v>263.89557109557109</v>
       </c>
-      <c r="I31" s="481"/>
-      <c r="J31" s="486"/>
-      <c r="K31" s="487">
+      <c r="I31" s="553"/>
+      <c r="J31" s="554"/>
+      <c r="K31" s="552">
         <v>309.86245772266062</v>
       </c>
-      <c r="L31" s="481"/>
-      <c r="M31" s="486"/>
-      <c r="N31" s="488">
+      <c r="L31" s="553"/>
+      <c r="M31" s="554"/>
+      <c r="N31" s="541">
         <v>342.88517279821627</v>
       </c>
-      <c r="O31" s="489"/>
-      <c r="P31" s="490"/>
-      <c r="Q31" s="488">
+      <c r="O31" s="539"/>
+      <c r="P31" s="540"/>
+      <c r="Q31" s="541">
         <v>378.37004405286348</v>
       </c>
-      <c r="R31" s="489"/>
-      <c r="S31" s="490"/>
-      <c r="T31" s="488">
+      <c r="R31" s="539"/>
+      <c r="S31" s="540"/>
+      <c r="T31" s="541">
         <v>410.5144848616859</v>
       </c>
-      <c r="U31" s="489"/>
-      <c r="V31" s="491"/>
+      <c r="U31" s="539"/>
+      <c r="V31" s="542"/>
       <c r="W31" s="68"/>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="60"/>
       <c r="C32" s="64"/>
-      <c r="D32" s="492" t="s">
+      <c r="D32" s="520" t="s">
         <v>183</v>
       </c>
-      <c r="E32" s="493"/>
-      <c r="F32" s="493"/>
-      <c r="G32" s="494"/>
-      <c r="H32" s="485">
+      <c r="E32" s="521"/>
+      <c r="F32" s="521"/>
+      <c r="G32" s="522"/>
+      <c r="H32" s="557">
         <v>93.315151515151513</v>
       </c>
-      <c r="I32" s="481"/>
-      <c r="J32" s="486"/>
-      <c r="K32" s="487">
+      <c r="I32" s="553"/>
+      <c r="J32" s="554"/>
+      <c r="K32" s="552">
         <v>215.69199594731506</v>
       </c>
-      <c r="L32" s="481"/>
-      <c r="M32" s="486"/>
-      <c r="N32" s="487">
+      <c r="L32" s="553"/>
+      <c r="M32" s="554"/>
+      <c r="N32" s="552">
         <v>342.88517279821627</v>
       </c>
-      <c r="O32" s="481"/>
-      <c r="P32" s="486"/>
-      <c r="Q32" s="487">
+      <c r="O32" s="553"/>
+      <c r="P32" s="554"/>
+      <c r="Q32" s="552">
         <v>278.86105860113423</v>
       </c>
-      <c r="R32" s="481"/>
-      <c r="S32" s="486"/>
-      <c r="T32" s="487">
+      <c r="R32" s="553"/>
+      <c r="S32" s="554"/>
+      <c r="T32" s="552">
         <v>326.13700590234305</v>
       </c>
-      <c r="U32" s="481"/>
-      <c r="V32" s="482"/>
+      <c r="U32" s="553"/>
+      <c r="V32" s="555"/>
       <c r="W32" s="68"/>
       <c r="X32" s="325" t="s">
         <v>427</v>
@@ -18019,37 +18041,37 @@
     <row r="33" spans="2:31">
       <c r="B33" s="60"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="492" t="s">
+      <c r="D33" s="520" t="s">
         <v>202</v>
       </c>
-      <c r="E33" s="493"/>
-      <c r="F33" s="493"/>
-      <c r="G33" s="494"/>
-      <c r="H33" s="485">
+      <c r="E33" s="521"/>
+      <c r="F33" s="521"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="557">
         <v>2.742191142191142</v>
       </c>
-      <c r="I33" s="481"/>
-      <c r="J33" s="486"/>
-      <c r="K33" s="487">
+      <c r="I33" s="553"/>
+      <c r="J33" s="554"/>
+      <c r="K33" s="552">
         <v>6.3383991894630185</v>
       </c>
-      <c r="L33" s="481"/>
-      <c r="M33" s="486"/>
-      <c r="N33" s="480">
+      <c r="L33" s="553"/>
+      <c r="M33" s="554"/>
+      <c r="N33" s="561">
         <v>7.4157740993184023</v>
       </c>
-      <c r="O33" s="480"/>
-      <c r="P33" s="480"/>
-      <c r="Q33" s="480">
+      <c r="O33" s="561"/>
+      <c r="P33" s="561"/>
+      <c r="Q33" s="561">
         <v>8.1947069943289232</v>
       </c>
-      <c r="R33" s="480"/>
-      <c r="S33" s="480"/>
-      <c r="T33" s="481">
+      <c r="R33" s="561"/>
+      <c r="S33" s="561"/>
+      <c r="T33" s="553">
         <v>9.5839742443212312</v>
       </c>
-      <c r="U33" s="481"/>
-      <c r="V33" s="482"/>
+      <c r="U33" s="553"/>
+      <c r="V33" s="555"/>
       <c r="W33" s="68"/>
       <c r="X33" t="s">
         <v>115</v>
@@ -18067,37 +18089,37 @@
     <row r="34" spans="2:31">
       <c r="B34" s="60"/>
       <c r="C34" s="64"/>
-      <c r="D34" s="483" t="s">
+      <c r="D34" s="562" t="s">
         <v>203</v>
       </c>
-      <c r="E34" s="483"/>
-      <c r="F34" s="483"/>
-      <c r="G34" s="484"/>
-      <c r="H34" s="485">
+      <c r="E34" s="562"/>
+      <c r="F34" s="562"/>
+      <c r="G34" s="563"/>
+      <c r="H34" s="557">
         <v>1774</v>
       </c>
-      <c r="I34" s="481"/>
-      <c r="J34" s="486"/>
-      <c r="K34" s="487">
-        <v>0</v>
-      </c>
-      <c r="L34" s="481"/>
-      <c r="M34" s="486"/>
-      <c r="N34" s="480">
-        <v>0</v>
-      </c>
-      <c r="O34" s="480"/>
-      <c r="P34" s="480"/>
-      <c r="Q34" s="480">
-        <v>0</v>
-      </c>
-      <c r="R34" s="480"/>
-      <c r="S34" s="480"/>
-      <c r="T34" s="481">
-        <v>0</v>
-      </c>
-      <c r="U34" s="481"/>
-      <c r="V34" s="482"/>
+      <c r="I34" s="553"/>
+      <c r="J34" s="554"/>
+      <c r="K34" s="552">
+        <v>0</v>
+      </c>
+      <c r="L34" s="553"/>
+      <c r="M34" s="554"/>
+      <c r="N34" s="561">
+        <v>0</v>
+      </c>
+      <c r="O34" s="561"/>
+      <c r="P34" s="561"/>
+      <c r="Q34" s="561">
+        <v>0</v>
+      </c>
+      <c r="R34" s="561"/>
+      <c r="S34" s="561"/>
+      <c r="T34" s="553">
+        <v>0</v>
+      </c>
+      <c r="U34" s="553"/>
+      <c r="V34" s="555"/>
       <c r="W34" s="68"/>
       <c r="X34" t="s">
         <v>426</v>
@@ -18115,37 +18137,37 @@
     <row r="35" spans="2:31" ht="19.5" thickBot="1">
       <c r="B35" s="60"/>
       <c r="C35" s="64"/>
-      <c r="D35" s="477" t="s">
+      <c r="D35" s="581" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="477"/>
-      <c r="F35" s="477"/>
-      <c r="G35" s="478"/>
-      <c r="H35" s="479">
+      <c r="E35" s="581"/>
+      <c r="F35" s="581"/>
+      <c r="G35" s="582"/>
+      <c r="H35" s="583">
         <v>650.63397329942791</v>
       </c>
-      <c r="I35" s="468"/>
-      <c r="J35" s="469"/>
-      <c r="K35" s="467">
+      <c r="I35" s="574"/>
+      <c r="J35" s="575"/>
+      <c r="K35" s="573">
         <v>763.96523521574238</v>
       </c>
-      <c r="L35" s="468"/>
-      <c r="M35" s="469"/>
-      <c r="N35" s="467">
+      <c r="L35" s="574"/>
+      <c r="M35" s="575"/>
+      <c r="N35" s="573">
         <v>845.38266950440845</v>
       </c>
-      <c r="O35" s="468"/>
-      <c r="P35" s="469"/>
-      <c r="Q35" s="467">
+      <c r="O35" s="574"/>
+      <c r="P35" s="575"/>
+      <c r="Q35" s="573">
         <v>932.87054465358426</v>
       </c>
-      <c r="R35" s="468"/>
-      <c r="S35" s="469"/>
-      <c r="T35" s="467">
+      <c r="R35" s="574"/>
+      <c r="S35" s="575"/>
+      <c r="T35" s="573">
         <v>1012.1225955921664</v>
       </c>
-      <c r="U35" s="468"/>
-      <c r="V35" s="470"/>
+      <c r="U35" s="574"/>
+      <c r="V35" s="576"/>
       <c r="W35" s="68"/>
       <c r="X35" s="326" t="s">
         <v>123</v>
@@ -18163,37 +18185,37 @@
     <row r="36" spans="2:31" ht="20.25" thickTop="1" thickBot="1">
       <c r="B36" s="60"/>
       <c r="C36" s="63"/>
-      <c r="D36" s="471" t="s">
+      <c r="D36" s="548" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="472"/>
-      <c r="F36" s="472"/>
-      <c r="G36" s="472"/>
-      <c r="H36" s="473">
+      <c r="E36" s="549"/>
+      <c r="F36" s="549"/>
+      <c r="G36" s="549"/>
+      <c r="H36" s="577">
         <v>7061.5115261639403</v>
       </c>
-      <c r="I36" s="474"/>
-      <c r="J36" s="475"/>
-      <c r="K36" s="474">
+      <c r="I36" s="578"/>
+      <c r="J36" s="579"/>
+      <c r="K36" s="578">
         <v>11746.753561422584</v>
       </c>
-      <c r="L36" s="474"/>
-      <c r="M36" s="474"/>
-      <c r="N36" s="474">
+      <c r="L36" s="578"/>
+      <c r="M36" s="578"/>
+      <c r="N36" s="578">
         <v>11844.231369344328</v>
       </c>
-      <c r="O36" s="474"/>
-      <c r="P36" s="474"/>
-      <c r="Q36" s="474">
+      <c r="O36" s="578"/>
+      <c r="P36" s="578"/>
+      <c r="Q36" s="578">
         <v>12358.847005217367</v>
       </c>
-      <c r="R36" s="474"/>
-      <c r="S36" s="474"/>
-      <c r="T36" s="474">
+      <c r="R36" s="578"/>
+      <c r="S36" s="578"/>
+      <c r="T36" s="578">
         <v>13322.691086660816</v>
       </c>
-      <c r="U36" s="474"/>
-      <c r="V36" s="476"/>
+      <c r="U36" s="578"/>
+      <c r="V36" s="580"/>
       <c r="W36" s="60"/>
       <c r="X36" t="s">
         <v>100</v>
@@ -18209,42 +18231,42 @@
     </row>
     <row r="37" spans="2:31" ht="19.5" thickBot="1">
       <c r="B37" s="60"/>
-      <c r="C37" s="461" t="s">
+      <c r="C37" s="567" t="s">
         <v>206</v>
       </c>
-      <c r="D37" s="462"/>
-      <c r="E37" s="462"/>
-      <c r="F37" s="462"/>
-      <c r="G37" s="462"/>
+      <c r="D37" s="568"/>
+      <c r="E37" s="568"/>
+      <c r="F37" s="568"/>
+      <c r="G37" s="568"/>
       <c r="H37" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="463">
+      <c r="I37" s="569">
         <v>-58.011526163940289</v>
       </c>
-      <c r="J37" s="464"/>
-      <c r="K37" s="465">
+      <c r="J37" s="570"/>
+      <c r="K37" s="571">
         <v>1396.2464385774165</v>
       </c>
-      <c r="L37" s="465"/>
-      <c r="M37" s="465"/>
-      <c r="N37" s="465">
+      <c r="L37" s="571"/>
+      <c r="M37" s="571"/>
+      <c r="N37" s="571">
         <v>3343.7686306556716</v>
       </c>
-      <c r="O37" s="465"/>
-      <c r="P37" s="465"/>
-      <c r="Q37" s="465">
+      <c r="O37" s="571"/>
+      <c r="P37" s="571"/>
+      <c r="Q37" s="571">
         <v>4688.652994782633</v>
       </c>
-      <c r="R37" s="465"/>
-      <c r="S37" s="465"/>
+      <c r="R37" s="571"/>
+      <c r="S37" s="571"/>
       <c r="T37" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="U37" s="463">
+      <c r="U37" s="569">
         <v>6369.8089133391841</v>
       </c>
-      <c r="V37" s="466"/>
+      <c r="V37" s="572"/>
       <c r="W37" s="60"/>
       <c r="Z37" s="35" t="s">
         <v>442</v>
@@ -18252,28 +18274,28 @@
     </row>
     <row r="38" spans="2:31" ht="18.75" customHeight="1">
       <c r="B38" s="60"/>
-      <c r="C38" s="458" t="s">
+      <c r="C38" s="564" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="459"/>
-      <c r="E38" s="459"/>
-      <c r="F38" s="459"/>
-      <c r="G38" s="459"/>
-      <c r="H38" s="459"/>
-      <c r="I38" s="459"/>
-      <c r="J38" s="459"/>
-      <c r="K38" s="459"/>
-      <c r="L38" s="459"/>
-      <c r="M38" s="459"/>
-      <c r="N38" s="459"/>
-      <c r="O38" s="459"/>
-      <c r="P38" s="459"/>
-      <c r="Q38" s="459"/>
-      <c r="R38" s="459"/>
-      <c r="S38" s="459"/>
-      <c r="T38" s="459"/>
-      <c r="U38" s="459"/>
-      <c r="V38" s="459"/>
+      <c r="D38" s="565"/>
+      <c r="E38" s="565"/>
+      <c r="F38" s="565"/>
+      <c r="G38" s="565"/>
+      <c r="H38" s="565"/>
+      <c r="I38" s="565"/>
+      <c r="J38" s="565"/>
+      <c r="K38" s="565"/>
+      <c r="L38" s="565"/>
+      <c r="M38" s="565"/>
+      <c r="N38" s="565"/>
+      <c r="O38" s="565"/>
+      <c r="P38" s="565"/>
+      <c r="Q38" s="565"/>
+      <c r="R38" s="565"/>
+      <c r="S38" s="565"/>
+      <c r="T38" s="565"/>
+      <c r="U38" s="565"/>
+      <c r="V38" s="565"/>
       <c r="W38" s="60"/>
       <c r="X38" s="329" t="s">
         <v>428</v>
@@ -18283,26 +18305,26 @@
     </row>
     <row r="39" spans="2:31">
       <c r="B39" s="60"/>
-      <c r="C39" s="460"/>
-      <c r="D39" s="460"/>
-      <c r="E39" s="460"/>
-      <c r="F39" s="460"/>
-      <c r="G39" s="460"/>
-      <c r="H39" s="460"/>
-      <c r="I39" s="460"/>
-      <c r="J39" s="460"/>
-      <c r="K39" s="460"/>
-      <c r="L39" s="460"/>
-      <c r="M39" s="460"/>
-      <c r="N39" s="460"/>
-      <c r="O39" s="460"/>
-      <c r="P39" s="460"/>
-      <c r="Q39" s="460"/>
-      <c r="R39" s="460"/>
-      <c r="S39" s="460"/>
-      <c r="T39" s="460"/>
-      <c r="U39" s="460"/>
-      <c r="V39" s="460"/>
+      <c r="C39" s="566"/>
+      <c r="D39" s="566"/>
+      <c r="E39" s="566"/>
+      <c r="F39" s="566"/>
+      <c r="G39" s="566"/>
+      <c r="H39" s="566"/>
+      <c r="I39" s="566"/>
+      <c r="J39" s="566"/>
+      <c r="K39" s="566"/>
+      <c r="L39" s="566"/>
+      <c r="M39" s="566"/>
+      <c r="N39" s="566"/>
+      <c r="O39" s="566"/>
+      <c r="P39" s="566"/>
+      <c r="Q39" s="566"/>
+      <c r="R39" s="566"/>
+      <c r="S39" s="566"/>
+      <c r="T39" s="566"/>
+      <c r="U39" s="566"/>
+      <c r="V39" s="566"/>
       <c r="W39" s="60"/>
       <c r="X39" t="s">
         <v>429</v>
@@ -18340,6 +18362,7 @@
       <c r="AE40" s="191"/>
     </row>
     <row r="41" spans="2:31">
+      <c r="K41" s="584"/>
       <c r="X41" t="s">
         <v>430</v>
       </c>
@@ -18549,7 +18572,7 @@
         <f>SUM(Z39:Z51)</f>
         <v>1367.8373582578536</v>
       </c>
-      <c r="AA52" s="583">
+      <c r="AA52" s="339">
         <f>(入力する経費!J22   +
 入力する経費!J23/1.1+
 入力する経費!J25/1.1+
@@ -18566,7 +18589,7 @@
         <v>1367.8373582578536</v>
       </c>
       <c r="AB52" s="134" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AD52" s="134"/>
       <c r="AE52" s="191"/>
@@ -18637,74 +18660,121 @@
     </row>
   </sheetData>
   <mergeCells count="207">
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="C38:V39"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:P22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:P19"/>
     <mergeCell ref="Q17:S17"/>
     <mergeCell ref="T17:V17"/>
     <mergeCell ref="D18:G18"/>
@@ -18729,121 +18799,74 @@
     <mergeCell ref="H15:J15"/>
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:P22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="C38:V39"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
   </mergeCells>
   <phoneticPr fontId="21"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -22375,7 +22398,7 @@
   <dimension ref="A1:AQ90"/>
   <sheetViews>
     <sheetView topLeftCell="A32" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="21" customHeight="1"/>
@@ -24757,27 +24780,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x4f5c__x6210__x65e5__x6642_ xmlns="2299a388-bd21-4770-bef4-e8c87f37b259" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2299a388-bd21-4770-bef4-e8c87f37b259">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e3e09e67-d7cc-4e47-828f-5f2cf354dd97" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F2AA84FCD862FC41B047E98489BC9CA6" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="4e433ba53d8e641bdcace69108658e47">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2299a388-bd21-4770-bef4-e8c87f37b259" xmlns:ns3="e3e09e67-d7cc-4e47-828f-5f2cf354dd97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7d191364cfc2c215009f848f132813d" ns2:_="" ns3:_="">
     <xsd:import namespace="2299a388-bd21-4770-bef4-e8c87f37b259"/>
@@ -25018,32 +25020,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{475F9EA7-6F42-455D-A78E-38FB3538E6AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="2299a388-bd21-4770-bef4-e8c87f37b259"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e3e09e67-d7cc-4e47-828f-5f2cf354dd97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F488096-E65D-4316-9708-996F93019982}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x4f5c__x6210__x65e5__x6642_ xmlns="2299a388-bd21-4770-bef4-e8c87f37b259" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="2299a388-bd21-4770-bef4-e8c87f37b259">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e3e09e67-d7cc-4e47-828f-5f2cf354dd97" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B66BB257-1903-40BA-A78F-8E88550EB394}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25060,4 +25058,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F488096-E65D-4316-9708-996F93019982}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{475F9EA7-6F42-455D-A78E-38FB3538E6AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="2299a388-bd21-4770-bef4-e8c87f37b259"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e3e09e67-d7cc-4e47-828f-5f2cf354dd97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>